--- a/importer/metadata.xlsx
+++ b/importer/metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pilou/dev/platyplus/cerberus/importer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8363E36C-7745-BE46-A444-C3DD249FCCF5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CF3C01-BA63-2A44-9F4B-C21987C4792B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="440" windowWidth="25440" windowHeight="14340" xr2:uid="{5441FEBD-B00D-ED43-B1D0-1B0469BA4F3D}"/>
+    <workbookView xWindow="80" yWindow="440" windowWidth="25440" windowHeight="14260" xr2:uid="{5441FEBD-B00D-ED43-B1D0-1B0469BA4F3D}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5670" uniqueCount="1837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5700" uniqueCount="1841">
   <si>
     <t>Type</t>
   </si>
@@ -5545,6 +5545,18 @@
   </si>
   <si>
     <t>=&gt; check and document duplicates</t>
+  </si>
+  <si>
+    <t>ART_AntiRetro_MedicineTaken</t>
+  </si>
+  <si>
+    <t>ART_AntiBio_MedicineCode</t>
+  </si>
+  <si>
+    <t>ART_AntiTB_MedicineCode</t>
+  </si>
+  <si>
+    <t>OtherOIs</t>
   </si>
 </sst>
 </file>
@@ -5956,8 +5968,8 @@
   <dimension ref="A1:H1211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A713" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C879" sqref="C879"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9050,7 +9062,9 @@
         <v>291</v>
       </c>
       <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
+      <c r="G146" s="1" t="s">
+        <v>1837</v>
+      </c>
       <c r="H146" s="1"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -9070,7 +9084,9 @@
         <v>291</v>
       </c>
       <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
+      <c r="G147" s="1" t="s">
+        <v>1837</v>
+      </c>
       <c r="H147" s="1"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
@@ -9090,7 +9106,9 @@
         <v>291</v>
       </c>
       <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
+      <c r="G148" s="1" t="s">
+        <v>1837</v>
+      </c>
       <c r="H148" s="1"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -9110,7 +9128,9 @@
         <v>291</v>
       </c>
       <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
+      <c r="G149" s="1" t="s">
+        <v>1837</v>
+      </c>
       <c r="H149" s="1"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -9130,7 +9150,9 @@
         <v>296</v>
       </c>
       <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
+      <c r="G150" s="1" t="s">
+        <v>1837</v>
+      </c>
       <c r="H150" s="1"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -9150,7 +9172,9 @@
         <v>298</v>
       </c>
       <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
+      <c r="G151" s="1" t="s">
+        <v>1838</v>
+      </c>
       <c r="H151" s="1"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
@@ -9170,7 +9194,9 @@
         <v>298</v>
       </c>
       <c r="F152" s="1"/>
-      <c r="G152" s="1"/>
+      <c r="G152" s="1" t="s">
+        <v>1838</v>
+      </c>
       <c r="H152" s="1"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
@@ -9190,7 +9216,9 @@
         <v>298</v>
       </c>
       <c r="F153" s="1"/>
-      <c r="G153" s="1"/>
+      <c r="G153" s="1" t="s">
+        <v>1838</v>
+      </c>
       <c r="H153" s="1"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
@@ -9210,7 +9238,9 @@
         <v>298</v>
       </c>
       <c r="F154" s="1"/>
-      <c r="G154" s="1"/>
+      <c r="G154" s="1" t="s">
+        <v>1838</v>
+      </c>
       <c r="H154" s="1"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -9230,7 +9260,9 @@
         <v>298</v>
       </c>
       <c r="F155" s="1"/>
-      <c r="G155" s="1"/>
+      <c r="G155" s="1" t="s">
+        <v>1838</v>
+      </c>
       <c r="H155" s="1"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
@@ -9250,7 +9282,9 @@
         <v>298</v>
       </c>
       <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
+      <c r="G156" s="1" t="s">
+        <v>1839</v>
+      </c>
       <c r="H156" s="1"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
@@ -9270,7 +9304,9 @@
         <v>298</v>
       </c>
       <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
+      <c r="G157" s="1" t="s">
+        <v>1839</v>
+      </c>
       <c r="H157" s="1"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
@@ -9290,7 +9326,9 @@
         <v>298</v>
       </c>
       <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
+      <c r="G158" s="1" t="s">
+        <v>1839</v>
+      </c>
       <c r="H158" s="1"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
@@ -9310,7 +9348,9 @@
         <v>307</v>
       </c>
       <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
+      <c r="G159" s="1" t="s">
+        <v>1839</v>
+      </c>
       <c r="H159" s="1"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -9330,7 +9370,9 @@
         <v>309</v>
       </c>
       <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
+      <c r="G160" s="1" t="s">
+        <v>1839</v>
+      </c>
       <c r="H160" s="1"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
@@ -11312,7 +11354,9 @@
       <c r="F254" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G254" s="1"/>
+      <c r="G254" s="1" t="s">
+        <v>462</v>
+      </c>
       <c r="H254" s="1"/>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
@@ -11334,7 +11378,9 @@
       <c r="F255" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="G255" s="1"/>
+      <c r="G255" s="1" t="s">
+        <v>462</v>
+      </c>
       <c r="H255" s="1"/>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
@@ -11356,7 +11402,9 @@
       <c r="F256" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="G256" s="1"/>
+      <c r="G256" s="1" t="s">
+        <v>462</v>
+      </c>
       <c r="H256" s="1"/>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
@@ -11378,7 +11426,9 @@
       <c r="F257" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="G257" s="1"/>
+      <c r="G257" s="1" t="s">
+        <v>462</v>
+      </c>
       <c r="H257" s="1"/>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
@@ -11400,7 +11450,9 @@
       <c r="F258" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="G258" s="1"/>
+      <c r="G258" s="1" t="s">
+        <v>462</v>
+      </c>
       <c r="H258" s="1"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
@@ -11422,7 +11474,9 @@
       <c r="F259" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G259" s="1"/>
+      <c r="G259" s="1" t="s">
+        <v>480</v>
+      </c>
       <c r="H259" s="1"/>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
@@ -11444,7 +11498,9 @@
       <c r="F260" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="G260" s="1"/>
+      <c r="G260" s="1" t="s">
+        <v>480</v>
+      </c>
       <c r="H260" s="1"/>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
@@ -11466,7 +11522,9 @@
       <c r="F261" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="G261" s="1"/>
+      <c r="G261" s="1" t="s">
+        <v>480</v>
+      </c>
       <c r="H261" s="1"/>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
@@ -11488,7 +11546,9 @@
       <c r="F262" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="G262" s="1"/>
+      <c r="G262" s="1" t="s">
+        <v>480</v>
+      </c>
       <c r="H262" s="1"/>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
@@ -11510,7 +11570,9 @@
       <c r="F263" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="G263" s="1"/>
+      <c r="G263" s="1" t="s">
+        <v>480</v>
+      </c>
       <c r="H263" s="1"/>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
@@ -20726,7 +20788,9 @@
         <v>1113</v>
       </c>
       <c r="F686" s="1"/>
-      <c r="G686" s="1"/>
+      <c r="G686" s="1" t="s">
+        <v>1840</v>
+      </c>
       <c r="H686" s="1"/>
     </row>
     <row r="687" spans="1:8" x14ac:dyDescent="0.2">
@@ -20746,7 +20810,9 @@
         <v>1115</v>
       </c>
       <c r="F687" s="1"/>
-      <c r="G687" s="1"/>
+      <c r="G687" s="1" t="s">
+        <v>1840</v>
+      </c>
       <c r="H687" s="1"/>
     </row>
     <row r="688" spans="1:8" x14ac:dyDescent="0.2">
@@ -20766,7 +20832,9 @@
         <v>1117</v>
       </c>
       <c r="F688" s="1"/>
-      <c r="G688" s="1"/>
+      <c r="G688" s="1" t="s">
+        <v>1840</v>
+      </c>
       <c r="H688" s="1"/>
     </row>
     <row r="689" spans="1:8" x14ac:dyDescent="0.2">
@@ -20786,7 +20854,9 @@
         <v>1119</v>
       </c>
       <c r="F689" s="1"/>
-      <c r="G689" s="1"/>
+      <c r="G689" s="1" t="s">
+        <v>1840</v>
+      </c>
       <c r="H689" s="1"/>
     </row>
     <row r="690" spans="1:8" x14ac:dyDescent="0.2">
@@ -20806,7 +20876,9 @@
         <v>1121</v>
       </c>
       <c r="F690" s="1"/>
-      <c r="G690" s="1"/>
+      <c r="G690" s="1" t="s">
+        <v>1840</v>
+      </c>
       <c r="H690" s="1"/>
     </row>
     <row r="691" spans="1:8" x14ac:dyDescent="0.2">
@@ -25485,7 +25557,7 @@
       <c r="G912" s="1"/>
       <c r="H912" s="1"/>
     </row>
-    <row r="913" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
         <v>1368</v>
       </c>
@@ -25933,7 +26005,7 @@
       <c r="G934" s="1"/>
       <c r="H934" s="1"/>
     </row>
-    <row r="935" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
         <v>1403</v>
       </c>
@@ -26303,7 +26375,7 @@
       <c r="G952" s="1"/>
       <c r="H952" s="1"/>
     </row>
-    <row r="953" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:8" ht="187" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
         <v>1403</v>
       </c>
@@ -26689,7 +26761,7 @@
       <c r="G971" s="1"/>
       <c r="H971" s="1"/>
     </row>
-    <row r="972" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
         <v>1403</v>
       </c>
@@ -26949,7 +27021,7 @@
       <c r="G983" s="1"/>
       <c r="H983" s="1"/>
     </row>
-    <row r="984" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:8" ht="204" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
         <v>1403</v>
       </c>
@@ -28437,7 +28509,7 @@
       <c r="G1052" s="1"/>
       <c r="H1052" s="1"/>
     </row>
-    <row r="1053" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
         <v>1582</v>
       </c>

--- a/importer/metadata.xlsx
+++ b/importer/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pilou/dev/platyplus/cerberus/importer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969221BD-5258-584C-95C5-CEFB72DD5299}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE7DAC7-9922-1F48-8E20-03DE5B1B3FC3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="440" windowWidth="25440" windowHeight="14260" xr2:uid="{5441FEBD-B00D-ED43-B1D0-1B0469BA4F3D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5963" uniqueCount="1986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6020" uniqueCount="1999">
   <si>
     <t>Type</t>
   </si>
@@ -5992,6 +5992,45 @@
   </si>
   <si>
     <t>who stage</t>
+  </si>
+  <si>
+    <t>blood pressure diastolic</t>
+  </si>
+  <si>
+    <t>blood pressure systolic</t>
+  </si>
+  <si>
+    <t>sample date</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>amk</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>fq</t>
+  </si>
+  <si>
+    <t>other</t>
   </si>
 </sst>
 </file>
@@ -6403,8 +6442,8 @@
   <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <pane ySplit="1" topLeftCell="A1121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1125" sqref="I1125:I1135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6413,7 +6452,8 @@
     <col min="3" max="3" width="36.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="9" width="18.33203125" customWidth="1"/>
+    <col min="6" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="27.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -7176,7 +7216,7 @@
       <c r="B32" s="1">
         <v>31</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -7449,7 +7489,7 @@
       <c r="B43" s="1">
         <v>42</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -26527,7 +26567,7 @@
       <c r="B879" s="1">
         <v>19</v>
       </c>
-      <c r="C879" s="2" t="s">
+      <c r="C879" s="3" t="s">
         <v>1333</v>
       </c>
       <c r="D879" s="1" t="s">
@@ -26539,7 +26579,9 @@
       <c r="F879" s="1"/>
       <c r="G879" s="1"/>
       <c r="H879" s="1"/>
-      <c r="I879" s="1"/>
+      <c r="I879" s="1" t="s">
+        <v>1987</v>
+      </c>
     </row>
     <row r="880" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
@@ -26548,7 +26590,7 @@
       <c r="B880" s="1">
         <v>20</v>
       </c>
-      <c r="C880" s="2" t="s">
+      <c r="C880" s="3" t="s">
         <v>1335</v>
       </c>
       <c r="D880" s="1" t="s">
@@ -26560,7 +26602,9 @@
       <c r="F880" s="1"/>
       <c r="G880" s="1"/>
       <c r="H880" s="1"/>
-      <c r="I880" s="1"/>
+      <c r="I880" s="1" t="s">
+        <v>1986</v>
+      </c>
     </row>
     <row r="881" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
@@ -31115,7 +31159,9 @@
         <v>1823</v>
       </c>
       <c r="H1081" s="1"/>
-      <c r="I1081" s="1"/>
+      <c r="I1081" s="1" t="s">
+        <v>1988</v>
+      </c>
     </row>
     <row r="1082" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
@@ -31140,7 +31186,9 @@
         <v>1823</v>
       </c>
       <c r="H1082" s="1"/>
-      <c r="I1082" s="1"/>
+      <c r="I1082" s="1" t="s">
+        <v>1989</v>
+      </c>
     </row>
     <row r="1083" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
@@ -31163,7 +31211,9 @@
         <v>1823</v>
       </c>
       <c r="H1083" s="1"/>
-      <c r="I1083" s="1"/>
+      <c r="I1083" s="1" t="s">
+        <v>1990</v>
+      </c>
     </row>
     <row r="1084" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
@@ -31186,7 +31236,9 @@
         <v>1823</v>
       </c>
       <c r="H1084" s="1"/>
-      <c r="I1084" s="1"/>
+      <c r="I1084" s="1" t="s">
+        <v>1991</v>
+      </c>
     </row>
     <row r="1085" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
@@ -31209,7 +31261,9 @@
         <v>1823</v>
       </c>
       <c r="H1085" s="1"/>
-      <c r="I1085" s="1"/>
+      <c r="I1085" s="1" t="s">
+        <v>1992</v>
+      </c>
     </row>
     <row r="1086" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
@@ -31232,7 +31286,9 @@
         <v>1823</v>
       </c>
       <c r="H1086" s="1"/>
-      <c r="I1086" s="1"/>
+      <c r="I1086" s="1" t="s">
+        <v>1993</v>
+      </c>
     </row>
     <row r="1087" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
@@ -31255,7 +31311,9 @@
         <v>1823</v>
       </c>
       <c r="H1087" s="1"/>
-      <c r="I1087" s="1"/>
+      <c r="I1087" s="1" t="s">
+        <v>1994</v>
+      </c>
     </row>
     <row r="1088" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
@@ -31278,7 +31336,9 @@
         <v>1823</v>
       </c>
       <c r="H1088" s="1"/>
-      <c r="I1088" s="1"/>
+      <c r="I1088" s="1" t="s">
+        <v>1995</v>
+      </c>
     </row>
     <row r="1089" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
@@ -31301,7 +31361,9 @@
         <v>1823</v>
       </c>
       <c r="H1089" s="1"/>
-      <c r="I1089" s="1"/>
+      <c r="I1089" s="1" t="s">
+        <v>1996</v>
+      </c>
     </row>
     <row r="1090" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
@@ -31324,7 +31386,9 @@
         <v>1823</v>
       </c>
       <c r="H1090" s="1"/>
-      <c r="I1090" s="1"/>
+      <c r="I1090" s="1" t="s">
+        <v>1997</v>
+      </c>
     </row>
     <row r="1091" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1091" t="s">
@@ -31347,7 +31411,9 @@
         <v>1823</v>
       </c>
       <c r="H1091" s="1"/>
-      <c r="I1091" s="1"/>
+      <c r="I1091" s="1" t="s">
+        <v>1998</v>
+      </c>
     </row>
     <row r="1092" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1092" t="s">
@@ -31370,7 +31436,9 @@
         <v>1823</v>
       </c>
       <c r="H1092" s="1"/>
-      <c r="I1092" s="1"/>
+      <c r="I1092" s="1" t="s">
+        <v>1988</v>
+      </c>
     </row>
     <row r="1093" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1093" t="s">
@@ -31395,7 +31463,9 @@
         <v>1823</v>
       </c>
       <c r="H1093" s="1"/>
-      <c r="I1093" s="1"/>
+      <c r="I1093" s="1" t="s">
+        <v>1989</v>
+      </c>
     </row>
     <row r="1094" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
@@ -31418,7 +31488,9 @@
         <v>1823</v>
       </c>
       <c r="H1094" s="1"/>
-      <c r="I1094" s="1"/>
+      <c r="I1094" s="1" t="s">
+        <v>1990</v>
+      </c>
     </row>
     <row r="1095" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1095" t="s">
@@ -31441,7 +31513,9 @@
         <v>1823</v>
       </c>
       <c r="H1095" s="1"/>
-      <c r="I1095" s="1"/>
+      <c r="I1095" s="1" t="s">
+        <v>1991</v>
+      </c>
     </row>
     <row r="1096" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1096" t="s">
@@ -31464,7 +31538,9 @@
         <v>1823</v>
       </c>
       <c r="H1096" s="1"/>
-      <c r="I1096" s="1"/>
+      <c r="I1096" s="1" t="s">
+        <v>1992</v>
+      </c>
     </row>
     <row r="1097" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1097" t="s">
@@ -31487,7 +31563,9 @@
         <v>1823</v>
       </c>
       <c r="H1097" s="1"/>
-      <c r="I1097" s="1"/>
+      <c r="I1097" s="1" t="s">
+        <v>1993</v>
+      </c>
     </row>
     <row r="1098" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1098" t="s">
@@ -31510,7 +31588,9 @@
         <v>1823</v>
       </c>
       <c r="H1098" s="1"/>
-      <c r="I1098" s="1"/>
+      <c r="I1098" s="1" t="s">
+        <v>1994</v>
+      </c>
     </row>
     <row r="1099" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1099" t="s">
@@ -31533,7 +31613,9 @@
         <v>1823</v>
       </c>
       <c r="H1099" s="1"/>
-      <c r="I1099" s="1"/>
+      <c r="I1099" s="1" t="s">
+        <v>1995</v>
+      </c>
     </row>
     <row r="1100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
@@ -31556,7 +31638,9 @@
         <v>1823</v>
       </c>
       <c r="H1100" s="1"/>
-      <c r="I1100" s="1"/>
+      <c r="I1100" s="1" t="s">
+        <v>1996</v>
+      </c>
     </row>
     <row r="1101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
@@ -31579,7 +31663,9 @@
         <v>1823</v>
       </c>
       <c r="H1101" s="1"/>
-      <c r="I1101" s="1"/>
+      <c r="I1101" s="1" t="s">
+        <v>1997</v>
+      </c>
     </row>
     <row r="1102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
@@ -31602,7 +31688,9 @@
         <v>1823</v>
       </c>
       <c r="H1102" s="1"/>
-      <c r="I1102" s="1"/>
+      <c r="I1102" s="1" t="s">
+        <v>1998</v>
+      </c>
     </row>
     <row r="1103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
@@ -31625,7 +31713,9 @@
         <v>1823</v>
       </c>
       <c r="H1103" s="1"/>
-      <c r="I1103" s="1"/>
+      <c r="I1103" s="1" t="s">
+        <v>1988</v>
+      </c>
     </row>
     <row r="1104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
@@ -31650,7 +31740,9 @@
         <v>1823</v>
       </c>
       <c r="H1104" s="1"/>
-      <c r="I1104" s="1"/>
+      <c r="I1104" s="1" t="s">
+        <v>1989</v>
+      </c>
     </row>
     <row r="1105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1105" t="s">
@@ -31673,7 +31765,9 @@
         <v>1823</v>
       </c>
       <c r="H1105" s="1"/>
-      <c r="I1105" s="1"/>
+      <c r="I1105" s="1" t="s">
+        <v>1990</v>
+      </c>
     </row>
     <row r="1106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
@@ -31696,7 +31790,9 @@
         <v>1823</v>
       </c>
       <c r="H1106" s="1"/>
-      <c r="I1106" s="1"/>
+      <c r="I1106" s="1" t="s">
+        <v>1991</v>
+      </c>
     </row>
     <row r="1107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
@@ -31719,7 +31815,9 @@
         <v>1823</v>
       </c>
       <c r="H1107" s="1"/>
-      <c r="I1107" s="1"/>
+      <c r="I1107" s="1" t="s">
+        <v>1992</v>
+      </c>
     </row>
     <row r="1108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
@@ -31742,7 +31840,9 @@
         <v>1823</v>
       </c>
       <c r="H1108" s="1"/>
-      <c r="I1108" s="1"/>
+      <c r="I1108" s="1" t="s">
+        <v>1993</v>
+      </c>
     </row>
     <row r="1109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1109" t="s">
@@ -31765,7 +31865,9 @@
         <v>1823</v>
       </c>
       <c r="H1109" s="1"/>
-      <c r="I1109" s="1"/>
+      <c r="I1109" s="1" t="s">
+        <v>1994</v>
+      </c>
     </row>
     <row r="1110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
@@ -31788,7 +31890,9 @@
         <v>1823</v>
       </c>
       <c r="H1110" s="1"/>
-      <c r="I1110" s="1"/>
+      <c r="I1110" s="1" t="s">
+        <v>1995</v>
+      </c>
     </row>
     <row r="1111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1111" t="s">
@@ -31811,7 +31915,9 @@
         <v>1823</v>
       </c>
       <c r="H1111" s="1"/>
-      <c r="I1111" s="1"/>
+      <c r="I1111" s="1" t="s">
+        <v>1996</v>
+      </c>
     </row>
     <row r="1112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1112" t="s">
@@ -31834,7 +31940,9 @@
         <v>1823</v>
       </c>
       <c r="H1112" s="1"/>
-      <c r="I1112" s="1"/>
+      <c r="I1112" s="1" t="s">
+        <v>1997</v>
+      </c>
     </row>
     <row r="1113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
@@ -31857,7 +31965,9 @@
         <v>1823</v>
       </c>
       <c r="H1113" s="1"/>
-      <c r="I1113" s="1"/>
+      <c r="I1113" s="1" t="s">
+        <v>1998</v>
+      </c>
     </row>
     <row r="1114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
@@ -31880,7 +31990,9 @@
         <v>1823</v>
       </c>
       <c r="H1114" s="1"/>
-      <c r="I1114" s="1"/>
+      <c r="I1114" s="1" t="s">
+        <v>1988</v>
+      </c>
     </row>
     <row r="1115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
@@ -31905,7 +32017,9 @@
         <v>1823</v>
       </c>
       <c r="H1115" s="1"/>
-      <c r="I1115" s="1"/>
+      <c r="I1115" s="1" t="s">
+        <v>1989</v>
+      </c>
     </row>
     <row r="1116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
@@ -31928,7 +32042,9 @@
         <v>1823</v>
       </c>
       <c r="H1116" s="1"/>
-      <c r="I1116" s="1"/>
+      <c r="I1116" s="1" t="s">
+        <v>1990</v>
+      </c>
     </row>
     <row r="1117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1117" t="s">
@@ -31951,7 +32067,9 @@
         <v>1823</v>
       </c>
       <c r="H1117" s="1"/>
-      <c r="I1117" s="1"/>
+      <c r="I1117" s="1" t="s">
+        <v>1991</v>
+      </c>
     </row>
     <row r="1118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
@@ -31974,7 +32092,9 @@
         <v>1823</v>
       </c>
       <c r="H1118" s="1"/>
-      <c r="I1118" s="1"/>
+      <c r="I1118" s="1" t="s">
+        <v>1992</v>
+      </c>
     </row>
     <row r="1119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1119" t="s">
@@ -31997,7 +32117,9 @@
         <v>1823</v>
       </c>
       <c r="H1119" s="1"/>
-      <c r="I1119" s="1"/>
+      <c r="I1119" s="1" t="s">
+        <v>1993</v>
+      </c>
     </row>
     <row r="1120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1120" t="s">
@@ -32020,7 +32142,9 @@
         <v>1823</v>
       </c>
       <c r="H1120" s="1"/>
-      <c r="I1120" s="1"/>
+      <c r="I1120" s="1" t="s">
+        <v>1994</v>
+      </c>
     </row>
     <row r="1121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
@@ -32043,7 +32167,9 @@
         <v>1823</v>
       </c>
       <c r="H1121" s="1"/>
-      <c r="I1121" s="1"/>
+      <c r="I1121" s="1" t="s">
+        <v>1995</v>
+      </c>
     </row>
     <row r="1122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1122" t="s">
@@ -32066,7 +32192,9 @@
         <v>1823</v>
       </c>
       <c r="H1122" s="1"/>
-      <c r="I1122" s="1"/>
+      <c r="I1122" s="1" t="s">
+        <v>1996</v>
+      </c>
     </row>
     <row r="1123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1123" t="s">
@@ -32089,7 +32217,9 @@
         <v>1823</v>
       </c>
       <c r="H1123" s="1"/>
-      <c r="I1123" s="1"/>
+      <c r="I1123" s="1" t="s">
+        <v>1997</v>
+      </c>
     </row>
     <row r="1124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1124" t="s">
@@ -32112,7 +32242,9 @@
         <v>1823</v>
       </c>
       <c r="H1124" s="1"/>
-      <c r="I1124" s="1"/>
+      <c r="I1124" s="1" t="s">
+        <v>1998</v>
+      </c>
     </row>
     <row r="1125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1125" t="s">
@@ -32135,7 +32267,9 @@
         <v>1823</v>
       </c>
       <c r="H1125" s="1"/>
-      <c r="I1125" s="1"/>
+      <c r="I1125" s="1" t="s">
+        <v>1988</v>
+      </c>
     </row>
     <row r="1126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1126" t="s">
@@ -32160,7 +32294,9 @@
         <v>1823</v>
       </c>
       <c r="H1126" s="1"/>
-      <c r="I1126" s="1"/>
+      <c r="I1126" s="1" t="s">
+        <v>1989</v>
+      </c>
     </row>
     <row r="1127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1127" t="s">
@@ -32183,7 +32319,9 @@
         <v>1823</v>
       </c>
       <c r="H1127" s="1"/>
-      <c r="I1127" s="1"/>
+      <c r="I1127" s="1" t="s">
+        <v>1990</v>
+      </c>
     </row>
     <row r="1128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1128" t="s">
@@ -32206,7 +32344,9 @@
         <v>1823</v>
       </c>
       <c r="H1128" s="1"/>
-      <c r="I1128" s="1"/>
+      <c r="I1128" s="1" t="s">
+        <v>1991</v>
+      </c>
     </row>
     <row r="1129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1129" t="s">
@@ -32229,7 +32369,9 @@
         <v>1823</v>
       </c>
       <c r="H1129" s="1"/>
-      <c r="I1129" s="1"/>
+      <c r="I1129" s="1" t="s">
+        <v>1992</v>
+      </c>
     </row>
     <row r="1130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1130" t="s">
@@ -32252,7 +32394,9 @@
         <v>1823</v>
       </c>
       <c r="H1130" s="1"/>
-      <c r="I1130" s="1"/>
+      <c r="I1130" s="1" t="s">
+        <v>1993</v>
+      </c>
     </row>
     <row r="1131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1131" t="s">
@@ -32275,7 +32419,9 @@
         <v>1823</v>
       </c>
       <c r="H1131" s="1"/>
-      <c r="I1131" s="1"/>
+      <c r="I1131" s="1" t="s">
+        <v>1994</v>
+      </c>
     </row>
     <row r="1132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
@@ -32298,7 +32444,9 @@
         <v>1823</v>
       </c>
       <c r="H1132" s="1"/>
-      <c r="I1132" s="1"/>
+      <c r="I1132" s="1" t="s">
+        <v>1995</v>
+      </c>
     </row>
     <row r="1133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1133" t="s">
@@ -32321,7 +32469,9 @@
         <v>1823</v>
       </c>
       <c r="H1133" s="1"/>
-      <c r="I1133" s="1"/>
+      <c r="I1133" s="1" t="s">
+        <v>1996</v>
+      </c>
     </row>
     <row r="1134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
@@ -32344,7 +32494,9 @@
         <v>1823</v>
       </c>
       <c r="H1134" s="1"/>
-      <c r="I1134" s="1"/>
+      <c r="I1134" s="1" t="s">
+        <v>1997</v>
+      </c>
     </row>
     <row r="1135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
@@ -32367,7 +32519,9 @@
         <v>1823</v>
       </c>
       <c r="H1135" s="1"/>
-      <c r="I1135" s="1"/>
+      <c r="I1135" s="1" t="s">
+        <v>1998</v>
+      </c>
     </row>
     <row r="1136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">

--- a/importer/metadata.xlsx
+++ b/importer/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pilou/dev/platyplus/cerberus/importer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B5EBE9-04FE-1E45-91DD-5BABFBB0B1D7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB02DB44-73E6-E242-99FF-BCAA0BA6637F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="440" windowWidth="25440" windowHeight="14260" xr2:uid="{5441FEBD-B00D-ED43-B1D0-1B0469BA4F3D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10550" uniqueCount="3840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10550" uniqueCount="3839">
   <si>
     <t>Type</t>
   </si>
@@ -11404,9 +11404,6 @@
   </si>
   <si>
     <t>recreational; other</t>
-  </si>
-  <si>
-    <t>DrugType</t>
   </si>
   <si>
     <t>alcohol</t>
@@ -12053,8 +12050,8 @@
   <dimension ref="A1:N1511"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L114" sqref="L114:L117"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15078,17 +15075,17 @@
         <v>2366</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>3790</v>
+        <v>3834</v>
       </c>
       <c r="I90" s="2"/>
       <c r="J90" s="2" t="s">
         <v>1899</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>3791</v>
+        <v>3790</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>3836</v>
+        <v>3835</v>
       </c>
       <c r="M90" s="26" t="str">
         <f t="shared" si="1"/>
@@ -15116,17 +15113,17 @@
         <v>2367</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="I91" s="2"/>
       <c r="J91" s="2" t="s">
         <v>1899</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>3791</v>
+        <v>3790</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>3837</v>
+        <v>3836</v>
       </c>
       <c r="M91" s="26" t="str">
         <f t="shared" si="1"/>
@@ -15154,17 +15151,17 @@
         <v>2368</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="I92" s="2"/>
       <c r="J92" s="2" t="s">
         <v>1899</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>3791</v>
+        <v>3790</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>3838</v>
+        <v>3837</v>
       </c>
       <c r="M92" s="26" t="str">
         <f t="shared" si="1"/>
@@ -15192,17 +15189,17 @@
         <v>2369</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="I93" s="2"/>
       <c r="J93" s="2" t="s">
         <v>1899</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>3791</v>
+        <v>3790</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>3839</v>
+        <v>3838</v>
       </c>
       <c r="M93" s="26" t="str">
         <f t="shared" si="1"/>
@@ -15230,17 +15227,17 @@
         <v>2370</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="I94" s="2"/>
       <c r="J94" s="2" t="s">
         <v>1899</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>3792</v>
+        <v>3791</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>3836</v>
+        <v>3835</v>
       </c>
       <c r="M94" s="26" t="str">
         <f t="shared" si="1"/>
@@ -15268,17 +15265,17 @@
         <v>2371</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="I95" s="2"/>
       <c r="J95" s="2" t="s">
         <v>1899</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>3792</v>
+        <v>3791</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>3837</v>
+        <v>3836</v>
       </c>
       <c r="M95" s="26" t="str">
         <f t="shared" si="1"/>
@@ -15306,17 +15303,17 @@
         <v>2372</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="I96" s="2"/>
       <c r="J96" s="2" t="s">
         <v>1899</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>3792</v>
+        <v>3791</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>3838</v>
+        <v>3837</v>
       </c>
       <c r="M96" s="26" t="str">
         <f t="shared" si="1"/>
@@ -15344,17 +15341,17 @@
         <v>2373</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="I97" s="2"/>
       <c r="J97" s="2" t="s">
         <v>1899</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>3792</v>
+        <v>3791</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>3839</v>
+        <v>3838</v>
       </c>
       <c r="M97" s="26" t="str">
         <f t="shared" si="1"/>
@@ -15382,17 +15379,17 @@
         <v>2374</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="I98" s="2"/>
       <c r="J98" s="2" t="s">
         <v>1899</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>3793</v>
+        <v>3792</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>3836</v>
+        <v>3835</v>
       </c>
       <c r="M98" s="26" t="str">
         <f t="shared" si="1"/>
@@ -15420,17 +15417,17 @@
         <v>2375</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="I99" s="2"/>
       <c r="J99" s="2" t="s">
         <v>1899</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>3793</v>
+        <v>3792</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>3837</v>
+        <v>3836</v>
       </c>
       <c r="M99" s="26" t="str">
         <f t="shared" si="1"/>
@@ -15458,17 +15455,17 @@
         <v>2376</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="I100" s="2"/>
       <c r="J100" s="2" t="s">
         <v>1899</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>3793</v>
+        <v>3792</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>3838</v>
+        <v>3837</v>
       </c>
       <c r="M100" s="26" t="str">
         <f t="shared" si="1"/>
@@ -15496,17 +15493,17 @@
         <v>2377</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="I101" s="2"/>
       <c r="J101" s="2" t="s">
         <v>1899</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>3793</v>
+        <v>3792</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>3839</v>
+        <v>3838</v>
       </c>
       <c r="M101" s="26" t="str">
         <f t="shared" si="1"/>
@@ -15534,17 +15531,17 @@
         <v>2378</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="I102" s="2"/>
       <c r="J102" s="2" t="s">
         <v>1899</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>3836</v>
+        <v>3835</v>
       </c>
       <c r="M102" s="26" t="str">
         <f t="shared" si="1"/>
@@ -15572,17 +15569,17 @@
         <v>2379</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="I103" s="2"/>
       <c r="J103" s="2" t="s">
         <v>1899</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>3837</v>
+        <v>3836</v>
       </c>
       <c r="M103" s="26" t="str">
         <f t="shared" si="1"/>
@@ -15610,17 +15607,17 @@
         <v>2380</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="I104" s="2"/>
       <c r="J104" s="2" t="s">
         <v>1899</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>3838</v>
+        <v>3837</v>
       </c>
       <c r="M104" s="26" t="str">
         <f t="shared" si="1"/>
@@ -15648,17 +15645,17 @@
         <v>2381</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="I105" s="2"/>
       <c r="J105" s="2" t="s">
         <v>1899</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>3839</v>
+        <v>3838</v>
       </c>
       <c r="M105" s="26" t="str">
         <f t="shared" si="1"/>
@@ -15686,17 +15683,17 @@
         <v>2382</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="I106" s="2"/>
       <c r="J106" s="2" t="s">
         <v>1899</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>3836</v>
+        <v>3835</v>
       </c>
       <c r="M106" s="26" t="str">
         <f t="shared" si="1"/>
@@ -15724,17 +15721,17 @@
         <v>2383</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="I107" s="2"/>
       <c r="J107" s="2" t="s">
         <v>1899</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>3837</v>
+        <v>3836</v>
       </c>
       <c r="M107" s="26" t="str">
         <f t="shared" si="1"/>
@@ -15762,17 +15759,17 @@
         <v>2384</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="I108" s="2"/>
       <c r="J108" s="2" t="s">
         <v>1899</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>3838</v>
+        <v>3837</v>
       </c>
       <c r="M108" s="26" t="str">
         <f t="shared" si="1"/>
@@ -15800,17 +15797,17 @@
         <v>2385</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="I109" s="2"/>
       <c r="J109" s="2" t="s">
         <v>1899</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>3839</v>
+        <v>3838</v>
       </c>
       <c r="M109" s="26" t="str">
         <f t="shared" si="1"/>
@@ -15838,17 +15835,17 @@
         <v>2386</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="I110" s="2"/>
       <c r="J110" s="2" t="s">
         <v>1899</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>3836</v>
+        <v>3835</v>
       </c>
       <c r="M110" s="26" t="str">
         <f t="shared" si="1"/>
@@ -15876,17 +15873,17 @@
         <v>2387</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="I111" s="2"/>
       <c r="J111" s="2" t="s">
         <v>1899</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>3837</v>
+        <v>3836</v>
       </c>
       <c r="M111" s="26" t="str">
         <f t="shared" si="1"/>
@@ -15914,17 +15911,17 @@
         <v>2388</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="I112" s="2"/>
       <c r="J112" s="2" t="s">
         <v>1899</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>3838</v>
+        <v>3837</v>
       </c>
       <c r="M112" s="26" t="str">
         <f t="shared" si="1"/>
@@ -15952,17 +15949,17 @@
         <v>2389</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="I113" s="2"/>
       <c r="J113" s="2" t="s">
         <v>1899</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>3839</v>
+        <v>3838</v>
       </c>
       <c r="M113" s="26" t="str">
         <f t="shared" si="1"/>
@@ -15990,17 +15987,17 @@
         <v>2390</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="I114" s="2"/>
       <c r="J114" s="2" t="s">
         <v>1899</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>3836</v>
+        <v>3835</v>
       </c>
       <c r="M114" s="26" t="str">
         <f t="shared" si="1"/>
@@ -16028,17 +16025,17 @@
         <v>2391</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="I115" s="2"/>
       <c r="J115" s="2" t="s">
         <v>1899</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>3837</v>
+        <v>3836</v>
       </c>
       <c r="M115" s="26" t="str">
         <f t="shared" si="1"/>
@@ -16066,17 +16063,17 @@
         <v>2392</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="I116" s="2"/>
       <c r="J116" s="2" t="s">
         <v>1899</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>3838</v>
+        <v>3837</v>
       </c>
       <c r="M116" s="26" t="str">
         <f t="shared" si="1"/>
@@ -16104,17 +16101,17 @@
         <v>2393</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="I117" s="2"/>
       <c r="J117" s="2" t="s">
         <v>1899</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>3839</v>
+        <v>3838</v>
       </c>
       <c r="M117" s="26" t="str">
         <f t="shared" si="1"/>
@@ -20654,14 +20651,14 @@
         <v>2522</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="I254" s="2"/>
       <c r="J254" s="2" t="s">
+        <v>3798</v>
+      </c>
+      <c r="K254" s="2" t="s">
         <v>3799</v>
-      </c>
-      <c r="K254" s="2" t="s">
-        <v>3800</v>
       </c>
       <c r="L254" s="2" t="s">
         <v>1917</v>
@@ -20694,14 +20691,14 @@
         <v>2523</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="I255" s="2"/>
       <c r="J255" s="2" t="s">
+        <v>3798</v>
+      </c>
+      <c r="K255" s="2" t="s">
         <v>3799</v>
-      </c>
-      <c r="K255" s="2" t="s">
-        <v>3800</v>
       </c>
       <c r="L255" s="2" t="s">
         <v>1918</v>
@@ -20734,14 +20731,14 @@
         <v>2524</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="I256" s="2"/>
       <c r="J256" s="2" t="s">
+        <v>3798</v>
+      </c>
+      <c r="K256" s="2" t="s">
         <v>3799</v>
-      </c>
-      <c r="K256" s="2" t="s">
-        <v>3800</v>
       </c>
       <c r="L256" s="2" t="s">
         <v>1919</v>
@@ -20774,14 +20771,14 @@
         <v>2525</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="I257" s="2"/>
       <c r="J257" s="2" t="s">
+        <v>3798</v>
+      </c>
+      <c r="K257" s="2" t="s">
         <v>3799</v>
-      </c>
-      <c r="K257" s="2" t="s">
-        <v>3800</v>
       </c>
       <c r="L257" s="2" t="s">
         <v>1920</v>
@@ -20814,14 +20811,14 @@
         <v>2526</v>
       </c>
       <c r="H258" s="2" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="I258" s="2"/>
       <c r="J258" s="2" t="s">
+        <v>3798</v>
+      </c>
+      <c r="K258" s="2" t="s">
         <v>3799</v>
-      </c>
-      <c r="K258" s="2" t="s">
-        <v>3800</v>
       </c>
       <c r="L258" s="2" t="s">
         <v>1921</v>
@@ -20854,14 +20851,14 @@
         <v>2527</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="I259" s="2"/>
       <c r="J259" s="2" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="K259" s="2" t="s">
-        <v>3801</v>
+        <v>3800</v>
       </c>
       <c r="L259" s="2" t="s">
         <v>1917</v>
@@ -20894,14 +20891,14 @@
         <v>2528</v>
       </c>
       <c r="H260" s="2" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="I260" s="2"/>
       <c r="J260" s="2" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="K260" s="2" t="s">
-        <v>3801</v>
+        <v>3800</v>
       </c>
       <c r="L260" s="2" t="s">
         <v>1918</v>
@@ -20934,14 +20931,14 @@
         <v>2529</v>
       </c>
       <c r="H261" s="2" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="I261" s="2"/>
       <c r="J261" s="2" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="K261" s="2" t="s">
-        <v>3801</v>
+        <v>3800</v>
       </c>
       <c r="L261" s="2" t="s">
         <v>1919</v>
@@ -20974,14 +20971,14 @@
         <v>2530</v>
       </c>
       <c r="H262" s="2" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="I262" s="2"/>
       <c r="J262" s="2" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="K262" s="2" t="s">
-        <v>3801</v>
+        <v>3800</v>
       </c>
       <c r="L262" s="2" t="s">
         <v>1920</v>
@@ -21014,14 +21011,14 @@
         <v>2531</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="I263" s="2"/>
       <c r="J263" s="2" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="K263" s="2" t="s">
-        <v>3801</v>
+        <v>3800</v>
       </c>
       <c r="L263" s="2" t="s">
         <v>1921</v>
@@ -27582,7 +27579,7 @@
       <c r="J458" s="2"/>
       <c r="K458" s="2"/>
       <c r="L458" s="2" t="s">
-        <v>3817</v>
+        <v>3816</v>
       </c>
       <c r="M458" s="26" t="str">
         <f t="shared" si="7"/>
@@ -27744,7 +27741,7 @@
       <c r="J463" s="2"/>
       <c r="K463" s="2"/>
       <c r="L463" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M463" s="26" t="str">
         <f t="shared" si="7"/>
@@ -27812,7 +27809,7 @@
       <c r="J465" s="2"/>
       <c r="K465" s="2"/>
       <c r="L465" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M465" s="26" t="str">
         <f t="shared" si="7"/>
@@ -27846,7 +27843,7 @@
       <c r="J466" s="2"/>
       <c r="K466" s="2"/>
       <c r="L466" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M466" s="26" t="str">
         <f t="shared" si="7"/>
@@ -27914,7 +27911,7 @@
       <c r="J468" s="2"/>
       <c r="K468" s="2"/>
       <c r="L468" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M468" s="26" t="str">
         <f t="shared" si="7"/>
@@ -27948,7 +27945,7 @@
       <c r="J469" s="2"/>
       <c r="K469" s="2"/>
       <c r="L469" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M469" s="26" t="str">
         <f t="shared" si="7"/>
@@ -28016,7 +28013,7 @@
       <c r="J471" s="2"/>
       <c r="K471" s="2"/>
       <c r="L471" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M471" s="26" t="str">
         <f t="shared" si="7"/>
@@ -28050,7 +28047,7 @@
       <c r="J472" s="2"/>
       <c r="K472" s="2"/>
       <c r="L472" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M472" s="26" t="str">
         <f t="shared" si="7"/>
@@ -28118,7 +28115,7 @@
       <c r="J474" s="2"/>
       <c r="K474" s="2"/>
       <c r="L474" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M474" s="26" t="str">
         <f t="shared" si="7"/>
@@ -28152,7 +28149,7 @@
       <c r="J475" s="2"/>
       <c r="K475" s="2"/>
       <c r="L475" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M475" s="26" t="str">
         <f t="shared" si="7"/>
@@ -28220,7 +28217,7 @@
       <c r="J477" s="2"/>
       <c r="K477" s="2"/>
       <c r="L477" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M477" s="26" t="str">
         <f t="shared" si="7"/>
@@ -28254,7 +28251,7 @@
       <c r="J478" s="2"/>
       <c r="K478" s="2"/>
       <c r="L478" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M478" s="26" t="str">
         <f t="shared" si="7"/>
@@ -28322,7 +28319,7 @@
       <c r="J480" s="2"/>
       <c r="K480" s="2"/>
       <c r="L480" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M480" s="26" t="str">
         <f t="shared" si="7"/>
@@ -28356,7 +28353,7 @@
       <c r="J481" s="2"/>
       <c r="K481" s="2"/>
       <c r="L481" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M481" s="26" t="str">
         <f t="shared" si="7"/>
@@ -28424,7 +28421,7 @@
       <c r="J483" s="2"/>
       <c r="K483" s="2"/>
       <c r="L483" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M483" s="26" t="str">
         <f t="shared" si="7"/>
@@ -28458,7 +28455,7 @@
       <c r="J484" s="2"/>
       <c r="K484" s="2"/>
       <c r="L484" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M484" s="26" t="str">
         <f t="shared" si="7"/>
@@ -28526,7 +28523,7 @@
       <c r="J486" s="2"/>
       <c r="K486" s="2"/>
       <c r="L486" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M486" s="26" t="str">
         <f t="shared" si="7"/>
@@ -28560,7 +28557,7 @@
       <c r="J487" s="2"/>
       <c r="K487" s="2"/>
       <c r="L487" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M487" s="26" t="str">
         <f t="shared" si="7"/>
@@ -28628,7 +28625,7 @@
       <c r="J489" s="2"/>
       <c r="K489" s="2"/>
       <c r="L489" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M489" s="26" t="str">
         <f t="shared" si="7"/>
@@ -28662,7 +28659,7 @@
       <c r="J490" s="2"/>
       <c r="K490" s="2"/>
       <c r="L490" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M490" s="26" t="str">
         <f t="shared" si="7"/>
@@ -28730,7 +28727,7 @@
       <c r="J492" s="2"/>
       <c r="K492" s="2"/>
       <c r="L492" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M492" s="26" t="str">
         <f t="shared" si="7"/>
@@ -28764,7 +28761,7 @@
       <c r="J493" s="2"/>
       <c r="K493" s="2"/>
       <c r="L493" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M493" s="26" t="str">
         <f t="shared" si="7"/>
@@ -28832,7 +28829,7 @@
       <c r="J495" s="2"/>
       <c r="K495" s="2"/>
       <c r="L495" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M495" s="26" t="str">
         <f t="shared" si="7"/>
@@ -28866,7 +28863,7 @@
       <c r="J496" s="2"/>
       <c r="K496" s="2"/>
       <c r="L496" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M496" s="26" t="str">
         <f t="shared" si="7"/>
@@ -28934,7 +28931,7 @@
       <c r="J498" s="2"/>
       <c r="K498" s="2"/>
       <c r="L498" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M498" s="26" t="str">
         <f t="shared" si="7"/>
@@ -28968,7 +28965,7 @@
       <c r="J499" s="2"/>
       <c r="K499" s="2"/>
       <c r="L499" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M499" s="26" t="str">
         <f t="shared" si="7"/>
@@ -29036,7 +29033,7 @@
       <c r="J501" s="2"/>
       <c r="K501" s="2"/>
       <c r="L501" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M501" s="26" t="str">
         <f t="shared" si="7"/>
@@ -29070,7 +29067,7 @@
       <c r="J502" s="2"/>
       <c r="K502" s="2"/>
       <c r="L502" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M502" s="26" t="str">
         <f t="shared" si="7"/>
@@ -29138,7 +29135,7 @@
       <c r="J504" s="2"/>
       <c r="K504" s="2"/>
       <c r="L504" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M504" s="26" t="str">
         <f t="shared" si="7"/>
@@ -29172,7 +29169,7 @@
       <c r="J505" s="2"/>
       <c r="K505" s="2"/>
       <c r="L505" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M505" s="26" t="str">
         <f t="shared" si="7"/>
@@ -29240,7 +29237,7 @@
       <c r="J507" s="2"/>
       <c r="K507" s="2"/>
       <c r="L507" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M507" s="26" t="str">
         <f t="shared" si="7"/>
@@ -29274,7 +29271,7 @@
       <c r="J508" s="2"/>
       <c r="K508" s="2"/>
       <c r="L508" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M508" s="26" t="str">
         <f t="shared" si="7"/>
@@ -29342,7 +29339,7 @@
       <c r="J510" s="2"/>
       <c r="K510" s="2"/>
       <c r="L510" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M510" s="26" t="str">
         <f t="shared" si="7"/>
@@ -29376,7 +29373,7 @@
       <c r="J511" s="2"/>
       <c r="K511" s="2"/>
       <c r="L511" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M511" s="26" t="str">
         <f t="shared" si="7"/>
@@ -29444,7 +29441,7 @@
       <c r="J513" s="2"/>
       <c r="K513" s="2"/>
       <c r="L513" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M513" s="26" t="str">
         <f t="shared" si="7"/>
@@ -29478,7 +29475,7 @@
       <c r="J514" s="2"/>
       <c r="K514" s="2"/>
       <c r="L514" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M514" s="26" t="str">
         <f t="shared" si="7"/>
@@ -29546,7 +29543,7 @@
       <c r="J516" s="2"/>
       <c r="K516" s="2"/>
       <c r="L516" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M516" s="26" t="str">
         <f t="shared" si="8"/>
@@ -29580,7 +29577,7 @@
       <c r="J517" s="2"/>
       <c r="K517" s="2"/>
       <c r="L517" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M517" s="26" t="str">
         <f t="shared" si="8"/>
@@ -29648,7 +29645,7 @@
       <c r="J519" s="2"/>
       <c r="K519" s="2"/>
       <c r="L519" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M519" s="26" t="str">
         <f t="shared" si="8"/>
@@ -29682,7 +29679,7 @@
       <c r="J520" s="2"/>
       <c r="K520" s="2"/>
       <c r="L520" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M520" s="26" t="str">
         <f t="shared" si="8"/>
@@ -29750,7 +29747,7 @@
       <c r="J522" s="2"/>
       <c r="K522" s="2"/>
       <c r="L522" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M522" s="26" t="str">
         <f t="shared" si="8"/>
@@ -29784,7 +29781,7 @@
       <c r="J523" s="2"/>
       <c r="K523" s="2"/>
       <c r="L523" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M523" s="26" t="str">
         <f t="shared" si="8"/>
@@ -29852,7 +29849,7 @@
       <c r="J525" s="2"/>
       <c r="K525" s="2"/>
       <c r="L525" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M525" s="26" t="str">
         <f t="shared" si="8"/>
@@ -29886,7 +29883,7 @@
       <c r="J526" s="2"/>
       <c r="K526" s="2"/>
       <c r="L526" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M526" s="26" t="str">
         <f t="shared" si="8"/>
@@ -29954,7 +29951,7 @@
       <c r="J528" s="2"/>
       <c r="K528" s="2"/>
       <c r="L528" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M528" s="26" t="str">
         <f t="shared" si="8"/>
@@ -29988,7 +29985,7 @@
       <c r="J529" s="2"/>
       <c r="K529" s="2"/>
       <c r="L529" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M529" s="26" t="str">
         <f t="shared" si="8"/>
@@ -30056,7 +30053,7 @@
       <c r="J531" s="2"/>
       <c r="K531" s="2"/>
       <c r="L531" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M531" s="26" t="str">
         <f t="shared" si="8"/>
@@ -30090,7 +30087,7 @@
       <c r="J532" s="2"/>
       <c r="K532" s="2"/>
       <c r="L532" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M532" s="26" t="str">
         <f t="shared" si="8"/>
@@ -30158,7 +30155,7 @@
       <c r="J534" s="2"/>
       <c r="K534" s="2"/>
       <c r="L534" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M534" s="26" t="str">
         <f t="shared" si="8"/>
@@ -30192,7 +30189,7 @@
       <c r="J535" s="2"/>
       <c r="K535" s="2"/>
       <c r="L535" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M535" s="26" t="str">
         <f t="shared" si="8"/>
@@ -30260,7 +30257,7 @@
       <c r="J537" s="2"/>
       <c r="K537" s="2"/>
       <c r="L537" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M537" s="26" t="str">
         <f t="shared" si="8"/>
@@ -30294,7 +30291,7 @@
       <c r="J538" s="2"/>
       <c r="K538" s="2"/>
       <c r="L538" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M538" s="26" t="str">
         <f t="shared" si="8"/>
@@ -30362,7 +30359,7 @@
       <c r="J540" s="2"/>
       <c r="K540" s="2"/>
       <c r="L540" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M540" s="26" t="str">
         <f t="shared" si="8"/>
@@ -30396,7 +30393,7 @@
       <c r="J541" s="2"/>
       <c r="K541" s="2"/>
       <c r="L541" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M541" s="26" t="str">
         <f t="shared" si="8"/>
@@ -30464,7 +30461,7 @@
       <c r="J543" s="2"/>
       <c r="K543" s="2"/>
       <c r="L543" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M543" s="26" t="str">
         <f t="shared" si="8"/>
@@ -30498,7 +30495,7 @@
       <c r="J544" s="2"/>
       <c r="K544" s="2"/>
       <c r="L544" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M544" s="26" t="str">
         <f t="shared" si="8"/>
@@ -30566,7 +30563,7 @@
       <c r="J546" s="2"/>
       <c r="K546" s="2"/>
       <c r="L546" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M546" s="26" t="str">
         <f t="shared" si="8"/>
@@ -30600,7 +30597,7 @@
       <c r="J547" s="2"/>
       <c r="K547" s="2"/>
       <c r="L547" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M547" s="26" t="str">
         <f t="shared" si="8"/>
@@ -30668,7 +30665,7 @@
       <c r="J549" s="2"/>
       <c r="K549" s="2"/>
       <c r="L549" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M549" s="26" t="str">
         <f t="shared" si="8"/>
@@ -30702,7 +30699,7 @@
       <c r="J550" s="2"/>
       <c r="K550" s="2"/>
       <c r="L550" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M550" s="26" t="str">
         <f t="shared" si="8"/>
@@ -30770,7 +30767,7 @@
       <c r="J552" s="2"/>
       <c r="K552" s="2"/>
       <c r="L552" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M552" s="26" t="str">
         <f t="shared" si="8"/>
@@ -30804,7 +30801,7 @@
       <c r="J553" s="2"/>
       <c r="K553" s="2"/>
       <c r="L553" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M553" s="26" t="str">
         <f t="shared" si="8"/>
@@ -30872,7 +30869,7 @@
       <c r="J555" s="2"/>
       <c r="K555" s="2"/>
       <c r="L555" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M555" s="26" t="str">
         <f t="shared" si="8"/>
@@ -30906,7 +30903,7 @@
       <c r="J556" s="2"/>
       <c r="K556" s="2"/>
       <c r="L556" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M556" s="26" t="str">
         <f t="shared" si="8"/>
@@ -30974,7 +30971,7 @@
       <c r="J558" s="2"/>
       <c r="K558" s="2"/>
       <c r="L558" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M558" s="26" t="str">
         <f t="shared" si="8"/>
@@ -31008,7 +31005,7 @@
       <c r="J559" s="2"/>
       <c r="K559" s="2"/>
       <c r="L559" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M559" s="26" t="str">
         <f t="shared" si="8"/>
@@ -31076,7 +31073,7 @@
       <c r="J561" s="2"/>
       <c r="K561" s="2"/>
       <c r="L561" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M561" s="26" t="str">
         <f t="shared" si="8"/>
@@ -31110,7 +31107,7 @@
       <c r="J562" s="2"/>
       <c r="K562" s="2"/>
       <c r="L562" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M562" s="26" t="str">
         <f t="shared" si="8"/>
@@ -31178,7 +31175,7 @@
       <c r="J564" s="2"/>
       <c r="K564" s="2"/>
       <c r="L564" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M564" s="26" t="str">
         <f t="shared" si="8"/>
@@ -31212,7 +31209,7 @@
       <c r="J565" s="2"/>
       <c r="K565" s="2"/>
       <c r="L565" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M565" s="26" t="str">
         <f t="shared" si="8"/>
@@ -31280,7 +31277,7 @@
       <c r="J567" s="2"/>
       <c r="K567" s="2"/>
       <c r="L567" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M567" s="26" t="str">
         <f t="shared" si="8"/>
@@ -31314,7 +31311,7 @@
       <c r="J568" s="2"/>
       <c r="K568" s="2"/>
       <c r="L568" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M568" s="26" t="str">
         <f t="shared" si="8"/>
@@ -31382,7 +31379,7 @@
       <c r="J570" s="2"/>
       <c r="K570" s="2"/>
       <c r="L570" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M570" s="26" t="str">
         <f t="shared" si="8"/>
@@ -31416,7 +31413,7 @@
       <c r="J571" s="2"/>
       <c r="K571" s="2"/>
       <c r="L571" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M571" s="26" t="str">
         <f t="shared" si="8"/>
@@ -31484,7 +31481,7 @@
       <c r="J573" s="2"/>
       <c r="K573" s="2"/>
       <c r="L573" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M573" s="26" t="str">
         <f t="shared" si="8"/>
@@ -31518,7 +31515,7 @@
       <c r="J574" s="2"/>
       <c r="K574" s="2"/>
       <c r="L574" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M574" s="26" t="str">
         <f t="shared" si="8"/>
@@ -31586,7 +31583,7 @@
       <c r="J576" s="2"/>
       <c r="K576" s="2"/>
       <c r="L576" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M576" s="26" t="str">
         <f t="shared" si="8"/>
@@ -31620,7 +31617,7 @@
       <c r="J577" s="2"/>
       <c r="K577" s="2"/>
       <c r="L577" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M577" s="26" t="str">
         <f t="shared" si="8"/>
@@ -31688,7 +31685,7 @@
       <c r="J579" s="2"/>
       <c r="K579" s="2"/>
       <c r="L579" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M579" s="26" t="str">
         <f t="shared" ref="M579:M642" si="9">IF(C579="Numeric", "number",IF(C579="Date","date",IF(E579="Yes ; No", "boolean","string")))</f>
@@ -31722,7 +31719,7 @@
       <c r="J580" s="2"/>
       <c r="K580" s="2"/>
       <c r="L580" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M580" s="26" t="str">
         <f t="shared" si="9"/>
@@ -31790,7 +31787,7 @@
       <c r="J582" s="2"/>
       <c r="K582" s="2"/>
       <c r="L582" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M582" s="26" t="str">
         <f t="shared" si="9"/>
@@ -31824,7 +31821,7 @@
       <c r="J583" s="2"/>
       <c r="K583" s="2"/>
       <c r="L583" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M583" s="26" t="str">
         <f t="shared" si="9"/>
@@ -31892,7 +31889,7 @@
       <c r="J585" s="2"/>
       <c r="K585" s="2"/>
       <c r="L585" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M585" s="26" t="str">
         <f t="shared" si="9"/>
@@ -31926,7 +31923,7 @@
       <c r="J586" s="2"/>
       <c r="K586" s="2"/>
       <c r="L586" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M586" s="26" t="str">
         <f t="shared" si="9"/>
@@ -31994,7 +31991,7 @@
       <c r="J588" s="2"/>
       <c r="K588" s="2"/>
       <c r="L588" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M588" s="26" t="str">
         <f t="shared" si="9"/>
@@ -32028,7 +32025,7 @@
       <c r="J589" s="2"/>
       <c r="K589" s="2"/>
       <c r="L589" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M589" s="26" t="str">
         <f t="shared" si="9"/>
@@ -32096,7 +32093,7 @@
       <c r="J591" s="2"/>
       <c r="K591" s="2"/>
       <c r="L591" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M591" s="26" t="str">
         <f t="shared" si="9"/>
@@ -32130,7 +32127,7 @@
       <c r="J592" s="2"/>
       <c r="K592" s="2"/>
       <c r="L592" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M592" s="26" t="str">
         <f t="shared" si="9"/>
@@ -32198,7 +32195,7 @@
       <c r="J594" s="2"/>
       <c r="K594" s="2"/>
       <c r="L594" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M594" s="26" t="str">
         <f t="shared" si="9"/>
@@ -32232,7 +32229,7 @@
       <c r="J595" s="2"/>
       <c r="K595" s="2"/>
       <c r="L595" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M595" s="26" t="str">
         <f t="shared" si="9"/>
@@ -32300,7 +32297,7 @@
       <c r="J597" s="2"/>
       <c r="K597" s="2"/>
       <c r="L597" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M597" s="26" t="str">
         <f t="shared" si="9"/>
@@ -32334,7 +32331,7 @@
       <c r="J598" s="2"/>
       <c r="K598" s="2"/>
       <c r="L598" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M598" s="26" t="str">
         <f t="shared" si="9"/>
@@ -32402,7 +32399,7 @@
       <c r="J600" s="2"/>
       <c r="K600" s="2"/>
       <c r="L600" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M600" s="26" t="str">
         <f t="shared" si="9"/>
@@ -32436,7 +32433,7 @@
       <c r="J601" s="2"/>
       <c r="K601" s="2"/>
       <c r="L601" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M601" s="26" t="str">
         <f t="shared" si="9"/>
@@ -32504,7 +32501,7 @@
       <c r="J603" s="2"/>
       <c r="K603" s="2"/>
       <c r="L603" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M603" s="26" t="str">
         <f t="shared" si="9"/>
@@ -32538,7 +32535,7 @@
       <c r="J604" s="2"/>
       <c r="K604" s="2"/>
       <c r="L604" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M604" s="26" t="str">
         <f t="shared" si="9"/>
@@ -32606,7 +32603,7 @@
       <c r="J606" s="2"/>
       <c r="K606" s="2"/>
       <c r="L606" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="M606" s="26" t="str">
         <f t="shared" si="9"/>
@@ -32640,7 +32637,7 @@
       <c r="J607" s="2"/>
       <c r="K607" s="2"/>
       <c r="L607" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M607" s="26" t="str">
         <f t="shared" si="9"/>
@@ -33192,7 +33189,7 @@
       <c r="J624" s="2"/>
       <c r="K624" s="2"/>
       <c r="L624" s="2" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="M624" s="26" t="str">
         <f t="shared" si="9"/>
@@ -33226,7 +33223,7 @@
       <c r="J625" s="2"/>
       <c r="K625" s="2"/>
       <c r="L625" s="2" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="M625" s="26" t="str">
         <f t="shared" si="9"/>
@@ -33260,7 +33257,7 @@
       <c r="J626" s="2"/>
       <c r="K626" s="2"/>
       <c r="L626" s="2" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="M626" s="26" t="str">
         <f t="shared" si="9"/>
@@ -33294,7 +33291,7 @@
       <c r="J627" s="2"/>
       <c r="K627" s="2"/>
       <c r="L627" s="2" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="M627" s="26" t="str">
         <f t="shared" si="9"/>
@@ -33328,7 +33325,7 @@
       <c r="J628" s="2"/>
       <c r="K628" s="2"/>
       <c r="L628" s="2" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="M628" s="26" t="str">
         <f t="shared" si="9"/>
@@ -33362,7 +33359,7 @@
       <c r="J629" s="2"/>
       <c r="K629" s="2"/>
       <c r="L629" s="2" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="M629" s="26" t="str">
         <f t="shared" si="9"/>
@@ -33396,7 +33393,7 @@
       <c r="J630" s="2"/>
       <c r="K630" s="2"/>
       <c r="L630" s="2" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="M630" s="26" t="str">
         <f t="shared" si="9"/>
@@ -33430,7 +33427,7 @@
       <c r="J631" s="2"/>
       <c r="K631" s="2"/>
       <c r="L631" s="2" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="M631" s="26" t="str">
         <f t="shared" si="9"/>
@@ -33464,7 +33461,7 @@
       <c r="J632" s="2"/>
       <c r="K632" s="2"/>
       <c r="L632" s="2" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="M632" s="26" t="str">
         <f t="shared" si="9"/>
@@ -33498,7 +33495,7 @@
       <c r="J633" s="2"/>
       <c r="K633" s="2"/>
       <c r="L633" s="2" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="M633" s="26" t="str">
         <f t="shared" si="9"/>
@@ -33532,7 +33529,7 @@
       <c r="J634" s="2"/>
       <c r="K634" s="2"/>
       <c r="L634" s="2" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="M634" s="26" t="str">
         <f t="shared" si="9"/>
@@ -33566,7 +33563,7 @@
       <c r="J635" s="2"/>
       <c r="K635" s="2"/>
       <c r="L635" s="2" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="M635" s="26" t="str">
         <f t="shared" si="9"/>
@@ -33600,7 +33597,7 @@
       <c r="J636" s="2"/>
       <c r="K636" s="2"/>
       <c r="L636" s="2" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="M636" s="26" t="str">
         <f t="shared" si="9"/>
@@ -33634,7 +33631,7 @@
       <c r="J637" s="2"/>
       <c r="K637" s="2"/>
       <c r="L637" s="2" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="M637" s="26" t="str">
         <f t="shared" si="9"/>
@@ -33668,7 +33665,7 @@
       <c r="J638" s="2"/>
       <c r="K638" s="2"/>
       <c r="L638" s="2" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="M638" s="26" t="str">
         <f t="shared" si="9"/>
@@ -33702,7 +33699,7 @@
       <c r="J639" s="2"/>
       <c r="K639" s="2"/>
       <c r="L639" s="2" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="M639" s="26" t="str">
         <f t="shared" si="9"/>
@@ -33736,7 +33733,7 @@
       <c r="J640" s="2"/>
       <c r="K640" s="2"/>
       <c r="L640" s="2" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="M640" s="26" t="str">
         <f t="shared" si="9"/>
@@ -33770,7 +33767,7 @@
       <c r="J641" s="2"/>
       <c r="K641" s="2"/>
       <c r="L641" s="2" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="M641" s="26" t="str">
         <f t="shared" si="9"/>
@@ -33804,7 +33801,7 @@
       <c r="J642" s="2"/>
       <c r="K642" s="2"/>
       <c r="L642" s="2" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="M642" s="26" t="str">
         <f t="shared" si="9"/>
@@ -33838,7 +33835,7 @@
       <c r="J643" s="2"/>
       <c r="K643" s="2"/>
       <c r="L643" s="2" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="M643" s="26" t="str">
         <f t="shared" ref="M643:M706" si="10">IF(C643="Numeric", "number",IF(C643="Date","date",IF(E643="Yes ; No", "boolean","string")))</f>
@@ -33872,7 +33869,7 @@
       <c r="J644" s="2"/>
       <c r="K644" s="2"/>
       <c r="L644" s="2" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="M644" s="26" t="str">
         <f t="shared" si="10"/>
@@ -33906,7 +33903,7 @@
       <c r="J645" s="2"/>
       <c r="K645" s="2"/>
       <c r="L645" s="2" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="M645" s="26" t="str">
         <f t="shared" si="10"/>
@@ -33940,7 +33937,7 @@
       <c r="J646" s="2"/>
       <c r="K646" s="2"/>
       <c r="L646" s="2" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="M646" s="26" t="str">
         <f t="shared" si="10"/>
@@ -33974,7 +33971,7 @@
       <c r="J647" s="2"/>
       <c r="K647" s="2"/>
       <c r="L647" s="2" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="M647" s="26" t="str">
         <f t="shared" si="10"/>
@@ -34008,7 +34005,7 @@
       <c r="J648" s="2"/>
       <c r="K648" s="2"/>
       <c r="L648" s="2" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="M648" s="26" t="str">
         <f t="shared" si="10"/>
@@ -34044,7 +34041,7 @@
       <c r="J649" s="2"/>
       <c r="K649" s="2"/>
       <c r="L649" s="2" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="M649" s="26" t="str">
         <f t="shared" si="10"/>
@@ -34112,7 +34109,7 @@
       <c r="J651" s="2"/>
       <c r="K651" s="2"/>
       <c r="L651" s="2" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="M651" s="26" t="str">
         <f t="shared" si="10"/>
@@ -34148,7 +34145,7 @@
       <c r="J652" s="2"/>
       <c r="K652" s="2"/>
       <c r="L652" s="2" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="M652" s="26" t="str">
         <f t="shared" si="10"/>
@@ -34216,7 +34213,7 @@
       <c r="J654" s="2"/>
       <c r="K654" s="2"/>
       <c r="L654" s="2" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="M654" s="26" t="str">
         <f t="shared" si="10"/>
@@ -34252,7 +34249,7 @@
       <c r="J655" s="2"/>
       <c r="K655" s="2"/>
       <c r="L655" s="2" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="M655" s="26" t="str">
         <f t="shared" si="10"/>
@@ -34388,7 +34385,7 @@
       <c r="J659" s="2"/>
       <c r="K659" s="2"/>
       <c r="L659" s="2" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="M659" s="26" t="str">
         <f t="shared" si="10"/>
@@ -34422,7 +34419,7 @@
       <c r="J660" s="2"/>
       <c r="K660" s="2"/>
       <c r="L660" s="2" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="M660" s="26" t="str">
         <f t="shared" si="10"/>
@@ -34458,7 +34455,7 @@
       <c r="J661" s="2"/>
       <c r="K661" s="2"/>
       <c r="L661" s="2" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="M661" s="26" t="str">
         <f t="shared" si="10"/>
@@ -34492,7 +34489,7 @@
       <c r="J662" s="2"/>
       <c r="K662" s="2"/>
       <c r="L662" s="2" t="s">
-        <v>3812</v>
+        <v>3811</v>
       </c>
       <c r="M662" s="26" t="str">
         <f t="shared" si="10"/>
@@ -34526,7 +34523,7 @@
       <c r="J663" s="2"/>
       <c r="K663" s="2"/>
       <c r="L663" s="2" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="M663" s="26" t="str">
         <f t="shared" si="10"/>
@@ -34560,7 +34557,7 @@
       <c r="J664" s="2"/>
       <c r="K664" s="2"/>
       <c r="L664" s="2" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="M664" s="26" t="str">
         <f t="shared" si="10"/>
@@ -34596,7 +34593,7 @@
       <c r="J665" s="2"/>
       <c r="K665" s="2"/>
       <c r="L665" s="2" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="M665" s="26" t="str">
         <f t="shared" si="10"/>
@@ -34630,7 +34627,7 @@
       <c r="J666" s="2"/>
       <c r="K666" s="2"/>
       <c r="L666" s="2" t="s">
-        <v>3812</v>
+        <v>3811</v>
       </c>
       <c r="M666" s="26" t="str">
         <f t="shared" si="10"/>
@@ -34664,7 +34661,7 @@
       <c r="J667" s="2"/>
       <c r="K667" s="2"/>
       <c r="L667" s="2" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="M667" s="26" t="str">
         <f t="shared" si="10"/>
@@ -34698,7 +34695,7 @@
       <c r="J668" s="2"/>
       <c r="K668" s="2"/>
       <c r="L668" s="2" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="M668" s="26" t="str">
         <f t="shared" si="10"/>
@@ -34734,7 +34731,7 @@
       <c r="J669" s="2"/>
       <c r="K669" s="2"/>
       <c r="L669" s="2" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="M669" s="26" t="str">
         <f t="shared" si="10"/>
@@ -34768,7 +34765,7 @@
       <c r="J670" s="2"/>
       <c r="K670" s="2"/>
       <c r="L670" s="2" t="s">
-        <v>3812</v>
+        <v>3811</v>
       </c>
       <c r="M670" s="26" t="str">
         <f t="shared" si="10"/>
@@ -34802,7 +34799,7 @@
       <c r="J671" s="2"/>
       <c r="K671" s="2"/>
       <c r="L671" s="2" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="M671" s="26" t="str">
         <f t="shared" si="10"/>
@@ -34836,7 +34833,7 @@
       <c r="J672" s="2"/>
       <c r="K672" s="2"/>
       <c r="L672" s="2" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="M672" s="26" t="str">
         <f t="shared" si="10"/>
@@ -34872,7 +34869,7 @@
       <c r="J673" s="2"/>
       <c r="K673" s="2"/>
       <c r="L673" s="2" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="M673" s="26" t="str">
         <f t="shared" si="10"/>
@@ -34906,7 +34903,7 @@
       <c r="J674" s="2"/>
       <c r="K674" s="2"/>
       <c r="L674" s="2" t="s">
-        <v>3812</v>
+        <v>3811</v>
       </c>
       <c r="M674" s="26" t="str">
         <f t="shared" si="10"/>
@@ -34942,7 +34939,7 @@
       <c r="J675" s="2"/>
       <c r="K675" s="2"/>
       <c r="L675" s="2" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="M675" s="26" t="str">
         <f t="shared" si="10"/>
@@ -34978,7 +34975,7 @@
       <c r="J676" s="2"/>
       <c r="K676" s="2"/>
       <c r="L676" s="2" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="M676" s="26" t="str">
         <f t="shared" si="10"/>
@@ -35012,7 +35009,7 @@
       <c r="J677" s="2"/>
       <c r="K677" s="2"/>
       <c r="L677" s="2" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="M677" s="26" t="str">
         <f t="shared" si="10"/>
@@ -35116,7 +35113,7 @@
       <c r="J680" s="2"/>
       <c r="K680" s="2"/>
       <c r="L680" s="2" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="M680" s="26" t="str">
         <f t="shared" si="10"/>
@@ -35152,7 +35149,7 @@
       <c r="J681" s="2"/>
       <c r="K681" s="2"/>
       <c r="L681" s="2" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="M681" s="26" t="str">
         <f t="shared" si="10"/>
@@ -35186,7 +35183,7 @@
       <c r="J682" s="2"/>
       <c r="K682" s="2"/>
       <c r="L682" s="2" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="M682" s="26" t="str">
         <f t="shared" si="10"/>
@@ -36372,7 +36369,7 @@
       <c r="J717" s="2"/>
       <c r="K717" s="2"/>
       <c r="L717" s="23" t="s">
-        <v>3816</v>
+        <v>3815</v>
       </c>
       <c r="M717" s="26" t="str">
         <f t="shared" si="11"/>
@@ -36830,7 +36827,7 @@
       <c r="J731" s="2"/>
       <c r="K731" s="2"/>
       <c r="L731" s="2" t="s">
-        <v>3818</v>
+        <v>3817</v>
       </c>
       <c r="M731" s="26" t="str">
         <f t="shared" si="11"/>
@@ -36862,7 +36859,7 @@
       <c r="J732" s="2"/>
       <c r="K732" s="2"/>
       <c r="L732" s="2" t="s">
-        <v>3819</v>
+        <v>3818</v>
       </c>
       <c r="M732" s="26" t="str">
         <f t="shared" si="11"/>
@@ -36960,7 +36957,7 @@
       <c r="J735" s="2"/>
       <c r="K735" s="2"/>
       <c r="L735" s="2" t="s">
-        <v>3820</v>
+        <v>3819</v>
       </c>
       <c r="M735" s="26" t="str">
         <f t="shared" si="11"/>
@@ -46598,7 +46595,7 @@
       <c r="J1003" s="2"/>
       <c r="K1003" s="2"/>
       <c r="L1003" s="2" t="s">
-        <v>3833</v>
+        <v>3832</v>
       </c>
       <c r="M1003" s="26" t="str">
         <f t="shared" si="15"/>
@@ -46628,7 +46625,7 @@
       <c r="J1004" s="2"/>
       <c r="K1004" s="2"/>
       <c r="L1004" s="2" t="s">
-        <v>3832</v>
+        <v>3831</v>
       </c>
       <c r="M1004" s="26" t="str">
         <f t="shared" si="15"/>
@@ -46658,7 +46655,7 @@
       <c r="J1005" s="2"/>
       <c r="K1005" s="2"/>
       <c r="L1005" s="2" t="s">
-        <v>3831</v>
+        <v>3830</v>
       </c>
       <c r="M1005" s="26" t="str">
         <f t="shared" si="15"/>
@@ -46718,7 +46715,7 @@
       <c r="J1007" s="2"/>
       <c r="K1007" s="2"/>
       <c r="L1007" s="2" t="s">
-        <v>3834</v>
+        <v>3833</v>
       </c>
       <c r="M1007" s="26" t="str">
         <f t="shared" si="15"/>
@@ -46748,7 +46745,7 @@
       <c r="J1008" s="2"/>
       <c r="K1008" s="2"/>
       <c r="L1008" s="2" t="s">
-        <v>3821</v>
+        <v>3820</v>
       </c>
       <c r="M1008" s="26" t="str">
         <f t="shared" si="15"/>
@@ -46778,7 +46775,7 @@
       <c r="J1009" s="2"/>
       <c r="K1009" s="2"/>
       <c r="L1009" s="2" t="s">
-        <v>3822</v>
+        <v>3821</v>
       </c>
       <c r="M1009" s="26" t="str">
         <f t="shared" si="15"/>
@@ -46808,7 +46805,7 @@
       <c r="J1010" s="2"/>
       <c r="K1010" s="2"/>
       <c r="L1010" s="2" t="s">
-        <v>3823</v>
+        <v>3822</v>
       </c>
       <c r="M1010" s="26" t="str">
         <f t="shared" si="15"/>
@@ -46871,7 +46868,7 @@
       <c r="J1012" s="2"/>
       <c r="K1012" s="2"/>
       <c r="L1012" s="2" t="s">
-        <v>3824</v>
+        <v>3823</v>
       </c>
       <c r="M1012" s="26" t="str">
         <f t="shared" si="15"/>
@@ -46901,7 +46898,7 @@
       <c r="J1013" s="2"/>
       <c r="K1013" s="2"/>
       <c r="L1013" s="2" t="s">
-        <v>3825</v>
+        <v>3824</v>
       </c>
       <c r="M1013" s="26" t="str">
         <f t="shared" si="15"/>
@@ -46931,7 +46928,7 @@
       <c r="J1014" s="2"/>
       <c r="K1014" s="2"/>
       <c r="L1014" s="2" t="s">
-        <v>3826</v>
+        <v>3825</v>
       </c>
       <c r="M1014" s="26" t="str">
         <f t="shared" si="15"/>
@@ -47051,7 +47048,7 @@
       <c r="J1018" s="2"/>
       <c r="K1018" s="2"/>
       <c r="L1018" s="2" t="s">
-        <v>3827</v>
+        <v>3826</v>
       </c>
       <c r="M1018" s="26" t="str">
         <f t="shared" si="15"/>
@@ -47081,7 +47078,7 @@
       <c r="J1019" s="2"/>
       <c r="K1019" s="2"/>
       <c r="L1019" s="2" t="s">
-        <v>3828</v>
+        <v>3827</v>
       </c>
       <c r="M1019" s="26" t="str">
         <f t="shared" si="15"/>
@@ -47111,7 +47108,7 @@
       <c r="J1020" s="2"/>
       <c r="K1020" s="2"/>
       <c r="L1020" s="2" t="s">
-        <v>3829</v>
+        <v>3828</v>
       </c>
       <c r="M1020" s="26" t="str">
         <f t="shared" si="15"/>
@@ -47141,7 +47138,7 @@
       <c r="J1021" s="2"/>
       <c r="K1021" s="2"/>
       <c r="L1021" s="2" t="s">
-        <v>3830</v>
+        <v>3829</v>
       </c>
       <c r="M1021" s="26" t="str">
         <f t="shared" si="15"/>

--- a/importer/metadata.xlsx
+++ b/importer/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pilou/dev/platyplus/cerberus/importer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE06888-E34D-0E4A-8991-273972EB9175}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26F1DF8-2AAD-404A-8BC0-87305477CB74}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="440" windowWidth="25440" windowHeight="14260" xr2:uid="{5441FEBD-B00D-ED43-B1D0-1B0469BA4F3D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12604" uniqueCount="4030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12527" uniqueCount="4045">
   <si>
     <t>Type</t>
   </si>
@@ -11890,9 +11890,6 @@
     <t>merge entity multiplicity and property mulitplicity?</t>
   </si>
   <si>
-    <t>radiology</t>
-  </si>
-  <si>
     <t>primary</t>
   </si>
   <si>
@@ -12125,6 +12122,54 @@
   </si>
   <si>
     <t>induced</t>
+  </si>
+  <si>
+    <t>almost no data (6 in YPO)</t>
+  </si>
+  <si>
+    <t>only one record in YPO</t>
+  </si>
+  <si>
+    <t>almost no data in YPO</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>radiology type</t>
+  </si>
+  <si>
+    <t>radio cxray</t>
+  </si>
+  <si>
+    <t>radio xray</t>
+  </si>
+  <si>
+    <t>radio usg</t>
+  </si>
+  <si>
+    <t>tb type</t>
+  </si>
+  <si>
+    <t>tb starting date</t>
+  </si>
+  <si>
+    <t>ambiguous name</t>
+  </si>
+  <si>
+    <t>tb category</t>
+  </si>
+  <si>
+    <t>tb treatment category</t>
+  </si>
+  <si>
+    <t>ipt treatment</t>
+  </si>
+  <si>
+    <t>ipt intiation date</t>
+  </si>
+  <si>
+    <t>other medication</t>
   </si>
 </sst>
 </file>
@@ -12681,9 +12726,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:S1511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O265" sqref="O265:P268"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O362" sqref="O342:P362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12757,7 +12802,7 @@
         <v>3414</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>3974</v>
+        <v>3973</v>
       </c>
       <c r="R1" s="18" t="s">
         <v>1944</v>
@@ -13719,7 +13764,7 @@
         <v>boolean</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -13765,7 +13810,7 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" t="s">
-        <v>3983</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
@@ -13796,7 +13841,7 @@
         <v>string</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>3961</v>
+        <v>3960</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -13833,7 +13878,7 @@
         <v>string</v>
       </c>
       <c r="L29" s="29" t="s">
-        <v>3962</v>
+        <v>3961</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -13842,7 +13887,7 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" t="s">
-        <v>3983</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
@@ -13875,7 +13920,7 @@
         <v>boolean</v>
       </c>
       <c r="L30" s="29" t="s">
-        <v>3963</v>
+        <v>3962</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -13884,7 +13929,7 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" t="s">
-        <v>3983</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
@@ -13917,7 +13962,7 @@
         <v>boolean</v>
       </c>
       <c r="L31" s="29" t="s">
-        <v>3982</v>
+        <v>3981</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -13926,7 +13971,7 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" t="s">
-        <v>3983</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
@@ -14448,7 +14493,7 @@
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="29" t="s">
-        <v>3973</v>
+        <v>3972</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
@@ -15003,7 +15048,7 @@
         <v>2286</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>3964</v>
+        <v>3963</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2" t="s">
@@ -15022,7 +15067,7 @@
         <v>3751</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>3965</v>
+        <v>3964</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
@@ -15050,7 +15095,7 @@
         <v>2287</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>3964</v>
+        <v>3963</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2" t="s">
@@ -15069,7 +15114,7 @@
         <v>3751</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>3966</v>
+        <v>3965</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
@@ -15095,7 +15140,7 @@
         <v>2288</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>3964</v>
+        <v>3963</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2" t="s">
@@ -15114,7 +15159,7 @@
         <v>3751</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>3966</v>
+        <v>3965</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
@@ -15142,7 +15187,7 @@
         <v>2289</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>3964</v>
+        <v>3963</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2" t="s">
@@ -15161,7 +15206,7 @@
         <v>3751</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>3967</v>
+        <v>3966</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
@@ -15237,14 +15282,14 @@
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="29" t="s">
-        <v>3973</v>
+        <v>3972</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
       <c r="S61" t="s">
-        <v>3969</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
@@ -15306,7 +15351,7 @@
         <v>2293</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>3968</v>
+        <v>3967</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
@@ -15349,7 +15394,7 @@
         <v>2294</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>3968</v>
+        <v>3967</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
@@ -15392,7 +15437,7 @@
         <v>2295</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>3968</v>
+        <v>3967</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
@@ -15433,7 +15478,7 @@
         <v>2296</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>3968</v>
+        <v>3967</v>
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
@@ -15483,7 +15528,7 @@
         <v>boolean</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>3981</v>
+        <v>3980</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -15522,7 +15567,7 @@
         <v>boolean</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>3970</v>
+        <v>3969</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -15559,7 +15604,7 @@
         <v>number</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>3971</v>
+        <v>3970</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -15596,7 +15641,7 @@
         <v>number</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>3972</v>
+        <v>3971</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -16024,7 +16069,7 @@
       <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
       <c r="S81" t="s">
-        <v>3983</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
@@ -16057,7 +16102,7 @@
         <v>boolean</v>
       </c>
       <c r="L82" s="29" t="s">
-        <v>3963</v>
+        <v>3962</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -16066,7 +16111,7 @@
       <c r="Q82" s="2"/>
       <c r="R82" s="2"/>
       <c r="S82" t="s">
-        <v>3983</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
@@ -16097,7 +16142,7 @@
         <v>string</v>
       </c>
       <c r="L83" s="29" t="s">
-        <v>3962</v>
+        <v>3961</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -16106,7 +16151,7 @@
       <c r="Q83" s="2"/>
       <c r="R83" s="2"/>
       <c r="S83" t="s">
-        <v>3983</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
@@ -16139,7 +16184,7 @@
         <v>boolean</v>
       </c>
       <c r="L84" s="29" t="s">
-        <v>3982</v>
+        <v>3981</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -16148,7 +16193,7 @@
       <c r="Q84" s="2"/>
       <c r="R84" s="2"/>
       <c r="S84" t="s">
-        <v>3983</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
@@ -16179,7 +16224,7 @@
         <v>string</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>3977</v>
+        <v>3976</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -16218,7 +16263,7 @@
         <v>boolean</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>3978</v>
+        <v>3977</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -16294,7 +16339,7 @@
         <v>boolean</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>3979</v>
+        <v>3978</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -17668,7 +17713,7 @@
         <v>boolean</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>3980</v>
+        <v>3979</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -17746,7 +17791,7 @@
         <v>string</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>3975</v>
+        <v>3974</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -17822,7 +17867,7 @@
         <v>date</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>3976</v>
+        <v>3975</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -18307,7 +18352,7 @@
         <v>boolean</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>3958</v>
+        <v>3957</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -18346,7 +18391,7 @@
         <v>boolean</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>3984</v>
+        <v>3983</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
@@ -18385,7 +18430,7 @@
         <v>boolean</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>3959</v>
+        <v>3958</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -18420,10 +18465,10 @@
       <c r="I139" s="2"/>
       <c r="J139" s="2"/>
       <c r="K139" s="29" t="s">
-        <v>3991</v>
+        <v>3990</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>3994</v>
+        <v>3993</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
@@ -18462,7 +18507,7 @@
         <v>string</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>3995</v>
+        <v>3994</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -18499,10 +18544,10 @@
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
       <c r="K141" s="29" t="s">
-        <v>3991</v>
+        <v>3990</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>3993</v>
+        <v>3992</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -18541,10 +18586,10 @@
         <v>string</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>3992</v>
+        <v>3991</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>3986</v>
+        <v>3985</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -18580,10 +18625,10 @@
         <v>string</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>3992</v>
+        <v>3991</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>3986</v>
+        <v>3985</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
@@ -18617,10 +18662,10 @@
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
       <c r="K144" s="29" t="s">
-        <v>3991</v>
+        <v>3990</v>
       </c>
       <c r="L144" s="2" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -18629,7 +18674,7 @@
       <c r="Q144" s="2"/>
       <c r="R144" s="2"/>
       <c r="S144" t="s">
-        <v>3989</v>
+        <v>3988</v>
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.2">
@@ -18665,7 +18710,7 @@
         <v>3803</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>3986</v>
+        <v>3985</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -18675,7 +18720,7 @@
       </c>
       <c r="R145" s="2"/>
       <c r="S145" t="s">
-        <v>3987</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.2">
@@ -18895,7 +18940,7 @@
         <v>1945</v>
       </c>
       <c r="S151" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.2">
@@ -18945,7 +18990,7 @@
         <v>1945</v>
       </c>
       <c r="S152" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.2">
@@ -18995,7 +19040,7 @@
         <v>1945</v>
       </c>
       <c r="S153" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.2">
@@ -19045,7 +19090,7 @@
         <v>1945</v>
       </c>
       <c r="S154" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.2">
@@ -19095,7 +19140,7 @@
         <v>1945</v>
       </c>
       <c r="S155" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.2">
@@ -19145,7 +19190,7 @@
         <v>1945</v>
       </c>
       <c r="S156" s="46" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.2">
@@ -19195,7 +19240,7 @@
         <v>1945</v>
       </c>
       <c r="S157" s="46" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.2">
@@ -19245,7 +19290,7 @@
         <v>1945</v>
       </c>
       <c r="S158" s="46" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.2">
@@ -19295,7 +19340,7 @@
         <v>1945</v>
       </c>
       <c r="S159" s="46" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.2">
@@ -19345,7 +19390,7 @@
         <v>1945</v>
       </c>
       <c r="S160" s="46" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.2">
@@ -19413,7 +19458,7 @@
         <v>string</v>
       </c>
       <c r="L162" s="2" t="s">
-        <v>3998</v>
+        <v>3997</v>
       </c>
       <c r="M162" s="2"/>
       <c r="N162" s="2"/>
@@ -19452,10 +19497,10 @@
         <v>string</v>
       </c>
       <c r="L163" s="2" t="s">
-        <v>3999</v>
+        <v>3998</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>3986</v>
+        <v>3985</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" s="2"/>
@@ -19508,7 +19553,7 @@
         <v>1945</v>
       </c>
       <c r="S164" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.2">
@@ -19554,7 +19599,7 @@
         <v>1945</v>
       </c>
       <c r="S165" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.2">
@@ -19600,7 +19645,7 @@
         <v>1945</v>
       </c>
       <c r="S166" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.2">
@@ -19646,7 +19691,7 @@
         <v>1945</v>
       </c>
       <c r="S167" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.2">
@@ -19694,7 +19739,7 @@
         <v>1945</v>
       </c>
       <c r="S168" t="s">
-        <v>4000</v>
+        <v>3999</v>
       </c>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.2">
@@ -19740,7 +19785,7 @@
         <v>1945</v>
       </c>
       <c r="S169" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.2">
@@ -19786,7 +19831,7 @@
         <v>1945</v>
       </c>
       <c r="S170" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.2">
@@ -19832,7 +19877,7 @@
         <v>1945</v>
       </c>
       <c r="S171" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.2">
@@ -19878,7 +19923,7 @@
         <v>1945</v>
       </c>
       <c r="S172" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.2">
@@ -19926,7 +19971,7 @@
         <v>1945</v>
       </c>
       <c r="S173" t="s">
-        <v>4001</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.2">
@@ -19972,7 +20017,7 @@
         <v>1945</v>
       </c>
       <c r="S174" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.2">
@@ -20018,7 +20063,7 @@
         <v>1945</v>
       </c>
       <c r="S175" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.2">
@@ -20064,7 +20109,7 @@
         <v>1945</v>
       </c>
       <c r="S176" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.2">
@@ -20110,7 +20155,7 @@
         <v>1945</v>
       </c>
       <c r="S177" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.2">
@@ -20158,7 +20203,7 @@
         <v>1945</v>
       </c>
       <c r="S178" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.2">
@@ -20204,7 +20249,7 @@
         <v>1945</v>
       </c>
       <c r="S179" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.2">
@@ -20250,7 +20295,7 @@
         <v>1945</v>
       </c>
       <c r="S180" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.2">
@@ -20296,7 +20341,7 @@
         <v>1945</v>
       </c>
       <c r="S181" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.2">
@@ -20342,7 +20387,7 @@
         <v>1945</v>
       </c>
       <c r="S182" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.2">
@@ -20390,7 +20435,7 @@
         <v>1945</v>
       </c>
       <c r="S183" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.2">
@@ -20436,7 +20481,7 @@
         <v>1945</v>
       </c>
       <c r="S184" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.2">
@@ -20482,7 +20527,7 @@
         <v>1945</v>
       </c>
       <c r="S185" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.2">
@@ -20528,7 +20573,7 @@
         <v>1945</v>
       </c>
       <c r="S186" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.2">
@@ -20574,7 +20619,7 @@
         <v>1945</v>
       </c>
       <c r="S187" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.2">
@@ -20622,7 +20667,7 @@
         <v>1945</v>
       </c>
       <c r="S188" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.2">
@@ -23401,7 +23446,7 @@
         <v>1945</v>
       </c>
       <c r="S253" t="s">
-        <v>4029</v>
+        <v>4028</v>
       </c>
     </row>
     <row r="254" spans="1:19" x14ac:dyDescent="0.2">
@@ -23463,7 +23508,7 @@
         <v>2477</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>4016</v>
+        <v>4015</v>
       </c>
       <c r="I255" s="2"/>
       <c r="J255" s="2" t="s">
@@ -23484,7 +23529,7 @@
         <v>3948</v>
       </c>
       <c r="P255" s="2" t="s">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="Q255" s="2"/>
       <c r="R255" s="2"/>
@@ -23512,7 +23557,7 @@
         <v>2478</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>4016</v>
+        <v>4015</v>
       </c>
       <c r="I256" s="2"/>
       <c r="J256" s="2" t="s">
@@ -23533,7 +23578,7 @@
         <v>3948</v>
       </c>
       <c r="P256" s="2" t="s">
-        <v>4009</v>
+        <v>4008</v>
       </c>
       <c r="Q256" s="2"/>
       <c r="R256" s="2"/>
@@ -23561,7 +23606,7 @@
         <v>2479</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>4016</v>
+        <v>4015</v>
       </c>
       <c r="I257" s="2"/>
       <c r="J257" s="2" t="s">
@@ -23582,7 +23627,7 @@
         <v>3948</v>
       </c>
       <c r="P257" s="2" t="s">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="Q257" s="2"/>
       <c r="R257" s="2"/>
@@ -23610,7 +23655,7 @@
         <v>2480</v>
       </c>
       <c r="H258" s="2" t="s">
-        <v>4016</v>
+        <v>4015</v>
       </c>
       <c r="I258" s="2"/>
       <c r="J258" s="2" t="s">
@@ -23631,7 +23676,7 @@
         <v>3948</v>
       </c>
       <c r="P258" s="2" t="s">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="Q258" s="2"/>
       <c r="R258" s="2"/>
@@ -23695,7 +23740,7 @@
         <v>2482</v>
       </c>
       <c r="H260" s="2" t="s">
-        <v>4016</v>
+        <v>4015</v>
       </c>
       <c r="I260" s="2"/>
       <c r="J260" s="2" t="s">
@@ -23716,7 +23761,7 @@
         <v>3948</v>
       </c>
       <c r="P260" s="2" t="s">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="Q260" s="2"/>
       <c r="R260" s="2"/>
@@ -23744,7 +23789,7 @@
         <v>2483</v>
       </c>
       <c r="H261" s="2" t="s">
-        <v>4016</v>
+        <v>4015</v>
       </c>
       <c r="I261" s="2"/>
       <c r="J261" s="2" t="s">
@@ -23765,7 +23810,7 @@
         <v>3948</v>
       </c>
       <c r="P261" s="2" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="Q261" s="2"/>
       <c r="R261" s="2"/>
@@ -23793,7 +23838,7 @@
         <v>2484</v>
       </c>
       <c r="H262" s="2" t="s">
-        <v>4016</v>
+        <v>4015</v>
       </c>
       <c r="I262" s="2"/>
       <c r="J262" s="2" t="s">
@@ -23814,7 +23859,7 @@
         <v>3948</v>
       </c>
       <c r="P262" s="2" t="s">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="Q262" s="2"/>
       <c r="R262" s="2"/>
@@ -23842,7 +23887,7 @@
         <v>2485</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>4016</v>
+        <v>4015</v>
       </c>
       <c r="I263" s="2"/>
       <c r="J263" s="2" t="s">
@@ -23863,7 +23908,7 @@
         <v>3948</v>
       </c>
       <c r="P263" s="2" t="s">
-        <v>4015</v>
+        <v>4014</v>
       </c>
       <c r="Q263" s="2"/>
       <c r="R263" s="2"/>
@@ -23898,7 +23943,7 @@
         <v>string</v>
       </c>
       <c r="L264" s="2" t="s">
-        <v>4017</v>
+        <v>4016</v>
       </c>
       <c r="M264" s="2"/>
       <c r="N264" s="2"/>
@@ -23947,11 +23992,11 @@
       </c>
       <c r="M265" s="2"/>
       <c r="N265" s="2"/>
-      <c r="O265" s="29" t="s">
+      <c r="O265" s="2" t="s">
         <v>3751</v>
       </c>
-      <c r="P265" s="29" t="s">
-        <v>4018</v>
+      <c r="P265" s="2" t="s">
+        <v>4017</v>
       </c>
       <c r="Q265" s="2"/>
       <c r="R265" s="2"/>
@@ -23992,11 +24037,11 @@
       </c>
       <c r="M266" s="2"/>
       <c r="N266" s="2"/>
-      <c r="O266" s="29" t="s">
+      <c r="O266" s="2" t="s">
+        <v>4018</v>
+      </c>
+      <c r="P266" s="2" t="s">
         <v>4019</v>
-      </c>
-      <c r="P266" s="29" t="s">
-        <v>4020</v>
       </c>
       <c r="Q266" s="2"/>
       <c r="R266" s="2"/>
@@ -24037,11 +24082,11 @@
       </c>
       <c r="M267" s="2"/>
       <c r="N267" s="2"/>
-      <c r="O267" s="29" t="s">
-        <v>4019</v>
-      </c>
-      <c r="P267" s="29" t="s">
-        <v>4021</v>
+      <c r="O267" s="2" t="s">
+        <v>4018</v>
+      </c>
+      <c r="P267" s="2" t="s">
+        <v>4020</v>
       </c>
       <c r="Q267" s="2"/>
       <c r="R267" s="2"/>
@@ -24082,11 +24127,11 @@
       </c>
       <c r="M268" s="2"/>
       <c r="N268" s="2"/>
-      <c r="O268" s="29" t="s">
+      <c r="O268" s="2" t="s">
         <v>3751</v>
       </c>
-      <c r="P268" s="29" t="s">
-        <v>4022</v>
+      <c r="P268" s="2" t="s">
+        <v>4021</v>
       </c>
       <c r="Q268" s="2"/>
       <c r="R268" s="2"/>
@@ -24131,7 +24176,7 @@
         <v>3751</v>
       </c>
       <c r="P269" s="2" t="s">
-        <v>4022</v>
+        <v>4021</v>
       </c>
       <c r="Q269" s="2"/>
       <c r="R269" s="2"/>
@@ -24176,7 +24221,7 @@
         <v>3751</v>
       </c>
       <c r="P270" s="2" t="s">
-        <v>4022</v>
+        <v>4021</v>
       </c>
       <c r="Q270" s="2"/>
       <c r="R270" s="2"/>
@@ -24221,7 +24266,7 @@
         <v>3751</v>
       </c>
       <c r="P271" s="2" t="s">
-        <v>4022</v>
+        <v>4021</v>
       </c>
       <c r="Q271" s="2"/>
       <c r="R271" s="2"/>
@@ -24266,7 +24311,7 @@
         <v>3751</v>
       </c>
       <c r="P272" s="2" t="s">
-        <v>4022</v>
+        <v>4021</v>
       </c>
       <c r="Q272" s="2"/>
       <c r="R272" s="2"/>
@@ -24311,7 +24356,7 @@
         <v>3751</v>
       </c>
       <c r="P273" s="2" t="s">
-        <v>4022</v>
+        <v>4021</v>
       </c>
       <c r="Q273" s="2"/>
       <c r="R273" s="2"/>
@@ -24356,7 +24401,7 @@
         <v>3751</v>
       </c>
       <c r="P274" s="2" t="s">
-        <v>4022</v>
+        <v>4021</v>
       </c>
       <c r="Q274" s="2"/>
       <c r="R274" s="2"/>
@@ -24401,7 +24446,7 @@
         <v>3751</v>
       </c>
       <c r="P275" s="2" t="s">
-        <v>4022</v>
+        <v>4021</v>
       </c>
       <c r="Q275" s="2"/>
       <c r="R275" s="2"/>
@@ -24434,7 +24479,7 @@
         <v>string</v>
       </c>
       <c r="L276" s="2" t="s">
-        <v>4023</v>
+        <v>4022</v>
       </c>
       <c r="M276" s="2"/>
       <c r="N276" s="2"/>
@@ -24471,7 +24516,7 @@
         <v>number</v>
       </c>
       <c r="L277" s="2" t="s">
-        <v>4024</v>
+        <v>4023</v>
       </c>
       <c r="M277" s="2"/>
       <c r="N277" s="2"/>
@@ -24551,7 +24596,7 @@
         <v>string</v>
       </c>
       <c r="L279" s="2" t="s">
-        <v>4025</v>
+        <v>4024</v>
       </c>
       <c r="M279" s="2"/>
       <c r="N279" s="2"/>
@@ -24560,7 +24605,7 @@
       <c r="Q279" s="2"/>
       <c r="R279" s="2"/>
       <c r="S279" t="s">
-        <v>4026</v>
+        <v>4025</v>
       </c>
     </row>
     <row r="280" spans="1:19" x14ac:dyDescent="0.2">
@@ -24602,7 +24647,7 @@
       <c r="Q280" s="2"/>
       <c r="R280" s="2"/>
       <c r="S280" t="s">
-        <v>4026</v>
+        <v>4025</v>
       </c>
     </row>
     <row r="281" spans="1:19" x14ac:dyDescent="0.2">
@@ -24635,7 +24680,7 @@
         <v>string</v>
       </c>
       <c r="L281" s="2" t="s">
-        <v>4027</v>
+        <v>4026</v>
       </c>
       <c r="M281" s="2"/>
       <c r="N281" s="2"/>
@@ -24644,7 +24689,7 @@
       <c r="Q281" s="2"/>
       <c r="R281" s="2"/>
       <c r="S281" t="s">
-        <v>4026</v>
+        <v>4025</v>
       </c>
     </row>
     <row r="282" spans="1:19" x14ac:dyDescent="0.2">
@@ -24686,7 +24731,7 @@
       <c r="Q282" s="2"/>
       <c r="R282" s="2"/>
       <c r="S282" t="s">
-        <v>4026</v>
+        <v>4025</v>
       </c>
     </row>
     <row r="283" spans="1:19" x14ac:dyDescent="0.2">
@@ -24756,7 +24801,7 @@
         <v>string</v>
       </c>
       <c r="L284" s="2" t="s">
-        <v>4028</v>
+        <v>4027</v>
       </c>
       <c r="M284" s="2"/>
       <c r="N284" s="2"/>
@@ -24785,13 +24830,9 @@
       <c r="G285" s="15" t="s">
         <v>2507</v>
       </c>
-      <c r="H285" s="2" t="s">
-        <v>3825</v>
-      </c>
+      <c r="H285" s="2"/>
       <c r="I285" s="2"/>
-      <c r="J285" s="2" t="s">
-        <v>3945</v>
-      </c>
+      <c r="J285" s="2"/>
       <c r="K285" s="2" t="str">
         <f t="shared" si="4"/>
         <v>string</v>
@@ -24799,7 +24840,9 @@
       <c r="L285" s="22" t="s">
         <v>3810</v>
       </c>
-      <c r="M285" s="22"/>
+      <c r="M285" s="22" t="s">
+        <v>3945</v>
+      </c>
       <c r="N285" s="2"/>
       <c r="O285" s="2"/>
       <c r="P285" s="2"/>
@@ -24845,7 +24888,12 @@
       <c r="O286" s="2"/>
       <c r="P286" s="2"/>
       <c r="Q286" s="2"/>
-      <c r="R286" s="2"/>
+      <c r="R286" s="2" t="s">
+        <v>1945</v>
+      </c>
+      <c r="S286" t="s">
+        <v>4029</v>
+      </c>
     </row>
     <row r="287" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
@@ -24886,7 +24934,12 @@
       <c r="O287" s="2"/>
       <c r="P287" s="2"/>
       <c r="Q287" s="2"/>
-      <c r="R287" s="2"/>
+      <c r="R287" s="2" t="s">
+        <v>1945</v>
+      </c>
+      <c r="S287" t="s">
+        <v>4030</v>
+      </c>
     </row>
     <row r="288" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
@@ -24927,7 +24980,12 @@
       <c r="O288" s="2"/>
       <c r="P288" s="2"/>
       <c r="Q288" s="2"/>
-      <c r="R288" s="2"/>
+      <c r="R288" s="2" t="s">
+        <v>1945</v>
+      </c>
+      <c r="S288" t="s">
+        <v>4031</v>
+      </c>
     </row>
     <row r="289" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
@@ -24968,7 +25026,9 @@
       <c r="O289" s="2"/>
       <c r="P289" s="2"/>
       <c r="Q289" s="2"/>
-      <c r="R289" s="2"/>
+      <c r="R289" s="2" t="s">
+        <v>1945</v>
+      </c>
     </row>
     <row r="290" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
@@ -25009,7 +25069,9 @@
       <c r="O290" s="2"/>
       <c r="P290" s="2"/>
       <c r="Q290" s="2"/>
-      <c r="R290" s="2"/>
+      <c r="R290" s="2" t="s">
+        <v>1945</v>
+      </c>
     </row>
     <row r="291" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
@@ -25050,7 +25112,9 @@
       <c r="O291" s="2"/>
       <c r="P291" s="2"/>
       <c r="Q291" s="2"/>
-      <c r="R291" s="2"/>
+      <c r="R291" s="2" t="s">
+        <v>1945</v>
+      </c>
     </row>
     <row r="292" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
@@ -25091,7 +25155,9 @@
       <c r="O292" s="2"/>
       <c r="P292" s="2"/>
       <c r="Q292" s="2"/>
-      <c r="R292" s="2"/>
+      <c r="R292" s="2" t="s">
+        <v>1945</v>
+      </c>
     </row>
     <row r="293" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
@@ -25132,7 +25198,9 @@
       <c r="O293" s="2"/>
       <c r="P293" s="2"/>
       <c r="Q293" s="2"/>
-      <c r="R293" s="2"/>
+      <c r="R293" s="2" t="s">
+        <v>1945</v>
+      </c>
     </row>
     <row r="294" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
@@ -25173,7 +25241,9 @@
       <c r="O294" s="2"/>
       <c r="P294" s="2"/>
       <c r="Q294" s="2"/>
-      <c r="R294" s="2"/>
+      <c r="R294" s="2" t="s">
+        <v>1945</v>
+      </c>
     </row>
     <row r="295" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
@@ -25214,7 +25284,9 @@
       <c r="O295" s="2"/>
       <c r="P295" s="2"/>
       <c r="Q295" s="2"/>
-      <c r="R295" s="2"/>
+      <c r="R295" s="2" t="s">
+        <v>1945</v>
+      </c>
     </row>
     <row r="296" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
@@ -25255,7 +25327,9 @@
       <c r="O296" s="2"/>
       <c r="P296" s="2"/>
       <c r="Q296" s="2"/>
-      <c r="R296" s="2"/>
+      <c r="R296" s="2" t="s">
+        <v>1945</v>
+      </c>
     </row>
     <row r="297" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
@@ -25296,7 +25370,9 @@
       <c r="O297" s="2"/>
       <c r="P297" s="2"/>
       <c r="Q297" s="2"/>
-      <c r="R297" s="2"/>
+      <c r="R297" s="2" t="s">
+        <v>1945</v>
+      </c>
     </row>
     <row r="298" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
@@ -25337,7 +25413,9 @@
       <c r="O298" s="2"/>
       <c r="P298" s="2"/>
       <c r="Q298" s="2"/>
-      <c r="R298" s="2"/>
+      <c r="R298" s="2" t="s">
+        <v>1945</v>
+      </c>
     </row>
     <row r="299" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
@@ -25378,7 +25456,9 @@
       <c r="O299" s="2"/>
       <c r="P299" s="2"/>
       <c r="Q299" s="2"/>
-      <c r="R299" s="2"/>
+      <c r="R299" s="2" t="s">
+        <v>1945</v>
+      </c>
     </row>
     <row r="300" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
@@ -25419,7 +25499,9 @@
       <c r="O300" s="2"/>
       <c r="P300" s="2"/>
       <c r="Q300" s="2"/>
-      <c r="R300" s="2"/>
+      <c r="R300" s="2" t="s">
+        <v>1945</v>
+      </c>
     </row>
     <row r="301" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
@@ -25460,7 +25542,9 @@
       <c r="O301" s="2"/>
       <c r="P301" s="2"/>
       <c r="Q301" s="2"/>
-      <c r="R301" s="2"/>
+      <c r="R301" s="2" t="s">
+        <v>1945</v>
+      </c>
     </row>
     <row r="302" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
@@ -25501,7 +25585,9 @@
       <c r="O302" s="2"/>
       <c r="P302" s="2"/>
       <c r="Q302" s="2"/>
-      <c r="R302" s="2"/>
+      <c r="R302" s="2" t="s">
+        <v>1945</v>
+      </c>
     </row>
     <row r="303" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
@@ -25542,7 +25628,9 @@
       <c r="O303" s="2"/>
       <c r="P303" s="2"/>
       <c r="Q303" s="2"/>
-      <c r="R303" s="2"/>
+      <c r="R303" s="2" t="s">
+        <v>1945</v>
+      </c>
     </row>
     <row r="304" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
@@ -25583,7 +25671,9 @@
       <c r="O304" s="2"/>
       <c r="P304" s="2"/>
       <c r="Q304" s="2"/>
-      <c r="R304" s="2"/>
+      <c r="R304" s="2" t="s">
+        <v>1945</v>
+      </c>
     </row>
     <row r="305" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
@@ -25624,7 +25714,9 @@
       <c r="O305" s="2"/>
       <c r="P305" s="2"/>
       <c r="Q305" s="2"/>
-      <c r="R305" s="2"/>
+      <c r="R305" s="2" t="s">
+        <v>1945</v>
+      </c>
     </row>
     <row r="306" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
@@ -25665,7 +25757,9 @@
       <c r="O306" s="2"/>
       <c r="P306" s="2"/>
       <c r="Q306" s="2"/>
-      <c r="R306" s="2"/>
+      <c r="R306" s="2" t="s">
+        <v>1945</v>
+      </c>
     </row>
     <row r="307" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
@@ -25706,7 +25800,9 @@
       <c r="O307" s="2"/>
       <c r="P307" s="2"/>
       <c r="Q307" s="2"/>
-      <c r="R307" s="2"/>
+      <c r="R307" s="2" t="s">
+        <v>1945</v>
+      </c>
     </row>
     <row r="308" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
@@ -25747,7 +25843,9 @@
       <c r="O308" s="2"/>
       <c r="P308" s="2"/>
       <c r="Q308" s="2"/>
-      <c r="R308" s="2"/>
+      <c r="R308" s="2" t="s">
+        <v>1945</v>
+      </c>
     </row>
     <row r="309" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
@@ -25788,7 +25886,9 @@
       <c r="O309" s="2"/>
       <c r="P309" s="2"/>
       <c r="Q309" s="2"/>
-      <c r="R309" s="2"/>
+      <c r="R309" s="2" t="s">
+        <v>1945</v>
+      </c>
     </row>
     <row r="310" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
@@ -25829,7 +25929,9 @@
       <c r="O310" s="2"/>
       <c r="P310" s="2"/>
       <c r="Q310" s="2"/>
-      <c r="R310" s="2"/>
+      <c r="R310" s="2" t="s">
+        <v>1945</v>
+      </c>
     </row>
     <row r="311" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
@@ -25870,7 +25972,9 @@
       <c r="O311" s="2"/>
       <c r="P311" s="2"/>
       <c r="Q311" s="2"/>
-      <c r="R311" s="2"/>
+      <c r="R311" s="2" t="s">
+        <v>1945</v>
+      </c>
     </row>
     <row r="312" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
@@ -25911,7 +26015,9 @@
       <c r="O312" s="2"/>
       <c r="P312" s="2"/>
       <c r="Q312" s="2"/>
-      <c r="R312" s="2"/>
+      <c r="R312" s="2" t="s">
+        <v>1945</v>
+      </c>
     </row>
     <row r="313" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
@@ -25952,7 +26058,9 @@
       <c r="O313" s="2"/>
       <c r="P313" s="2"/>
       <c r="Q313" s="2"/>
-      <c r="R313" s="2"/>
+      <c r="R313" s="2" t="s">
+        <v>1945</v>
+      </c>
     </row>
     <row r="314" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
@@ -25993,7 +26101,9 @@
       <c r="O314" s="2"/>
       <c r="P314" s="2"/>
       <c r="Q314" s="2"/>
-      <c r="R314" s="2"/>
+      <c r="R314" s="2" t="s">
+        <v>1945</v>
+      </c>
     </row>
     <row r="315" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
@@ -26034,7 +26144,9 @@
       <c r="O315" s="2"/>
       <c r="P315" s="2"/>
       <c r="Q315" s="2"/>
-      <c r="R315" s="2"/>
+      <c r="R315" s="2" t="s">
+        <v>1945</v>
+      </c>
     </row>
     <row r="316" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
@@ -26075,7 +26187,9 @@
       <c r="O316" s="2"/>
       <c r="P316" s="2"/>
       <c r="Q316" s="2"/>
-      <c r="R316" s="2"/>
+      <c r="R316" s="2" t="s">
+        <v>1945</v>
+      </c>
     </row>
     <row r="317" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
@@ -26116,7 +26230,9 @@
       <c r="O317" s="2"/>
       <c r="P317" s="2"/>
       <c r="Q317" s="2"/>
-      <c r="R317" s="2"/>
+      <c r="R317" s="2" t="s">
+        <v>1945</v>
+      </c>
     </row>
     <row r="318" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
@@ -26157,7 +26273,9 @@
       <c r="O318" s="2"/>
       <c r="P318" s="2"/>
       <c r="Q318" s="2"/>
-      <c r="R318" s="2"/>
+      <c r="R318" s="2" t="s">
+        <v>1945</v>
+      </c>
     </row>
     <row r="319" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
@@ -26198,7 +26316,9 @@
       <c r="O319" s="2"/>
       <c r="P319" s="2"/>
       <c r="Q319" s="2"/>
-      <c r="R319" s="2"/>
+      <c r="R319" s="2" t="s">
+        <v>1945</v>
+      </c>
     </row>
     <row r="320" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
@@ -26239,7 +26359,9 @@
       <c r="O320" s="2"/>
       <c r="P320" s="2"/>
       <c r="Q320" s="2"/>
-      <c r="R320" s="2"/>
+      <c r="R320" s="2" t="s">
+        <v>1945</v>
+      </c>
     </row>
     <row r="321" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
@@ -26280,7 +26402,9 @@
       <c r="O321" s="2"/>
       <c r="P321" s="2"/>
       <c r="Q321" s="2"/>
-      <c r="R321" s="2"/>
+      <c r="R321" s="2" t="s">
+        <v>1945</v>
+      </c>
     </row>
     <row r="322" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
@@ -26321,7 +26445,9 @@
       <c r="O322" s="2"/>
       <c r="P322" s="2"/>
       <c r="Q322" s="2"/>
-      <c r="R322" s="2"/>
+      <c r="R322" s="2" t="s">
+        <v>1945</v>
+      </c>
     </row>
     <row r="323" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
@@ -26362,7 +26488,9 @@
       <c r="O323" s="2"/>
       <c r="P323" s="2"/>
       <c r="Q323" s="2"/>
-      <c r="R323" s="2"/>
+      <c r="R323" s="2" t="s">
+        <v>1945</v>
+      </c>
     </row>
     <row r="324" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
@@ -26392,7 +26520,7 @@
         <v>date</v>
       </c>
       <c r="L324" s="22" t="s">
-        <v>3955</v>
+        <v>3954</v>
       </c>
       <c r="M324" s="22"/>
       <c r="N324" s="2"/>
@@ -26426,20 +26554,21 @@
       <c r="H325" s="2"/>
       <c r="I325" s="2"/>
       <c r="J325" s="2"/>
-      <c r="K325" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>string</v>
-      </c>
-      <c r="L325" s="38" t="s">
-        <v>3951</v>
-      </c>
-      <c r="M325" s="38" t="s">
+      <c r="K325" s="25" t="s">
+        <v>4032</v>
+      </c>
+      <c r="L325" s="25" t="s">
+        <v>4033</v>
+      </c>
+      <c r="M325" s="2" t="s">
         <v>3945</v>
       </c>
       <c r="N325" s="2"/>
       <c r="O325" s="2"/>
       <c r="P325" s="2"/>
-      <c r="Q325" s="2"/>
+      <c r="Q325" s="8" t="s">
+        <v>588</v>
+      </c>
       <c r="R325" s="2"/>
     </row>
     <row r="326" spans="1:18" x14ac:dyDescent="0.2">
@@ -26465,19 +26594,17 @@
       <c r="H326" s="2"/>
       <c r="I326" s="2"/>
       <c r="J326" s="2"/>
-      <c r="K326" s="2" t="str">
+      <c r="K326" s="25" t="str">
         <f t="shared" si="5"/>
         <v>string</v>
       </c>
-      <c r="L326" s="38" t="s">
-        <v>3951</v>
-      </c>
-      <c r="M326" s="38" t="s">
-        <v>3945</v>
-      </c>
+      <c r="L326" s="25" t="s">
+        <v>4034</v>
+      </c>
+      <c r="M326" s="2"/>
       <c r="N326" s="2"/>
       <c r="O326" s="2"/>
-      <c r="P326" s="2"/>
+      <c r="P326" s="1"/>
       <c r="Q326" s="2"/>
       <c r="R326" s="2"/>
     </row>
@@ -26504,19 +26631,17 @@
       <c r="H327" s="2"/>
       <c r="I327" s="2"/>
       <c r="J327" s="2"/>
-      <c r="K327" s="2" t="str">
+      <c r="K327" s="25" t="str">
         <f t="shared" si="5"/>
         <v>string</v>
       </c>
-      <c r="L327" s="38" t="s">
-        <v>3951</v>
-      </c>
-      <c r="M327" s="38" t="s">
-        <v>3945</v>
-      </c>
+      <c r="L327" s="25" t="s">
+        <v>4035</v>
+      </c>
+      <c r="M327" s="2"/>
       <c r="N327" s="2"/>
       <c r="O327" s="2"/>
-      <c r="P327" s="2"/>
+      <c r="P327" s="1"/>
       <c r="Q327" s="2"/>
       <c r="R327" s="2"/>
     </row>
@@ -26543,19 +26668,17 @@
       <c r="H328" s="2"/>
       <c r="I328" s="2"/>
       <c r="J328" s="2"/>
-      <c r="K328" s="2" t="str">
+      <c r="K328" s="25" t="str">
         <f t="shared" si="5"/>
         <v>string</v>
       </c>
-      <c r="L328" s="38" t="s">
-        <v>3951</v>
-      </c>
-      <c r="M328" s="38" t="s">
-        <v>3945</v>
-      </c>
+      <c r="L328" s="25" t="s">
+        <v>4036</v>
+      </c>
+      <c r="M328" s="2"/>
       <c r="N328" s="2"/>
       <c r="O328" s="2"/>
-      <c r="P328" s="2"/>
+      <c r="P328" s="1"/>
       <c r="Q328" s="2"/>
       <c r="R328" s="2"/>
     </row>
@@ -26779,14 +26902,16 @@
         <f t="shared" si="5"/>
         <v>string</v>
       </c>
-      <c r="L334" s="22" t="s">
-        <v>605</v>
-      </c>
-      <c r="M334" s="22"/>
+      <c r="L334" s="2" t="s">
+        <v>4037</v>
+      </c>
+      <c r="M334" s="2"/>
       <c r="N334" s="2"/>
       <c r="O334" s="2"/>
       <c r="P334" s="2"/>
-      <c r="Q334" s="2"/>
+      <c r="Q334" s="8" t="s">
+        <v>606</v>
+      </c>
       <c r="R334" s="2"/>
     </row>
     <row r="335" spans="1:18" x14ac:dyDescent="0.2">
@@ -26818,10 +26943,10 @@
         <f t="shared" si="5"/>
         <v>string</v>
       </c>
-      <c r="L335" s="38" t="s">
+      <c r="L335" s="2" t="s">
         <v>1882</v>
       </c>
-      <c r="M335" s="38" t="s">
+      <c r="M335" s="2" t="s">
         <v>3945</v>
       </c>
       <c r="N335" s="2"/>
@@ -26857,10 +26982,10 @@
         <f t="shared" si="5"/>
         <v>string</v>
       </c>
-      <c r="L336" s="38" t="s">
+      <c r="L336" s="2" t="s">
         <v>1882</v>
       </c>
-      <c r="M336" s="38" t="s">
+      <c r="M336" s="2" t="s">
         <v>3945</v>
       </c>
       <c r="N336" s="2"/>
@@ -26898,10 +27023,10 @@
         <f t="shared" si="5"/>
         <v>boolean</v>
       </c>
-      <c r="L337" s="22" t="s">
+      <c r="L337" s="2" t="s">
         <v>3929</v>
       </c>
-      <c r="M337" s="22"/>
+      <c r="M337" s="2"/>
       <c r="N337" s="2"/>
       <c r="O337" s="2"/>
       <c r="P337" s="2"/>
@@ -26930,21 +27055,12 @@
       <c r="G338" s="15" t="s">
         <v>2560</v>
       </c>
-      <c r="H338" s="2" t="s">
-        <v>3954</v>
-      </c>
+      <c r="H338" s="2"/>
       <c r="I338" s="2"/>
-      <c r="J338" s="2" t="s">
-        <v>3945</v>
-      </c>
-      <c r="K338" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>string</v>
-      </c>
-      <c r="L338" s="38" t="s">
-        <v>3822</v>
-      </c>
-      <c r="M338" s="38"/>
+      <c r="J338" s="2"/>
+      <c r="K338" s="2"/>
+      <c r="L338" s="2"/>
+      <c r="M338" s="2"/>
       <c r="N338" s="2"/>
       <c r="O338" s="2"/>
       <c r="P338" s="2"/>
@@ -26974,7 +27090,7 @@
         <v>2561</v>
       </c>
       <c r="H339" s="2" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="I339" s="2"/>
       <c r="J339" s="2" t="s">
@@ -26984,16 +27100,16 @@
         <f t="shared" si="5"/>
         <v>string</v>
       </c>
-      <c r="L339" s="38" t="s">
+      <c r="L339" s="2" t="s">
         <v>3822</v>
       </c>
-      <c r="M339" s="38"/>
+      <c r="M339" s="2"/>
       <c r="N339" s="2"/>
       <c r="O339" s="2" t="s">
         <v>1812</v>
       </c>
       <c r="P339" s="2" t="s">
-        <v>3952</v>
+        <v>3951</v>
       </c>
       <c r="Q339" s="2"/>
       <c r="R339" s="2"/>
@@ -27021,7 +27137,7 @@
         <v>2562</v>
       </c>
       <c r="H340" s="2" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="I340" s="2"/>
       <c r="J340" s="2" t="s">
@@ -27031,16 +27147,16 @@
         <f t="shared" si="5"/>
         <v>string</v>
       </c>
-      <c r="L340" s="38" t="s">
+      <c r="L340" s="2" t="s">
         <v>3822</v>
       </c>
-      <c r="M340" s="38"/>
+      <c r="M340" s="2"/>
       <c r="N340" s="2"/>
       <c r="O340" s="2" t="s">
         <v>1812</v>
       </c>
       <c r="P340" s="2" t="s">
-        <v>3953</v>
+        <v>3952</v>
       </c>
       <c r="Q340" s="2"/>
       <c r="R340" s="2"/>
@@ -27143,7 +27259,7 @@
         <v>3816</v>
       </c>
       <c r="I343" s="2" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="J343" s="2" t="s">
         <v>3945</v>
@@ -27157,12 +27273,8 @@
       </c>
       <c r="M343" s="22"/>
       <c r="N343" s="2"/>
-      <c r="O343" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P343" s="2" t="s">
-        <v>3795</v>
-      </c>
+      <c r="O343" s="2"/>
+      <c r="P343" s="2"/>
       <c r="Q343" s="2"/>
       <c r="R343" s="2"/>
     </row>
@@ -27190,7 +27302,7 @@
         <v>3816</v>
       </c>
       <c r="I344" s="2" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="J344" s="2" t="s">
         <v>3945</v>
@@ -27204,12 +27316,8 @@
       </c>
       <c r="M344" s="22"/>
       <c r="N344" s="2"/>
-      <c r="O344" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P344" s="2" t="s">
-        <v>3795</v>
-      </c>
+      <c r="O344" s="2"/>
+      <c r="P344" s="2"/>
       <c r="Q344" s="2"/>
       <c r="R344" s="2"/>
     </row>
@@ -27237,7 +27345,7 @@
         <v>3816</v>
       </c>
       <c r="I345" s="2" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="J345" s="2" t="s">
         <v>3945</v>
@@ -27251,12 +27359,8 @@
       </c>
       <c r="M345" s="22"/>
       <c r="N345" s="2"/>
-      <c r="O345" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P345" s="2" t="s">
-        <v>3795</v>
-      </c>
+      <c r="O345" s="2"/>
+      <c r="P345" s="2"/>
       <c r="Q345" s="2"/>
       <c r="R345" s="2"/>
     </row>
@@ -27284,7 +27388,7 @@
         <v>3816</v>
       </c>
       <c r="I346" s="2" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="J346" s="2" t="s">
         <v>3945</v>
@@ -27298,12 +27402,8 @@
       </c>
       <c r="M346" s="22"/>
       <c r="N346" s="2"/>
-      <c r="O346" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P346" s="2" t="s">
-        <v>3795</v>
-      </c>
+      <c r="O346" s="2"/>
+      <c r="P346" s="2"/>
       <c r="Q346" s="2"/>
       <c r="R346" s="2"/>
     </row>
@@ -27331,7 +27431,7 @@
         <v>3816</v>
       </c>
       <c r="I347" s="2" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="J347" s="2" t="s">
         <v>3945</v>
@@ -27345,12 +27445,8 @@
       </c>
       <c r="M347" s="22"/>
       <c r="N347" s="2"/>
-      <c r="O347" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P347" s="2" t="s">
-        <v>3795</v>
-      </c>
+      <c r="O347" s="2"/>
+      <c r="P347" s="2"/>
       <c r="Q347" s="2"/>
       <c r="R347" s="2"/>
     </row>
@@ -27378,7 +27474,7 @@
         <v>3816</v>
       </c>
       <c r="I348" s="2" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="J348" s="2" t="s">
         <v>3945</v>
@@ -27392,12 +27488,8 @@
       </c>
       <c r="M348" s="22"/>
       <c r="N348" s="2"/>
-      <c r="O348" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P348" s="2" t="s">
-        <v>3795</v>
-      </c>
+      <c r="O348" s="2"/>
+      <c r="P348" s="2"/>
       <c r="Q348" s="2"/>
       <c r="R348" s="2"/>
     </row>
@@ -27425,7 +27517,7 @@
         <v>3816</v>
       </c>
       <c r="I349" s="2" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="J349" s="2" t="s">
         <v>3945</v>
@@ -27439,12 +27531,8 @@
       </c>
       <c r="M349" s="22"/>
       <c r="N349" s="2"/>
-      <c r="O349" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P349" s="2" t="s">
-        <v>3795</v>
-      </c>
+      <c r="O349" s="2"/>
+      <c r="P349" s="2"/>
       <c r="Q349" s="2"/>
       <c r="R349" s="2"/>
     </row>
@@ -27472,7 +27560,7 @@
         <v>3816</v>
       </c>
       <c r="I350" s="2" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="J350" s="2" t="s">
         <v>3945</v>
@@ -27486,12 +27574,8 @@
       </c>
       <c r="M350" s="22"/>
       <c r="N350" s="2"/>
-      <c r="O350" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P350" s="2" t="s">
-        <v>3795</v>
-      </c>
+      <c r="O350" s="2"/>
+      <c r="P350" s="2"/>
       <c r="Q350" s="2"/>
       <c r="R350" s="2"/>
     </row>
@@ -27519,7 +27603,7 @@
         <v>3816</v>
       </c>
       <c r="I351" s="2" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="J351" s="2" t="s">
         <v>3945</v>
@@ -27533,12 +27617,8 @@
       </c>
       <c r="M351" s="22"/>
       <c r="N351" s="2"/>
-      <c r="O351" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P351" s="2" t="s">
-        <v>3795</v>
-      </c>
+      <c r="O351" s="2"/>
+      <c r="P351" s="2"/>
       <c r="Q351" s="2"/>
       <c r="R351" s="2"/>
     </row>
@@ -27566,7 +27646,7 @@
         <v>3816</v>
       </c>
       <c r="I352" s="2" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="J352" s="2" t="s">
         <v>3945</v>
@@ -27580,16 +27660,12 @@
       </c>
       <c r="M352" s="22"/>
       <c r="N352" s="2"/>
-      <c r="O352" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P352" s="2" t="s">
-        <v>3795</v>
-      </c>
+      <c r="O352" s="2"/>
+      <c r="P352" s="2"/>
       <c r="Q352" s="2"/>
       <c r="R352" s="2"/>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>228</v>
       </c>
@@ -27613,7 +27689,7 @@
         <v>3816</v>
       </c>
       <c r="I353" s="2" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="J353" s="2" t="s">
         <v>3945</v>
@@ -27627,16 +27703,12 @@
       </c>
       <c r="M353" s="22"/>
       <c r="N353" s="2"/>
-      <c r="O353" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P353" s="2" t="s">
-        <v>3795</v>
-      </c>
+      <c r="O353" s="2"/>
+      <c r="P353" s="2"/>
       <c r="Q353" s="2"/>
       <c r="R353" s="2"/>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>229</v>
       </c>
@@ -27660,7 +27732,7 @@
         <v>3816</v>
       </c>
       <c r="I354" s="2" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="J354" s="2" t="s">
         <v>3945</v>
@@ -27674,16 +27746,12 @@
       </c>
       <c r="M354" s="22"/>
       <c r="N354" s="2"/>
-      <c r="O354" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P354" s="2" t="s">
-        <v>3795</v>
-      </c>
+      <c r="O354" s="2"/>
+      <c r="P354" s="2"/>
       <c r="Q354" s="2"/>
       <c r="R354" s="2"/>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>230</v>
       </c>
@@ -27707,7 +27775,7 @@
         <v>3816</v>
       </c>
       <c r="I355" s="2" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="J355" s="2" t="s">
         <v>3945</v>
@@ -27721,16 +27789,12 @@
       </c>
       <c r="M355" s="22"/>
       <c r="N355" s="2"/>
-      <c r="O355" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P355" s="2" t="s">
-        <v>3795</v>
-      </c>
+      <c r="O355" s="2"/>
+      <c r="P355" s="2"/>
       <c r="Q355" s="2"/>
       <c r="R355" s="2"/>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>231</v>
       </c>
@@ -27754,7 +27818,7 @@
         <v>3816</v>
       </c>
       <c r="I356" s="2" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="J356" s="2" t="s">
         <v>3945</v>
@@ -27768,16 +27832,12 @@
       </c>
       <c r="M356" s="22"/>
       <c r="N356" s="2"/>
-      <c r="O356" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P356" s="2" t="s">
-        <v>3795</v>
-      </c>
+      <c r="O356" s="2"/>
+      <c r="P356" s="2"/>
       <c r="Q356" s="2"/>
       <c r="R356" s="2"/>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>232</v>
       </c>
@@ -27801,7 +27861,7 @@
         <v>3816</v>
       </c>
       <c r="I357" s="2" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="J357" s="2" t="s">
         <v>3945</v>
@@ -27815,16 +27875,12 @@
       </c>
       <c r="M357" s="22"/>
       <c r="N357" s="2"/>
-      <c r="O357" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P357" s="2" t="s">
-        <v>3795</v>
-      </c>
+      <c r="O357" s="2"/>
+      <c r="P357" s="2"/>
       <c r="Q357" s="2"/>
       <c r="R357" s="2"/>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>233</v>
       </c>
@@ -27848,7 +27904,7 @@
         <v>3816</v>
       </c>
       <c r="I358" s="2" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="J358" s="2" t="s">
         <v>3945</v>
@@ -27862,16 +27918,12 @@
       </c>
       <c r="M358" s="22"/>
       <c r="N358" s="2"/>
-      <c r="O358" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P358" s="2" t="s">
-        <v>3795</v>
-      </c>
+      <c r="O358" s="2"/>
+      <c r="P358" s="2"/>
       <c r="Q358" s="2"/>
       <c r="R358" s="2"/>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>234</v>
       </c>
@@ -27895,7 +27947,7 @@
         <v>3816</v>
       </c>
       <c r="I359" s="2" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="J359" s="2" t="s">
         <v>3945</v>
@@ -27909,16 +27961,12 @@
       </c>
       <c r="M359" s="22"/>
       <c r="N359" s="2"/>
-      <c r="O359" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P359" s="2" t="s">
-        <v>3795</v>
-      </c>
+      <c r="O359" s="2"/>
+      <c r="P359" s="2"/>
       <c r="Q359" s="2"/>
       <c r="R359" s="2"/>
     </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>235</v>
       </c>
@@ -27942,7 +27990,7 @@
         <v>3816</v>
       </c>
       <c r="I360" s="2" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="J360" s="2" t="s">
         <v>3945</v>
@@ -27956,16 +28004,12 @@
       </c>
       <c r="M360" s="22"/>
       <c r="N360" s="2"/>
-      <c r="O360" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P360" s="2" t="s">
-        <v>3795</v>
-      </c>
+      <c r="O360" s="2"/>
+      <c r="P360" s="2"/>
       <c r="Q360" s="2"/>
       <c r="R360" s="2"/>
     </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>236</v>
       </c>
@@ -27989,7 +28033,7 @@
         <v>3816</v>
       </c>
       <c r="I361" s="2" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="J361" s="2" t="s">
         <v>3945</v>
@@ -28003,16 +28047,12 @@
       </c>
       <c r="M361" s="22"/>
       <c r="N361" s="2"/>
-      <c r="O361" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P361" s="2" t="s">
-        <v>3795</v>
-      </c>
+      <c r="O361" s="2"/>
+      <c r="P361" s="2"/>
       <c r="Q361" s="2"/>
       <c r="R361" s="2"/>
     </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>237</v>
       </c>
@@ -28036,7 +28076,7 @@
         <v>3816</v>
       </c>
       <c r="I362" s="2" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="J362" s="2" t="s">
         <v>3945</v>
@@ -28050,16 +28090,12 @@
       </c>
       <c r="M362" s="22"/>
       <c r="N362" s="2"/>
-      <c r="O362" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P362" s="2" t="s">
-        <v>3795</v>
-      </c>
+      <c r="O362" s="2"/>
+      <c r="P362" s="2"/>
       <c r="Q362" s="2"/>
       <c r="R362" s="2"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>238</v>
       </c>
@@ -28087,16 +28123,21 @@
         <v>date</v>
       </c>
       <c r="L363" s="22" t="s">
-        <v>650</v>
+        <v>4038</v>
       </c>
       <c r="M363" s="22"/>
-      <c r="N363" s="2"/>
+      <c r="N363" s="2" t="s">
+        <v>3832</v>
+      </c>
       <c r="O363" s="2"/>
       <c r="P363" s="2"/>
       <c r="Q363" s="2"/>
       <c r="R363" s="2"/>
-    </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S363" t="s">
+        <v>4039</v>
+      </c>
+    </row>
+    <row r="364" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>239</v>
       </c>
@@ -28120,7 +28161,7 @@
         <v>3816</v>
       </c>
       <c r="I364" s="2" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
       <c r="J364" s="2" t="s">
         <v>3945</v>
@@ -28134,16 +28175,12 @@
       </c>
       <c r="M364" s="22"/>
       <c r="N364" s="2"/>
-      <c r="O364" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P364" s="2" t="s">
-        <v>3763</v>
-      </c>
+      <c r="O364" s="2"/>
+      <c r="P364" s="2"/>
       <c r="Q364" s="2"/>
       <c r="R364" s="2"/>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>240</v>
       </c>
@@ -28167,7 +28204,7 @@
         <v>3816</v>
       </c>
       <c r="I365" s="2" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
       <c r="J365" s="2" t="s">
         <v>3945</v>
@@ -28181,16 +28218,12 @@
       </c>
       <c r="M365" s="22"/>
       <c r="N365" s="2"/>
-      <c r="O365" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P365" s="2" t="s">
-        <v>3763</v>
-      </c>
+      <c r="O365" s="2"/>
+      <c r="P365" s="2"/>
       <c r="Q365" s="2"/>
       <c r="R365" s="2"/>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>241</v>
       </c>
@@ -28214,7 +28247,7 @@
         <v>3816</v>
       </c>
       <c r="I366" s="2" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
       <c r="J366" s="2" t="s">
         <v>3945</v>
@@ -28228,16 +28261,12 @@
       </c>
       <c r="M366" s="22"/>
       <c r="N366" s="2"/>
-      <c r="O366" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P366" s="2" t="s">
-        <v>3763</v>
-      </c>
+      <c r="O366" s="2"/>
+      <c r="P366" s="2"/>
       <c r="Q366" s="2"/>
       <c r="R366" s="2"/>
     </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>242</v>
       </c>
@@ -28261,7 +28290,7 @@
         <v>3816</v>
       </c>
       <c r="I367" s="2" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
       <c r="J367" s="2" t="s">
         <v>3945</v>
@@ -28275,16 +28304,12 @@
       </c>
       <c r="M367" s="22"/>
       <c r="N367" s="2"/>
-      <c r="O367" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P367" s="2" t="s">
-        <v>3763</v>
-      </c>
+      <c r="O367" s="2"/>
+      <c r="P367" s="2"/>
       <c r="Q367" s="2"/>
       <c r="R367" s="2"/>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>243</v>
       </c>
@@ -28308,7 +28333,7 @@
         <v>3816</v>
       </c>
       <c r="I368" s="2" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
       <c r="J368" s="2" t="s">
         <v>3945</v>
@@ -28322,12 +28347,8 @@
       </c>
       <c r="M368" s="22"/>
       <c r="N368" s="2"/>
-      <c r="O368" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P368" s="2" t="s">
-        <v>3763</v>
-      </c>
+      <c r="O368" s="2"/>
+      <c r="P368" s="2"/>
       <c r="Q368" s="2"/>
       <c r="R368" s="2"/>
     </row>
@@ -28355,7 +28376,7 @@
         <v>3816</v>
       </c>
       <c r="I369" s="2" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
       <c r="J369" s="2" t="s">
         <v>3945</v>
@@ -28369,12 +28390,8 @@
       </c>
       <c r="M369" s="22"/>
       <c r="N369" s="2"/>
-      <c r="O369" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P369" s="2" t="s">
-        <v>3763</v>
-      </c>
+      <c r="O369" s="2"/>
+      <c r="P369" s="2"/>
       <c r="Q369" s="2"/>
       <c r="R369" s="2"/>
     </row>
@@ -28402,7 +28419,7 @@
         <v>3816</v>
       </c>
       <c r="I370" s="2" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
       <c r="J370" s="2" t="s">
         <v>3945</v>
@@ -28416,12 +28433,8 @@
       </c>
       <c r="M370" s="22"/>
       <c r="N370" s="2"/>
-      <c r="O370" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P370" s="2" t="s">
-        <v>3763</v>
-      </c>
+      <c r="O370" s="2"/>
+      <c r="P370" s="2"/>
       <c r="Q370" s="2"/>
       <c r="R370" s="2"/>
     </row>
@@ -28449,7 +28462,7 @@
         <v>3816</v>
       </c>
       <c r="I371" s="2" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
       <c r="J371" s="2" t="s">
         <v>3945</v>
@@ -28463,12 +28476,8 @@
       </c>
       <c r="M371" s="22"/>
       <c r="N371" s="2"/>
-      <c r="O371" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P371" s="2" t="s">
-        <v>3763</v>
-      </c>
+      <c r="O371" s="2"/>
+      <c r="P371" s="2"/>
       <c r="Q371" s="2"/>
       <c r="R371" s="2"/>
     </row>
@@ -28496,7 +28505,7 @@
         <v>3816</v>
       </c>
       <c r="I372" s="2" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
       <c r="J372" s="2" t="s">
         <v>3945</v>
@@ -28510,12 +28519,8 @@
       </c>
       <c r="M372" s="22"/>
       <c r="N372" s="2"/>
-      <c r="O372" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P372" s="2" t="s">
-        <v>3763</v>
-      </c>
+      <c r="O372" s="2"/>
+      <c r="P372" s="2"/>
       <c r="Q372" s="2"/>
       <c r="R372" s="2"/>
     </row>
@@ -28543,7 +28548,7 @@
         <v>3816</v>
       </c>
       <c r="I373" s="2" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
       <c r="J373" s="2" t="s">
         <v>3945</v>
@@ -28557,12 +28562,8 @@
       </c>
       <c r="M373" s="22"/>
       <c r="N373" s="2"/>
-      <c r="O373" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P373" s="2" t="s">
-        <v>3763</v>
-      </c>
+      <c r="O373" s="2"/>
+      <c r="P373" s="2"/>
       <c r="Q373" s="2"/>
       <c r="R373" s="2"/>
     </row>
@@ -28590,7 +28591,7 @@
         <v>3816</v>
       </c>
       <c r="I374" s="2" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
       <c r="J374" s="2" t="s">
         <v>3945</v>
@@ -28604,12 +28605,8 @@
       </c>
       <c r="M374" s="22"/>
       <c r="N374" s="2"/>
-      <c r="O374" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P374" s="2" t="s">
-        <v>3763</v>
-      </c>
+      <c r="O374" s="2"/>
+      <c r="P374" s="2"/>
       <c r="Q374" s="2"/>
       <c r="R374" s="2"/>
     </row>
@@ -28637,7 +28634,7 @@
         <v>3816</v>
       </c>
       <c r="I375" s="2" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
       <c r="J375" s="2" t="s">
         <v>3945</v>
@@ -28651,12 +28648,8 @@
       </c>
       <c r="M375" s="22"/>
       <c r="N375" s="2"/>
-      <c r="O375" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P375" s="2" t="s">
-        <v>3763</v>
-      </c>
+      <c r="O375" s="2"/>
+      <c r="P375" s="2"/>
       <c r="Q375" s="2"/>
       <c r="R375" s="2"/>
     </row>
@@ -28684,7 +28677,7 @@
         <v>3816</v>
       </c>
       <c r="I376" s="2" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
       <c r="J376" s="2" t="s">
         <v>3945</v>
@@ -28698,12 +28691,8 @@
       </c>
       <c r="M376" s="22"/>
       <c r="N376" s="2"/>
-      <c r="O376" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P376" s="2" t="s">
-        <v>3763</v>
-      </c>
+      <c r="O376" s="2"/>
+      <c r="P376" s="2"/>
       <c r="Q376" s="2"/>
       <c r="R376" s="2"/>
     </row>
@@ -28731,7 +28720,7 @@
         <v>3816</v>
       </c>
       <c r="I377" s="2" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
       <c r="J377" s="2" t="s">
         <v>3945</v>
@@ -28745,12 +28734,8 @@
       </c>
       <c r="M377" s="22"/>
       <c r="N377" s="2"/>
-      <c r="O377" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P377" s="2" t="s">
-        <v>3763</v>
-      </c>
+      <c r="O377" s="2"/>
+      <c r="P377" s="2"/>
       <c r="Q377" s="2"/>
       <c r="R377" s="2"/>
     </row>
@@ -28778,7 +28763,7 @@
         <v>3816</v>
       </c>
       <c r="I378" s="2" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
       <c r="J378" s="2" t="s">
         <v>3945</v>
@@ -28792,12 +28777,8 @@
       </c>
       <c r="M378" s="22"/>
       <c r="N378" s="2"/>
-      <c r="O378" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P378" s="2" t="s">
-        <v>3763</v>
-      </c>
+      <c r="O378" s="2"/>
+      <c r="P378" s="2"/>
       <c r="Q378" s="2"/>
       <c r="R378" s="2"/>
     </row>
@@ -28825,7 +28806,7 @@
         <v>3816</v>
       </c>
       <c r="I379" s="2" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
       <c r="J379" s="2" t="s">
         <v>3945</v>
@@ -28839,12 +28820,8 @@
       </c>
       <c r="M379" s="22"/>
       <c r="N379" s="2"/>
-      <c r="O379" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P379" s="2" t="s">
-        <v>3763</v>
-      </c>
+      <c r="O379" s="2"/>
+      <c r="P379" s="2"/>
       <c r="Q379" s="2"/>
       <c r="R379" s="2"/>
     </row>
@@ -28878,7 +28855,7 @@
         <v>string</v>
       </c>
       <c r="L380" s="22" t="s">
-        <v>667</v>
+        <v>4040</v>
       </c>
       <c r="M380" s="22"/>
       <c r="N380" s="2"/>
@@ -28917,7 +28894,7 @@
         <v>string</v>
       </c>
       <c r="L381" s="22" t="s">
-        <v>670</v>
+        <v>4041</v>
       </c>
       <c r="M381" s="22"/>
       <c r="N381" s="2"/>
@@ -28956,7 +28933,7 @@
         <v>boolean</v>
       </c>
       <c r="L382" s="22" t="s">
-        <v>673</v>
+        <v>4042</v>
       </c>
       <c r="M382" s="22"/>
       <c r="N382" s="2"/>
@@ -28993,7 +28970,7 @@
         <v>date</v>
       </c>
       <c r="L383" s="22" t="s">
-        <v>675</v>
+        <v>4043</v>
       </c>
       <c r="M383" s="22"/>
       <c r="N383" s="2"/>
@@ -29212,7 +29189,9 @@
       <c r="H389" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I389" s="2"/>
+      <c r="I389" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J389" s="2" t="s">
         <v>3945</v>
       </c>
@@ -29220,17 +29199,13 @@
         <f t="shared" si="6"/>
         <v>string</v>
       </c>
-      <c r="L389" s="22" t="s">
+      <c r="L389" s="2" t="s">
         <v>3822</v>
       </c>
-      <c r="M389" s="22"/>
+      <c r="M389" s="2"/>
       <c r="N389" s="2"/>
-      <c r="O389" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P389" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O389" s="2"/>
+      <c r="P389" s="2"/>
       <c r="Q389" s="2"/>
       <c r="R389" s="2"/>
     </row>
@@ -29257,7 +29232,9 @@
       <c r="H390" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I390" s="2"/>
+      <c r="I390" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J390" s="2" t="s">
         <v>3945</v>
       </c>
@@ -29265,17 +29242,13 @@
         <f t="shared" si="6"/>
         <v>string</v>
       </c>
-      <c r="L390" s="22" t="s">
+      <c r="L390" s="2" t="s">
         <v>3813</v>
       </c>
-      <c r="M390" s="22"/>
+      <c r="M390" s="2"/>
       <c r="N390" s="2"/>
-      <c r="O390" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P390" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O390" s="2"/>
+      <c r="P390" s="2"/>
       <c r="Q390" s="2"/>
       <c r="R390" s="2"/>
     </row>
@@ -29302,7 +29275,9 @@
       <c r="H391" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I391" s="2"/>
+      <c r="I391" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J391" s="2" t="s">
         <v>3945</v>
       </c>
@@ -29310,17 +29285,13 @@
         <f t="shared" si="6"/>
         <v>string</v>
       </c>
-      <c r="L391" s="22" t="s">
+      <c r="L391" s="2" t="s">
         <v>3814</v>
       </c>
-      <c r="M391" s="22"/>
+      <c r="M391" s="2"/>
       <c r="N391" s="2"/>
-      <c r="O391" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P391" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O391" s="2"/>
+      <c r="P391" s="2"/>
       <c r="Q391" s="2"/>
       <c r="R391" s="2"/>
     </row>
@@ -29347,7 +29318,9 @@
       <c r="H392" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I392" s="2"/>
+      <c r="I392" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J392" s="2" t="s">
         <v>3945</v>
       </c>
@@ -29355,17 +29328,13 @@
         <f t="shared" si="6"/>
         <v>number</v>
       </c>
-      <c r="L392" s="22" t="s">
+      <c r="L392" s="2" t="s">
         <v>3815</v>
       </c>
-      <c r="M392" s="22"/>
+      <c r="M392" s="2"/>
       <c r="N392" s="2"/>
-      <c r="O392" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P392" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O392" s="2"/>
+      <c r="P392" s="2"/>
       <c r="Q392" s="2"/>
       <c r="R392" s="2"/>
     </row>
@@ -29392,7 +29361,9 @@
       <c r="H393" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I393" s="2"/>
+      <c r="I393" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J393" s="2" t="s">
         <v>3945</v>
       </c>
@@ -29400,17 +29371,13 @@
         <f t="shared" si="6"/>
         <v>string</v>
       </c>
-      <c r="L393" s="22" t="s">
+      <c r="L393" s="2" t="s">
         <v>3822</v>
       </c>
-      <c r="M393" s="22"/>
+      <c r="M393" s="2"/>
       <c r="N393" s="2"/>
-      <c r="O393" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P393" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O393" s="2"/>
+      <c r="P393" s="2"/>
       <c r="Q393" s="2"/>
       <c r="R393" s="2"/>
     </row>
@@ -29437,7 +29404,9 @@
       <c r="H394" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I394" s="2"/>
+      <c r="I394" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J394" s="2" t="s">
         <v>3945</v>
       </c>
@@ -29445,17 +29414,13 @@
         <f t="shared" si="6"/>
         <v>string</v>
       </c>
-      <c r="L394" s="22" t="s">
+      <c r="L394" s="2" t="s">
         <v>3813</v>
       </c>
-      <c r="M394" s="22"/>
+      <c r="M394" s="2"/>
       <c r="N394" s="2"/>
-      <c r="O394" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P394" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O394" s="2"/>
+      <c r="P394" s="2"/>
       <c r="Q394" s="2"/>
       <c r="R394" s="2"/>
     </row>
@@ -29482,7 +29447,9 @@
       <c r="H395" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I395" s="2"/>
+      <c r="I395" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J395" s="2" t="s">
         <v>3945</v>
       </c>
@@ -29490,17 +29457,13 @@
         <f t="shared" si="6"/>
         <v>string</v>
       </c>
-      <c r="L395" s="22" t="s">
+      <c r="L395" s="2" t="s">
         <v>3814</v>
       </c>
-      <c r="M395" s="22"/>
+      <c r="M395" s="2"/>
       <c r="N395" s="2"/>
-      <c r="O395" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P395" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O395" s="2"/>
+      <c r="P395" s="2"/>
       <c r="Q395" s="2"/>
       <c r="R395" s="2"/>
     </row>
@@ -29527,7 +29490,9 @@
       <c r="H396" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I396" s="2"/>
+      <c r="I396" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J396" s="2" t="s">
         <v>3945</v>
       </c>
@@ -29535,17 +29500,13 @@
         <f t="shared" si="6"/>
         <v>number</v>
       </c>
-      <c r="L396" s="22" t="s">
+      <c r="L396" s="2" t="s">
         <v>3815</v>
       </c>
-      <c r="M396" s="22"/>
+      <c r="M396" s="2"/>
       <c r="N396" s="2"/>
-      <c r="O396" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P396" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O396" s="2"/>
+      <c r="P396" s="2"/>
       <c r="Q396" s="2"/>
       <c r="R396" s="2"/>
     </row>
@@ -29572,7 +29533,9 @@
       <c r="H397" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I397" s="2"/>
+      <c r="I397" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J397" s="2" t="s">
         <v>3945</v>
       </c>
@@ -29580,17 +29543,13 @@
         <f t="shared" si="6"/>
         <v>string</v>
       </c>
-      <c r="L397" s="22" t="s">
+      <c r="L397" s="2" t="s">
         <v>3822</v>
       </c>
-      <c r="M397" s="22"/>
+      <c r="M397" s="2"/>
       <c r="N397" s="2"/>
-      <c r="O397" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P397" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O397" s="2"/>
+      <c r="P397" s="2"/>
       <c r="Q397" s="2"/>
       <c r="R397" s="2"/>
     </row>
@@ -29617,7 +29576,9 @@
       <c r="H398" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I398" s="2"/>
+      <c r="I398" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J398" s="2" t="s">
         <v>3945</v>
       </c>
@@ -29625,17 +29586,13 @@
         <f t="shared" si="6"/>
         <v>string</v>
       </c>
-      <c r="L398" s="22" t="s">
+      <c r="L398" s="2" t="s">
         <v>3813</v>
       </c>
-      <c r="M398" s="22"/>
+      <c r="M398" s="2"/>
       <c r="N398" s="2"/>
-      <c r="O398" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P398" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O398" s="2"/>
+      <c r="P398" s="2"/>
       <c r="Q398" s="2"/>
       <c r="R398" s="2"/>
     </row>
@@ -29662,7 +29619,9 @@
       <c r="H399" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I399" s="2"/>
+      <c r="I399" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J399" s="2" t="s">
         <v>3945</v>
       </c>
@@ -29670,17 +29629,13 @@
         <f t="shared" si="6"/>
         <v>string</v>
       </c>
-      <c r="L399" s="22" t="s">
+      <c r="L399" s="2" t="s">
         <v>3814</v>
       </c>
-      <c r="M399" s="22"/>
+      <c r="M399" s="2"/>
       <c r="N399" s="2"/>
-      <c r="O399" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P399" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O399" s="2"/>
+      <c r="P399" s="2"/>
       <c r="Q399" s="2"/>
       <c r="R399" s="2"/>
     </row>
@@ -29707,7 +29662,9 @@
       <c r="H400" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I400" s="2"/>
+      <c r="I400" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J400" s="2" t="s">
         <v>3945</v>
       </c>
@@ -29715,17 +29672,13 @@
         <f t="shared" si="6"/>
         <v>number</v>
       </c>
-      <c r="L400" s="22" t="s">
+      <c r="L400" s="2" t="s">
         <v>3815</v>
       </c>
-      <c r="M400" s="22"/>
+      <c r="M400" s="2"/>
       <c r="N400" s="2"/>
-      <c r="O400" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P400" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O400" s="2"/>
+      <c r="P400" s="2"/>
       <c r="Q400" s="2"/>
       <c r="R400" s="2"/>
     </row>
@@ -29752,7 +29705,9 @@
       <c r="H401" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I401" s="2"/>
+      <c r="I401" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J401" s="2" t="s">
         <v>3945</v>
       </c>
@@ -29760,17 +29715,13 @@
         <f t="shared" si="6"/>
         <v>string</v>
       </c>
-      <c r="L401" s="22" t="s">
+      <c r="L401" s="2" t="s">
         <v>3822</v>
       </c>
-      <c r="M401" s="22"/>
+      <c r="M401" s="2"/>
       <c r="N401" s="2"/>
-      <c r="O401" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P401" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O401" s="2"/>
+      <c r="P401" s="2"/>
       <c r="Q401" s="2"/>
       <c r="R401" s="2"/>
     </row>
@@ -29797,7 +29748,9 @@
       <c r="H402" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I402" s="2"/>
+      <c r="I402" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J402" s="2" t="s">
         <v>3945</v>
       </c>
@@ -29805,17 +29758,13 @@
         <f t="shared" si="6"/>
         <v>string</v>
       </c>
-      <c r="L402" s="22" t="s">
+      <c r="L402" s="2" t="s">
         <v>3813</v>
       </c>
-      <c r="M402" s="22"/>
+      <c r="M402" s="2"/>
       <c r="N402" s="2"/>
-      <c r="O402" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P402" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O402" s="2"/>
+      <c r="P402" s="2"/>
       <c r="Q402" s="2"/>
       <c r="R402" s="2"/>
     </row>
@@ -29842,7 +29791,9 @@
       <c r="H403" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I403" s="2"/>
+      <c r="I403" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J403" s="2" t="s">
         <v>3945</v>
       </c>
@@ -29850,17 +29801,13 @@
         <f t="shared" si="6"/>
         <v>string</v>
       </c>
-      <c r="L403" s="22" t="s">
+      <c r="L403" s="2" t="s">
         <v>3814</v>
       </c>
-      <c r="M403" s="22"/>
+      <c r="M403" s="2"/>
       <c r="N403" s="2"/>
-      <c r="O403" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P403" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O403" s="2"/>
+      <c r="P403" s="2"/>
       <c r="Q403" s="2"/>
       <c r="R403" s="2"/>
     </row>
@@ -29887,7 +29834,9 @@
       <c r="H404" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I404" s="2"/>
+      <c r="I404" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J404" s="2" t="s">
         <v>3945</v>
       </c>
@@ -29895,17 +29844,13 @@
         <f t="shared" si="6"/>
         <v>number</v>
       </c>
-      <c r="L404" s="22" t="s">
+      <c r="L404" s="2" t="s">
         <v>3815</v>
       </c>
-      <c r="M404" s="22"/>
+      <c r="M404" s="2"/>
       <c r="N404" s="2"/>
-      <c r="O404" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P404" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O404" s="2"/>
+      <c r="P404" s="2"/>
       <c r="Q404" s="2"/>
       <c r="R404" s="2"/>
     </row>
@@ -29932,7 +29877,9 @@
       <c r="H405" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I405" s="2"/>
+      <c r="I405" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J405" s="2" t="s">
         <v>3945</v>
       </c>
@@ -29940,17 +29887,13 @@
         <f t="shared" si="6"/>
         <v>string</v>
       </c>
-      <c r="L405" s="22" t="s">
+      <c r="L405" s="2" t="s">
         <v>3822</v>
       </c>
-      <c r="M405" s="22"/>
+      <c r="M405" s="2"/>
       <c r="N405" s="2"/>
-      <c r="O405" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P405" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O405" s="2"/>
+      <c r="P405" s="2"/>
       <c r="Q405" s="2"/>
       <c r="R405" s="2"/>
     </row>
@@ -29977,7 +29920,9 @@
       <c r="H406" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I406" s="2"/>
+      <c r="I406" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J406" s="2" t="s">
         <v>3945</v>
       </c>
@@ -29985,17 +29930,13 @@
         <f t="shared" si="6"/>
         <v>string</v>
       </c>
-      <c r="L406" s="22" t="s">
+      <c r="L406" s="2" t="s">
         <v>3813</v>
       </c>
-      <c r="M406" s="22"/>
+      <c r="M406" s="2"/>
       <c r="N406" s="2"/>
-      <c r="O406" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P406" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O406" s="2"/>
+      <c r="P406" s="2"/>
       <c r="Q406" s="2"/>
       <c r="R406" s="2"/>
     </row>
@@ -30022,7 +29963,9 @@
       <c r="H407" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I407" s="2"/>
+      <c r="I407" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J407" s="2" t="s">
         <v>3945</v>
       </c>
@@ -30030,17 +29973,13 @@
         <f t="shared" si="6"/>
         <v>string</v>
       </c>
-      <c r="L407" s="22" t="s">
+      <c r="L407" s="2" t="s">
         <v>3814</v>
       </c>
-      <c r="M407" s="22"/>
+      <c r="M407" s="2"/>
       <c r="N407" s="2"/>
-      <c r="O407" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P407" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O407" s="2"/>
+      <c r="P407" s="2"/>
       <c r="Q407" s="2"/>
       <c r="R407" s="2"/>
     </row>
@@ -30067,7 +30006,9 @@
       <c r="H408" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I408" s="2"/>
+      <c r="I408" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J408" s="2" t="s">
         <v>3945</v>
       </c>
@@ -30075,17 +30016,13 @@
         <f t="shared" si="6"/>
         <v>number</v>
       </c>
-      <c r="L408" s="22" t="s">
+      <c r="L408" s="2" t="s">
         <v>3815</v>
       </c>
-      <c r="M408" s="22"/>
+      <c r="M408" s="2"/>
       <c r="N408" s="2"/>
-      <c r="O408" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P408" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O408" s="2"/>
+      <c r="P408" s="2"/>
       <c r="Q408" s="2"/>
       <c r="R408" s="2"/>
     </row>
@@ -30112,7 +30049,9 @@
       <c r="H409" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I409" s="2"/>
+      <c r="I409" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J409" s="2" t="s">
         <v>3945</v>
       </c>
@@ -30120,17 +30059,13 @@
         <f t="shared" si="6"/>
         <v>string</v>
       </c>
-      <c r="L409" s="22" t="s">
+      <c r="L409" s="2" t="s">
         <v>3822</v>
       </c>
-      <c r="M409" s="22"/>
+      <c r="M409" s="2"/>
       <c r="N409" s="2"/>
-      <c r="O409" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P409" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O409" s="2"/>
+      <c r="P409" s="2"/>
       <c r="Q409" s="2"/>
       <c r="R409" s="2"/>
     </row>
@@ -30157,7 +30092,9 @@
       <c r="H410" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I410" s="2"/>
+      <c r="I410" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J410" s="2" t="s">
         <v>3945</v>
       </c>
@@ -30165,17 +30102,13 @@
         <f t="shared" si="6"/>
         <v>string</v>
       </c>
-      <c r="L410" s="22" t="s">
+      <c r="L410" s="2" t="s">
         <v>3813</v>
       </c>
-      <c r="M410" s="22"/>
+      <c r="M410" s="2"/>
       <c r="N410" s="2"/>
-      <c r="O410" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P410" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O410" s="2"/>
+      <c r="P410" s="2"/>
       <c r="Q410" s="2"/>
       <c r="R410" s="2"/>
     </row>
@@ -30202,7 +30135,9 @@
       <c r="H411" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I411" s="2"/>
+      <c r="I411" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J411" s="2" t="s">
         <v>3945</v>
       </c>
@@ -30210,17 +30145,13 @@
         <f t="shared" si="6"/>
         <v>string</v>
       </c>
-      <c r="L411" s="22" t="s">
+      <c r="L411" s="2" t="s">
         <v>3814</v>
       </c>
-      <c r="M411" s="22"/>
+      <c r="M411" s="2"/>
       <c r="N411" s="2"/>
-      <c r="O411" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P411" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O411" s="2"/>
+      <c r="P411" s="2"/>
       <c r="Q411" s="2"/>
       <c r="R411" s="2"/>
     </row>
@@ -30247,7 +30178,9 @@
       <c r="H412" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I412" s="2"/>
+      <c r="I412" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J412" s="2" t="s">
         <v>3945</v>
       </c>
@@ -30255,17 +30188,13 @@
         <f t="shared" si="6"/>
         <v>number</v>
       </c>
-      <c r="L412" s="22" t="s">
+      <c r="L412" s="2" t="s">
         <v>3815</v>
       </c>
-      <c r="M412" s="22"/>
+      <c r="M412" s="2"/>
       <c r="N412" s="2"/>
-      <c r="O412" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P412" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O412" s="2"/>
+      <c r="P412" s="2"/>
       <c r="Q412" s="2"/>
       <c r="R412" s="2"/>
     </row>
@@ -30292,7 +30221,9 @@
       <c r="H413" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I413" s="2"/>
+      <c r="I413" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J413" s="2" t="s">
         <v>3945</v>
       </c>
@@ -30300,17 +30231,13 @@
         <f t="shared" si="6"/>
         <v>string</v>
       </c>
-      <c r="L413" s="22" t="s">
+      <c r="L413" s="2" t="s">
         <v>3822</v>
       </c>
-      <c r="M413" s="22"/>
+      <c r="M413" s="2"/>
       <c r="N413" s="2"/>
-      <c r="O413" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P413" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O413" s="2"/>
+      <c r="P413" s="2"/>
       <c r="Q413" s="2"/>
       <c r="R413" s="2"/>
     </row>
@@ -30337,7 +30264,9 @@
       <c r="H414" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I414" s="2"/>
+      <c r="I414" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J414" s="2" t="s">
         <v>3945</v>
       </c>
@@ -30345,17 +30274,13 @@
         <f t="shared" si="6"/>
         <v>string</v>
       </c>
-      <c r="L414" s="22" t="s">
+      <c r="L414" s="2" t="s">
         <v>3813</v>
       </c>
-      <c r="M414" s="22"/>
+      <c r="M414" s="2"/>
       <c r="N414" s="2"/>
-      <c r="O414" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P414" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O414" s="2"/>
+      <c r="P414" s="2"/>
       <c r="Q414" s="2"/>
       <c r="R414" s="2"/>
     </row>
@@ -30382,7 +30307,9 @@
       <c r="H415" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I415" s="2"/>
+      <c r="I415" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J415" s="2" t="s">
         <v>3945</v>
       </c>
@@ -30390,17 +30317,13 @@
         <f t="shared" si="6"/>
         <v>string</v>
       </c>
-      <c r="L415" s="22" t="s">
+      <c r="L415" s="2" t="s">
         <v>3814</v>
       </c>
-      <c r="M415" s="22"/>
+      <c r="M415" s="2"/>
       <c r="N415" s="2"/>
-      <c r="O415" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P415" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O415" s="2"/>
+      <c r="P415" s="2"/>
       <c r="Q415" s="2"/>
       <c r="R415" s="2"/>
     </row>
@@ -30427,7 +30350,9 @@
       <c r="H416" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I416" s="2"/>
+      <c r="I416" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J416" s="2" t="s">
         <v>3945</v>
       </c>
@@ -30435,17 +30360,13 @@
         <f t="shared" si="6"/>
         <v>number</v>
       </c>
-      <c r="L416" s="22" t="s">
+      <c r="L416" s="2" t="s">
         <v>3815</v>
       </c>
-      <c r="M416" s="22"/>
+      <c r="M416" s="2"/>
       <c r="N416" s="2"/>
-      <c r="O416" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P416" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O416" s="2"/>
+      <c r="P416" s="2"/>
       <c r="Q416" s="2"/>
       <c r="R416" s="2"/>
     </row>
@@ -30472,7 +30393,9 @@
       <c r="H417" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I417" s="2"/>
+      <c r="I417" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J417" s="2" t="s">
         <v>3945</v>
       </c>
@@ -30480,17 +30403,13 @@
         <f t="shared" si="6"/>
         <v>string</v>
       </c>
-      <c r="L417" s="22" t="s">
+      <c r="L417" s="2" t="s">
         <v>3822</v>
       </c>
-      <c r="M417" s="22"/>
+      <c r="M417" s="2"/>
       <c r="N417" s="2"/>
-      <c r="O417" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P417" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O417" s="2"/>
+      <c r="P417" s="2"/>
       <c r="Q417" s="2"/>
       <c r="R417" s="2"/>
     </row>
@@ -30517,7 +30436,9 @@
       <c r="H418" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I418" s="2"/>
+      <c r="I418" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J418" s="2" t="s">
         <v>3945</v>
       </c>
@@ -30525,17 +30446,13 @@
         <f t="shared" si="6"/>
         <v>string</v>
       </c>
-      <c r="L418" s="22" t="s">
+      <c r="L418" s="2" t="s">
         <v>3813</v>
       </c>
-      <c r="M418" s="22"/>
+      <c r="M418" s="2"/>
       <c r="N418" s="2"/>
-      <c r="O418" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P418" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O418" s="2"/>
+      <c r="P418" s="2"/>
       <c r="Q418" s="2"/>
       <c r="R418" s="2"/>
     </row>
@@ -30562,7 +30479,9 @@
       <c r="H419" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I419" s="2"/>
+      <c r="I419" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J419" s="2" t="s">
         <v>3945</v>
       </c>
@@ -30570,17 +30489,13 @@
         <f t="shared" si="6"/>
         <v>string</v>
       </c>
-      <c r="L419" s="22" t="s">
+      <c r="L419" s="2" t="s">
         <v>3814</v>
       </c>
-      <c r="M419" s="22"/>
+      <c r="M419" s="2"/>
       <c r="N419" s="2"/>
-      <c r="O419" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P419" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O419" s="2"/>
+      <c r="P419" s="2"/>
       <c r="Q419" s="2"/>
       <c r="R419" s="2"/>
     </row>
@@ -30607,7 +30522,9 @@
       <c r="H420" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I420" s="2"/>
+      <c r="I420" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J420" s="2" t="s">
         <v>3945</v>
       </c>
@@ -30615,17 +30532,13 @@
         <f t="shared" si="6"/>
         <v>number</v>
       </c>
-      <c r="L420" s="22" t="s">
+      <c r="L420" s="2" t="s">
         <v>3815</v>
       </c>
-      <c r="M420" s="22"/>
+      <c r="M420" s="2"/>
       <c r="N420" s="2"/>
-      <c r="O420" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P420" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O420" s="2"/>
+      <c r="P420" s="2"/>
       <c r="Q420" s="2"/>
       <c r="R420" s="2"/>
     </row>
@@ -30652,7 +30565,9 @@
       <c r="H421" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I421" s="2"/>
+      <c r="I421" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J421" s="2" t="s">
         <v>3945</v>
       </c>
@@ -30660,17 +30575,13 @@
         <f t="shared" si="6"/>
         <v>string</v>
       </c>
-      <c r="L421" s="22" t="s">
+      <c r="L421" s="2" t="s">
         <v>3822</v>
       </c>
-      <c r="M421" s="22"/>
+      <c r="M421" s="2"/>
       <c r="N421" s="2"/>
-      <c r="O421" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P421" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O421" s="2"/>
+      <c r="P421" s="2"/>
       <c r="Q421" s="2"/>
       <c r="R421" s="2"/>
     </row>
@@ -30697,7 +30608,9 @@
       <c r="H422" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I422" s="2"/>
+      <c r="I422" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J422" s="2" t="s">
         <v>3945</v>
       </c>
@@ -30705,17 +30618,13 @@
         <f t="shared" si="6"/>
         <v>string</v>
       </c>
-      <c r="L422" s="22" t="s">
+      <c r="L422" s="2" t="s">
         <v>3813</v>
       </c>
-      <c r="M422" s="22"/>
+      <c r="M422" s="2"/>
       <c r="N422" s="2"/>
-      <c r="O422" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P422" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O422" s="2"/>
+      <c r="P422" s="2"/>
       <c r="Q422" s="2"/>
       <c r="R422" s="2"/>
     </row>
@@ -30742,7 +30651,9 @@
       <c r="H423" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I423" s="2"/>
+      <c r="I423" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J423" s="2" t="s">
         <v>3945</v>
       </c>
@@ -30750,17 +30661,13 @@
         <f t="shared" si="6"/>
         <v>string</v>
       </c>
-      <c r="L423" s="22" t="s">
+      <c r="L423" s="2" t="s">
         <v>3814</v>
       </c>
-      <c r="M423" s="22"/>
+      <c r="M423" s="2"/>
       <c r="N423" s="2"/>
-      <c r="O423" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P423" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O423" s="2"/>
+      <c r="P423" s="2"/>
       <c r="Q423" s="2"/>
       <c r="R423" s="2"/>
     </row>
@@ -30787,7 +30694,9 @@
       <c r="H424" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I424" s="2"/>
+      <c r="I424" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J424" s="2" t="s">
         <v>3945</v>
       </c>
@@ -30795,17 +30704,13 @@
         <f t="shared" si="6"/>
         <v>number</v>
       </c>
-      <c r="L424" s="22" t="s">
+      <c r="L424" s="2" t="s">
         <v>3815</v>
       </c>
-      <c r="M424" s="22"/>
+      <c r="M424" s="2"/>
       <c r="N424" s="2"/>
-      <c r="O424" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P424" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O424" s="2"/>
+      <c r="P424" s="2"/>
       <c r="Q424" s="2"/>
       <c r="R424" s="2"/>
     </row>
@@ -30832,7 +30737,9 @@
       <c r="H425" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I425" s="2"/>
+      <c r="I425" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J425" s="2" t="s">
         <v>3945</v>
       </c>
@@ -30840,17 +30747,13 @@
         <f t="shared" si="6"/>
         <v>string</v>
       </c>
-      <c r="L425" s="22" t="s">
+      <c r="L425" s="2" t="s">
         <v>3822</v>
       </c>
-      <c r="M425" s="22"/>
+      <c r="M425" s="2"/>
       <c r="N425" s="2"/>
-      <c r="O425" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P425" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O425" s="2"/>
+      <c r="P425" s="2"/>
       <c r="Q425" s="2"/>
       <c r="R425" s="2"/>
     </row>
@@ -30877,7 +30780,9 @@
       <c r="H426" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I426" s="2"/>
+      <c r="I426" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J426" s="2" t="s">
         <v>3945</v>
       </c>
@@ -30885,17 +30790,13 @@
         <f t="shared" si="6"/>
         <v>string</v>
       </c>
-      <c r="L426" s="22" t="s">
+      <c r="L426" s="2" t="s">
         <v>3813</v>
       </c>
-      <c r="M426" s="22"/>
+      <c r="M426" s="2"/>
       <c r="N426" s="2"/>
-      <c r="O426" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P426" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O426" s="2"/>
+      <c r="P426" s="2"/>
       <c r="Q426" s="2"/>
       <c r="R426" s="2"/>
     </row>
@@ -30922,7 +30823,9 @@
       <c r="H427" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I427" s="2"/>
+      <c r="I427" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J427" s="2" t="s">
         <v>3945</v>
       </c>
@@ -30930,17 +30833,13 @@
         <f t="shared" si="6"/>
         <v>string</v>
       </c>
-      <c r="L427" s="22" t="s">
+      <c r="L427" s="2" t="s">
         <v>3814</v>
       </c>
-      <c r="M427" s="22"/>
+      <c r="M427" s="2"/>
       <c r="N427" s="2"/>
-      <c r="O427" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P427" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O427" s="2"/>
+      <c r="P427" s="2"/>
       <c r="Q427" s="2"/>
       <c r="R427" s="2"/>
     </row>
@@ -30967,7 +30866,9 @@
       <c r="H428" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I428" s="2"/>
+      <c r="I428" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J428" s="2" t="s">
         <v>3945</v>
       </c>
@@ -30975,17 +30876,13 @@
         <f t="shared" si="6"/>
         <v>number</v>
       </c>
-      <c r="L428" s="22" t="s">
+      <c r="L428" s="2" t="s">
         <v>3815</v>
       </c>
-      <c r="M428" s="22"/>
+      <c r="M428" s="2"/>
       <c r="N428" s="2"/>
-      <c r="O428" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P428" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O428" s="2"/>
+      <c r="P428" s="2"/>
       <c r="Q428" s="2"/>
       <c r="R428" s="2"/>
     </row>
@@ -31012,7 +30909,9 @@
       <c r="H429" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I429" s="2"/>
+      <c r="I429" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J429" s="2" t="s">
         <v>3945</v>
       </c>
@@ -31020,17 +30919,13 @@
         <f t="shared" si="6"/>
         <v>string</v>
       </c>
-      <c r="L429" s="22" t="s">
+      <c r="L429" s="2" t="s">
         <v>3822</v>
       </c>
-      <c r="M429" s="22"/>
+      <c r="M429" s="2"/>
       <c r="N429" s="2"/>
-      <c r="O429" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P429" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O429" s="2"/>
+      <c r="P429" s="2"/>
       <c r="Q429" s="2"/>
       <c r="R429" s="2"/>
     </row>
@@ -31057,7 +30952,9 @@
       <c r="H430" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I430" s="2"/>
+      <c r="I430" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J430" s="2" t="s">
         <v>3945</v>
       </c>
@@ -31065,17 +30962,13 @@
         <f t="shared" si="6"/>
         <v>string</v>
       </c>
-      <c r="L430" s="22" t="s">
+      <c r="L430" s="2" t="s">
         <v>3813</v>
       </c>
-      <c r="M430" s="22"/>
+      <c r="M430" s="2"/>
       <c r="N430" s="2"/>
-      <c r="O430" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P430" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O430" s="2"/>
+      <c r="P430" s="2"/>
       <c r="Q430" s="2"/>
       <c r="R430" s="2"/>
     </row>
@@ -31102,7 +30995,9 @@
       <c r="H431" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I431" s="2"/>
+      <c r="I431" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J431" s="2" t="s">
         <v>3945</v>
       </c>
@@ -31110,17 +31005,13 @@
         <f t="shared" si="6"/>
         <v>string</v>
       </c>
-      <c r="L431" s="22" t="s">
+      <c r="L431" s="2" t="s">
         <v>3814</v>
       </c>
-      <c r="M431" s="22"/>
+      <c r="M431" s="2"/>
       <c r="N431" s="2"/>
-      <c r="O431" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P431" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O431" s="2"/>
+      <c r="P431" s="2"/>
       <c r="Q431" s="2"/>
       <c r="R431" s="2"/>
     </row>
@@ -31147,7 +31038,9 @@
       <c r="H432" s="2" t="s">
         <v>3816</v>
       </c>
-      <c r="I432" s="2"/>
+      <c r="I432" s="2" t="s">
+        <v>4044</v>
+      </c>
       <c r="J432" s="2" t="s">
         <v>3945</v>
       </c>
@@ -31155,17 +31048,13 @@
         <f t="shared" si="6"/>
         <v>number</v>
       </c>
-      <c r="L432" s="22" t="s">
+      <c r="L432" s="2" t="s">
         <v>3815</v>
       </c>
-      <c r="M432" s="22"/>
+      <c r="M432" s="2"/>
       <c r="N432" s="2"/>
-      <c r="O432" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P432" s="2" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O432" s="2"/>
+      <c r="P432" s="2"/>
       <c r="Q432" s="2"/>
       <c r="R432" s="2"/>
     </row>
@@ -75691,24 +75580,24 @@
         <v>1810</v>
       </c>
       <c r="B1" t="s">
+        <v>4001</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4005</v>
+      </c>
+      <c r="D1" t="s">
         <v>4002</v>
       </c>
-      <c r="C1" t="s">
-        <v>4006</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4003</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4004</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4005</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4007</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -75760,7 +75649,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3985</v>
+        <v>3984</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -75805,7 +75694,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>3988</v>
+        <v>3987</v>
       </c>
     </row>
   </sheetData>

--- a/importer/metadata.xlsx
+++ b/importer/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pilou/dev/platyplus/cerberus/importer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26F1DF8-2AAD-404A-8BC0-87305477CB74}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E10719-105E-6944-845D-648892B7D90B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="440" windowWidth="25440" windowHeight="14260" xr2:uid="{5441FEBD-B00D-ED43-B1D0-1B0469BA4F3D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12527" uniqueCount="4045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12523" uniqueCount="4044">
   <si>
     <t>Type</t>
   </si>
@@ -11936,9 +11936,6 @@
   </si>
   <si>
     <t>misc</t>
-  </si>
-  <si>
-    <t>side effect</t>
   </si>
   <si>
     <t>boolean value but not Yes/No? Or calculated value?</t>
@@ -12726,9 +12723,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:S1511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O362" sqref="O342:P362"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H63" sqref="H63:H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12802,13 +12799,13 @@
         <v>3414</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>3973</v>
+        <v>3972</v>
       </c>
       <c r="R1" s="18" t="s">
         <v>1944</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -12847,7 +12844,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -12884,7 +12881,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -12923,7 +12920,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -12962,7 +12959,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -13001,7 +12998,7 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -13040,7 +13037,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -13077,7 +13074,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -13116,7 +13113,7 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -13157,7 +13154,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -13196,7 +13193,7 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -13233,7 +13230,7 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -13272,7 +13269,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -13311,7 +13308,7 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -13350,7 +13347,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -13389,7 +13386,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -13428,7 +13425,7 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
     </row>
-    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -13465,7 +13462,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
     </row>
-    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -13504,7 +13501,7 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
     </row>
-    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -13543,7 +13540,7 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
     </row>
-    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -13582,7 +13579,7 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
     </row>
-    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -13619,7 +13616,7 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
     </row>
-    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -13658,7 +13655,7 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
     </row>
-    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -13697,7 +13694,7 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
     </row>
-    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -13734,7 +13731,7 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
     </row>
-    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -13773,7 +13770,7 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
     </row>
-    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -13810,10 +13807,10 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" t="s">
-        <v>3982</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+        <v>3981</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -13850,7 +13847,7 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
     </row>
-    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -13887,10 +13884,10 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" t="s">
-        <v>3982</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+        <v>3981</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -13929,10 +13926,10 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" t="s">
-        <v>3982</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+        <v>3981</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -13962,7 +13959,7 @@
         <v>boolean</v>
       </c>
       <c r="L31" s="29" t="s">
-        <v>3981</v>
+        <v>3980</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -13971,10 +13968,10 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" t="s">
-        <v>3982</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+        <v>3981</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -14011,7 +14008,7 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
     </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -14056,7 +14053,7 @@
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
     </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -14101,7 +14098,7 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
     </row>
-    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -14146,7 +14143,7 @@
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
     </row>
-    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -14191,7 +14188,7 @@
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
     </row>
-    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -14236,7 +14233,7 @@
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
     </row>
-    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -14281,7 +14278,7 @@
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
     </row>
-    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -14326,7 +14323,7 @@
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
     </row>
-    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -14371,7 +14368,7 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
     </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -14416,7 +14413,7 @@
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
     </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -14461,7 +14458,7 @@
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
     </row>
-    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -14493,14 +14490,14 @@
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="29" t="s">
-        <v>3972</v>
+        <v>3971</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
     </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -14545,7 +14542,7 @@
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
     </row>
-    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -14590,7 +14587,7 @@
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
     </row>
-    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -14635,7 +14632,7 @@
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
     </row>
-    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -14680,7 +14677,7 @@
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
     </row>
-    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -14725,7 +14722,7 @@
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
     </row>
-    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -14770,7 +14767,7 @@
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
     </row>
-    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -14815,7 +14812,7 @@
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
     </row>
-    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -14860,7 +14857,7 @@
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
     </row>
-    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -14905,7 +14902,7 @@
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
     </row>
-    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -14950,7 +14947,7 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
     </row>
-    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -14989,7 +14986,7 @@
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
     </row>
-    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -15025,7 +15022,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -15072,7 +15069,7 @@
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
     </row>
-    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -15119,7 +15116,7 @@
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
     </row>
-    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -15164,7 +15161,7 @@
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
     </row>
-    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -15211,7 +15208,7 @@
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
     </row>
-    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -15248,7 +15245,7 @@
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
     </row>
-    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -15282,17 +15279,17 @@
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="29" t="s">
-        <v>3972</v>
+        <v>3971</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
       <c r="S61" t="s">
-        <v>3968</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+        <v>3967</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -15328,7 +15325,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -15350,9 +15347,7 @@
       <c r="G63" s="15" t="s">
         <v>2293</v>
       </c>
-      <c r="H63" s="2" t="s">
-        <v>3967</v>
-      </c>
+      <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2" t="str">
@@ -15362,16 +15357,16 @@
       <c r="L63" s="2" t="s">
         <v>3800</v>
       </c>
-      <c r="M63" s="2"/>
+      <c r="M63" s="2" t="s">
+        <v>3945</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
-      <c r="P63" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
     </row>
-    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -15393,9 +15388,7 @@
       <c r="G64" s="15" t="s">
         <v>2294</v>
       </c>
-      <c r="H64" s="2" t="s">
-        <v>3967</v>
-      </c>
+      <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2" t="str">
@@ -15405,16 +15398,16 @@
       <c r="L64" s="2" t="s">
         <v>3800</v>
       </c>
-      <c r="M64" s="2"/>
+      <c r="M64" s="2" t="s">
+        <v>3945</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
-      <c r="P64" s="2" t="s">
-        <v>136</v>
-      </c>
+      <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
     </row>
-    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -15436,9 +15429,7 @@
       <c r="G65" s="15" t="s">
         <v>2295</v>
       </c>
-      <c r="H65" s="2" t="s">
-        <v>3967</v>
-      </c>
+      <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2" t="str">
@@ -15448,16 +15439,16 @@
       <c r="L65" s="2" t="s">
         <v>3800</v>
       </c>
-      <c r="M65" s="2"/>
+      <c r="M65" s="2" t="s">
+        <v>3945</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
-      <c r="P65" s="2" t="s">
-        <v>139</v>
-      </c>
+      <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
     </row>
-    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -15477,9 +15468,7 @@
       <c r="G66" s="15" t="s">
         <v>2296</v>
       </c>
-      <c r="H66" s="2" t="s">
-        <v>3967</v>
-      </c>
+      <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2" t="str">
@@ -15489,16 +15478,16 @@
       <c r="L66" s="2" t="s">
         <v>3800</v>
       </c>
-      <c r="M66" s="2"/>
+      <c r="M66" s="2" t="s">
+        <v>3945</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
-      <c r="P66" s="2" t="s">
-        <v>247</v>
-      </c>
+      <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
     </row>
-    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -15528,7 +15517,7 @@
         <v>boolean</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>3980</v>
+        <v>3979</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -15537,7 +15526,7 @@
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
     </row>
-    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -15567,7 +15556,7 @@
         <v>boolean</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>3969</v>
+        <v>3968</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -15576,7 +15565,7 @@
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
     </row>
-    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -15604,7 +15593,7 @@
         <v>number</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>3970</v>
+        <v>3969</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -15613,7 +15602,7 @@
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
     </row>
-    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -15641,7 +15630,7 @@
         <v>number</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>3971</v>
+        <v>3970</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -15650,7 +15639,7 @@
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
     </row>
-    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -15687,7 +15676,7 @@
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
     </row>
-    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -15724,7 +15713,7 @@
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
     </row>
-    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -15761,7 +15750,7 @@
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
     </row>
-    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -15798,7 +15787,7 @@
       <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
     </row>
-    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -15835,7 +15824,7 @@
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
     </row>
-    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -15872,7 +15861,7 @@
       <c r="Q76" s="2"/>
       <c r="R76" s="2"/>
     </row>
-    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -15913,7 +15902,7 @@
       </c>
       <c r="R77" s="2"/>
     </row>
-    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -15954,7 +15943,7 @@
       </c>
       <c r="R78" s="2"/>
     </row>
-    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -15991,7 +15980,7 @@
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
     </row>
-    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -16032,7 +16021,7 @@
       </c>
       <c r="R80" s="2"/>
     </row>
-    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -16069,10 +16058,10 @@
       <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
       <c r="S81" t="s">
-        <v>3982</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+        <v>3981</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -16111,10 +16100,10 @@
       <c r="Q82" s="2"/>
       <c r="R82" s="2"/>
       <c r="S82" t="s">
-        <v>3982</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+        <v>3981</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -16151,10 +16140,10 @@
       <c r="Q83" s="2"/>
       <c r="R83" s="2"/>
       <c r="S83" t="s">
-        <v>3982</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+        <v>3981</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -16184,7 +16173,7 @@
         <v>boolean</v>
       </c>
       <c r="L84" s="29" t="s">
-        <v>3981</v>
+        <v>3980</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -16193,10 +16182,10 @@
       <c r="Q84" s="2"/>
       <c r="R84" s="2"/>
       <c r="S84" t="s">
-        <v>3982</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+        <v>3981</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -16224,7 +16213,7 @@
         <v>string</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>3976</v>
+        <v>3975</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -16233,7 +16222,7 @@
       <c r="Q85" s="2"/>
       <c r="R85" s="2"/>
     </row>
-    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -16263,7 +16252,7 @@
         <v>boolean</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>3977</v>
+        <v>3976</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -16272,7 +16261,7 @@
       <c r="Q86" s="2"/>
       <c r="R86" s="2"/>
     </row>
-    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -16309,7 +16298,7 @@
       <c r="Q87" s="2"/>
       <c r="R87" s="2"/>
     </row>
-    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -16339,7 +16328,7 @@
         <v>boolean</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>3978</v>
+        <v>3977</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -16348,7 +16337,7 @@
       <c r="Q88" s="2"/>
       <c r="R88" s="2"/>
     </row>
-    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -16384,7 +16373,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -16429,7 +16418,7 @@
       <c r="Q90" s="2"/>
       <c r="R90" s="2"/>
     </row>
-    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -16474,7 +16463,7 @@
       <c r="Q91" s="2"/>
       <c r="R91" s="2"/>
     </row>
-    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -16519,7 +16508,7 @@
       <c r="Q92" s="2"/>
       <c r="R92" s="2"/>
     </row>
-    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -16564,7 +16553,7 @@
       <c r="Q93" s="2"/>
       <c r="R93" s="2"/>
     </row>
-    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -16609,7 +16598,7 @@
       <c r="Q94" s="2"/>
       <c r="R94" s="2"/>
     </row>
-    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -16654,7 +16643,7 @@
       <c r="Q95" s="2"/>
       <c r="R95" s="2"/>
     </row>
-    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -16699,7 +16688,7 @@
       <c r="Q96" s="2"/>
       <c r="R96" s="2"/>
     </row>
-    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -16744,7 +16733,7 @@
       <c r="Q97" s="2"/>
       <c r="R97" s="2"/>
     </row>
-    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -16789,7 +16778,7 @@
       <c r="Q98" s="2"/>
       <c r="R98" s="2"/>
     </row>
-    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -16834,7 +16823,7 @@
       <c r="Q99" s="2"/>
       <c r="R99" s="2"/>
     </row>
-    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -16879,7 +16868,7 @@
       <c r="Q100" s="2"/>
       <c r="R100" s="2"/>
     </row>
-    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -16924,7 +16913,7 @@
       <c r="Q101" s="2"/>
       <c r="R101" s="2"/>
     </row>
-    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -16969,7 +16958,7 @@
       <c r="Q102" s="2"/>
       <c r="R102" s="2"/>
     </row>
-    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -17014,7 +17003,7 @@
       <c r="Q103" s="2"/>
       <c r="R103" s="2"/>
     </row>
-    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -17059,7 +17048,7 @@
       <c r="Q104" s="2"/>
       <c r="R104" s="2"/>
     </row>
-    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -17104,7 +17093,7 @@
       <c r="Q105" s="2"/>
       <c r="R105" s="2"/>
     </row>
-    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -17149,7 +17138,7 @@
       <c r="Q106" s="2"/>
       <c r="R106" s="2"/>
     </row>
-    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -17194,7 +17183,7 @@
       <c r="Q107" s="2"/>
       <c r="R107" s="2"/>
     </row>
-    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -17239,7 +17228,7 @@
       <c r="Q108" s="2"/>
       <c r="R108" s="2"/>
     </row>
-    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -17284,7 +17273,7 @@
       <c r="Q109" s="2"/>
       <c r="R109" s="2"/>
     </row>
-    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -17329,7 +17318,7 @@
       <c r="Q110" s="2"/>
       <c r="R110" s="2"/>
     </row>
-    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -17374,7 +17363,7 @@
       <c r="Q111" s="2"/>
       <c r="R111" s="2"/>
     </row>
-    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -17419,7 +17408,7 @@
       <c r="Q112" s="2"/>
       <c r="R112" s="2"/>
     </row>
-    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -17464,7 +17453,7 @@
       <c r="Q113" s="2"/>
       <c r="R113" s="2"/>
     </row>
-    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -17509,7 +17498,7 @@
       <c r="Q114" s="2"/>
       <c r="R114" s="2"/>
     </row>
-    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -17554,7 +17543,7 @@
       <c r="Q115" s="2"/>
       <c r="R115" s="2"/>
     </row>
-    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -17599,7 +17588,7 @@
       <c r="Q116" s="2"/>
       <c r="R116" s="2"/>
     </row>
-    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -17644,7 +17633,7 @@
       <c r="Q117" s="2"/>
       <c r="R117" s="2"/>
     </row>
-    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -17683,7 +17672,7 @@
       <c r="Q118" s="2"/>
       <c r="R118" s="2"/>
     </row>
-    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -17713,7 +17702,7 @@
         <v>boolean</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>3979</v>
+        <v>3978</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -17722,7 +17711,7 @@
       <c r="Q119" s="2"/>
       <c r="R119" s="2"/>
     </row>
-    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -17763,7 +17752,7 @@
       </c>
       <c r="R120" s="2"/>
     </row>
-    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -17791,7 +17780,7 @@
         <v>string</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>3974</v>
+        <v>3973</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -17800,7 +17789,7 @@
       <c r="Q121" s="2"/>
       <c r="R121" s="2"/>
     </row>
-    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -17839,7 +17828,7 @@
       <c r="Q122" s="2"/>
       <c r="R122" s="2"/>
     </row>
-    <row r="123" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -17867,7 +17856,7 @@
         <v>date</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>3975</v>
+        <v>3974</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -17876,7 +17865,7 @@
       <c r="Q123" s="2"/>
       <c r="R123" s="2"/>
     </row>
-    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -17913,7 +17902,7 @@
       <c r="Q124" s="2"/>
       <c r="R124" s="2"/>
     </row>
-    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -17950,7 +17939,7 @@
       <c r="Q125" s="2"/>
       <c r="R125" s="2"/>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>1</v>
       </c>
@@ -17987,7 +17976,7 @@
       <c r="Q126" s="2"/>
       <c r="R126" s="2"/>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>2</v>
       </c>
@@ -18024,7 +18013,7 @@
       <c r="Q127" s="2"/>
       <c r="R127" s="2"/>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>3</v>
       </c>
@@ -18061,7 +18050,7 @@
       <c r="Q128" s="2"/>
       <c r="R128" s="2"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>4</v>
       </c>
@@ -18098,7 +18087,7 @@
       <c r="Q129" s="2"/>
       <c r="R129" s="2"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>5</v>
       </c>
@@ -18137,7 +18126,7 @@
       <c r="Q130" s="2"/>
       <c r="R130" s="2"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>6</v>
       </c>
@@ -18174,7 +18163,7 @@
       <c r="Q131" s="2"/>
       <c r="R131" s="2"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>7</v>
       </c>
@@ -18211,7 +18200,7 @@
       <c r="Q132" s="2"/>
       <c r="R132" s="2"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>8</v>
       </c>
@@ -18248,7 +18237,7 @@
       <c r="Q133" s="2"/>
       <c r="R133" s="2"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>9</v>
       </c>
@@ -18285,7 +18274,7 @@
       <c r="Q134" s="2"/>
       <c r="R134" s="2"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>10</v>
       </c>
@@ -18322,7 +18311,7 @@
       <c r="Q135" s="2"/>
       <c r="R135" s="2"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>11</v>
       </c>
@@ -18361,7 +18350,7 @@
       <c r="Q136" s="2"/>
       <c r="R136" s="2"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>12</v>
       </c>
@@ -18391,7 +18380,7 @@
         <v>boolean</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>3983</v>
+        <v>3982</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
@@ -18400,7 +18389,7 @@
       <c r="Q137" s="2"/>
       <c r="R137" s="2"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>13</v>
       </c>
@@ -18439,7 +18428,7 @@
       <c r="Q138" s="2"/>
       <c r="R138" s="2"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>14</v>
       </c>
@@ -18465,10 +18454,10 @@
       <c r="I139" s="2"/>
       <c r="J139" s="2"/>
       <c r="K139" s="29" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>3993</v>
+        <v>3992</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
@@ -18477,7 +18466,7 @@
       <c r="Q139" s="2"/>
       <c r="R139" s="2"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>15</v>
       </c>
@@ -18507,7 +18496,7 @@
         <v>string</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>3994</v>
+        <v>3993</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -18518,7 +18507,7 @@
       </c>
       <c r="R140" s="2"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>16</v>
       </c>
@@ -18544,10 +18533,10 @@
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
       <c r="K141" s="29" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>3992</v>
+        <v>3991</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -18556,7 +18545,7 @@
       <c r="Q141" s="2"/>
       <c r="R141" s="2"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>17</v>
       </c>
@@ -18586,10 +18575,10 @@
         <v>string</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>3991</v>
+        <v>3990</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>3985</v>
+        <v>3984</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -18597,7 +18586,7 @@
       <c r="Q142" s="2"/>
       <c r="R142" s="2"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>18</v>
       </c>
@@ -18625,10 +18614,10 @@
         <v>string</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>3991</v>
+        <v>3990</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>3985</v>
+        <v>3984</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
@@ -18636,7 +18625,7 @@
       <c r="Q143" s="2"/>
       <c r="R143" s="2"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>19</v>
       </c>
@@ -18662,10 +18651,10 @@
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
       <c r="K144" s="29" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="L144" s="2" t="s">
-        <v>3989</v>
+        <v>3988</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -18674,10 +18663,10 @@
       <c r="Q144" s="2"/>
       <c r="R144" s="2"/>
       <c r="S144" t="s">
-        <v>3988</v>
-      </c>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3987</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>20</v>
       </c>
@@ -18710,7 +18699,7 @@
         <v>3803</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>3985</v>
+        <v>3984</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -18720,10 +18709,10 @@
       </c>
       <c r="R145" s="2"/>
       <c r="S145" t="s">
-        <v>3986</v>
-      </c>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3985</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>21</v>
       </c>
@@ -18757,7 +18746,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>22</v>
       </c>
@@ -18791,7 +18780,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>23</v>
       </c>
@@ -18825,7 +18814,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>24</v>
       </c>
@@ -18859,7 +18848,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>25</v>
       </c>
@@ -18893,7 +18882,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>26</v>
       </c>
@@ -18940,10 +18929,10 @@
         <v>1945</v>
       </c>
       <c r="S151" t="s">
-        <v>3996</v>
-      </c>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>27</v>
       </c>
@@ -18990,10 +18979,10 @@
         <v>1945</v>
       </c>
       <c r="S152" t="s">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>28</v>
       </c>
@@ -19040,10 +19029,10 @@
         <v>1945</v>
       </c>
       <c r="S153" t="s">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>29</v>
       </c>
@@ -19090,10 +19079,10 @@
         <v>1945</v>
       </c>
       <c r="S154" t="s">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>30</v>
       </c>
@@ -19140,10 +19129,10 @@
         <v>1945</v>
       </c>
       <c r="S155" t="s">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>31</v>
       </c>
@@ -19190,10 +19179,10 @@
         <v>1945</v>
       </c>
       <c r="S156" s="46" t="s">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>32</v>
       </c>
@@ -19240,10 +19229,10 @@
         <v>1945</v>
       </c>
       <c r="S157" s="46" t="s">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>33</v>
       </c>
@@ -19290,10 +19279,10 @@
         <v>1945</v>
       </c>
       <c r="S158" s="46" t="s">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>34</v>
       </c>
@@ -19340,10 +19329,10 @@
         <v>1945</v>
       </c>
       <c r="S159" s="46" t="s">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>35</v>
       </c>
@@ -19390,10 +19379,10 @@
         <v>1945</v>
       </c>
       <c r="S160" s="46" t="s">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>36</v>
       </c>
@@ -19430,7 +19419,7 @@
       <c r="Q161" s="2"/>
       <c r="R161" s="2"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>37</v>
       </c>
@@ -19458,7 +19447,7 @@
         <v>string</v>
       </c>
       <c r="L162" s="2" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="M162" s="2"/>
       <c r="N162" s="2"/>
@@ -19467,7 +19456,7 @@
       <c r="Q162" s="2"/>
       <c r="R162" s="2"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>38</v>
       </c>
@@ -19497,10 +19486,10 @@
         <v>string</v>
       </c>
       <c r="L163" s="2" t="s">
-        <v>3998</v>
+        <v>3997</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>3985</v>
+        <v>3984</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" s="2"/>
@@ -19510,7 +19499,7 @@
       </c>
       <c r="R163" s="2"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>39</v>
       </c>
@@ -19553,10 +19542,10 @@
         <v>1945</v>
       </c>
       <c r="S164" t="s">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>40</v>
       </c>
@@ -19599,10 +19588,10 @@
         <v>1945</v>
       </c>
       <c r="S165" t="s">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>41</v>
       </c>
@@ -19645,10 +19634,10 @@
         <v>1945</v>
       </c>
       <c r="S166" t="s">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>42</v>
       </c>
@@ -19691,10 +19680,10 @@
         <v>1945</v>
       </c>
       <c r="S167" t="s">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>43</v>
       </c>
@@ -19739,10 +19728,10 @@
         <v>1945</v>
       </c>
       <c r="S168" t="s">
-        <v>3999</v>
-      </c>
-    </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>44</v>
       </c>
@@ -19785,10 +19774,10 @@
         <v>1945</v>
       </c>
       <c r="S169" t="s">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>45</v>
       </c>
@@ -19831,10 +19820,10 @@
         <v>1945</v>
       </c>
       <c r="S170" t="s">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>46</v>
       </c>
@@ -19877,10 +19866,10 @@
         <v>1945</v>
       </c>
       <c r="S171" t="s">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>47</v>
       </c>
@@ -19923,10 +19912,10 @@
         <v>1945</v>
       </c>
       <c r="S172" t="s">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>48</v>
       </c>
@@ -19971,10 +19960,10 @@
         <v>1945</v>
       </c>
       <c r="S173" t="s">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>49</v>
       </c>
@@ -20017,10 +20006,10 @@
         <v>1945</v>
       </c>
       <c r="S174" t="s">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>50</v>
       </c>
@@ -20063,10 +20052,10 @@
         <v>1945</v>
       </c>
       <c r="S175" t="s">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>51</v>
       </c>
@@ -20109,10 +20098,10 @@
         <v>1945</v>
       </c>
       <c r="S176" t="s">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>52</v>
       </c>
@@ -20155,10 +20144,10 @@
         <v>1945</v>
       </c>
       <c r="S177" t="s">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>53</v>
       </c>
@@ -20203,10 +20192,10 @@
         <v>1945</v>
       </c>
       <c r="S178" t="s">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>54</v>
       </c>
@@ -20249,10 +20238,10 @@
         <v>1945</v>
       </c>
       <c r="S179" t="s">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>55</v>
       </c>
@@ -20295,10 +20284,10 @@
         <v>1945</v>
       </c>
       <c r="S180" t="s">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>56</v>
       </c>
@@ -20341,10 +20330,10 @@
         <v>1945</v>
       </c>
       <c r="S181" t="s">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>57</v>
       </c>
@@ -20387,10 +20376,10 @@
         <v>1945</v>
       </c>
       <c r="S182" t="s">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>58</v>
       </c>
@@ -20435,10 +20424,10 @@
         <v>1945</v>
       </c>
       <c r="S183" t="s">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>59</v>
       </c>
@@ -20481,10 +20470,10 @@
         <v>1945</v>
       </c>
       <c r="S184" t="s">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>60</v>
       </c>
@@ -20527,10 +20516,10 @@
         <v>1945</v>
       </c>
       <c r="S185" t="s">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>61</v>
       </c>
@@ -20573,10 +20562,10 @@
         <v>1945</v>
       </c>
       <c r="S186" t="s">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>62</v>
       </c>
@@ -20619,10 +20608,10 @@
         <v>1945</v>
       </c>
       <c r="S187" t="s">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>63</v>
       </c>
@@ -20667,10 +20656,10 @@
         <v>1945</v>
       </c>
       <c r="S188" t="s">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>64</v>
       </c>
@@ -20707,7 +20696,7 @@
       <c r="Q189" s="2"/>
       <c r="R189" s="2"/>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>65</v>
       </c>
@@ -20744,7 +20733,7 @@
       <c r="Q190" s="2"/>
       <c r="R190" s="2"/>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>66</v>
       </c>
@@ -20783,7 +20772,7 @@
       <c r="Q191" s="2"/>
       <c r="R191" s="2"/>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>67</v>
       </c>
@@ -20822,7 +20811,7 @@
       <c r="Q192" s="2"/>
       <c r="R192" s="2"/>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>68</v>
       </c>
@@ -20859,7 +20848,7 @@
       <c r="Q193" s="2"/>
       <c r="R193" s="2"/>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>69</v>
       </c>
@@ -20896,7 +20885,7 @@
       <c r="Q194" s="2"/>
       <c r="R194" s="2"/>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>70</v>
       </c>
@@ -20933,7 +20922,7 @@
       <c r="Q195" s="2"/>
       <c r="R195" s="2"/>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>71</v>
       </c>
@@ -20972,7 +20961,7 @@
       <c r="Q196" s="2"/>
       <c r="R196" s="2"/>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>72</v>
       </c>
@@ -21011,7 +21000,7 @@
       <c r="Q197" s="2"/>
       <c r="R197" s="2"/>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>73</v>
       </c>
@@ -21048,7 +21037,7 @@
       <c r="Q198" s="2"/>
       <c r="R198" s="2"/>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>74</v>
       </c>
@@ -21085,7 +21074,7 @@
       <c r="Q199" s="2"/>
       <c r="R199" s="2"/>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>75</v>
       </c>
@@ -21122,7 +21111,7 @@
       <c r="Q200" s="2"/>
       <c r="R200" s="2"/>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>76</v>
       </c>
@@ -21159,7 +21148,7 @@
       <c r="Q201" s="2"/>
       <c r="R201" s="2"/>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>77</v>
       </c>
@@ -21196,7 +21185,7 @@
       <c r="Q202" s="2"/>
       <c r="R202" s="2"/>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>78</v>
       </c>
@@ -21233,7 +21222,7 @@
       <c r="Q203" s="2"/>
       <c r="R203" s="2"/>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>79</v>
       </c>
@@ -21270,7 +21259,7 @@
       <c r="Q204" s="2"/>
       <c r="R204" s="2"/>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>80</v>
       </c>
@@ -21317,7 +21306,7 @@
       <c r="Q205" s="2"/>
       <c r="R205" s="2"/>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>81</v>
       </c>
@@ -21362,7 +21351,7 @@
       <c r="Q206" s="43"/>
       <c r="R206" s="2"/>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>82</v>
       </c>
@@ -21407,7 +21396,7 @@
       <c r="Q207" s="43"/>
       <c r="R207" s="2"/>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>83</v>
       </c>
@@ -21452,7 +21441,7 @@
       <c r="Q208" s="43"/>
       <c r="R208" s="2"/>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>84</v>
       </c>
@@ -21499,7 +21488,7 @@
       <c r="Q209" s="2"/>
       <c r="R209" s="2"/>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>85</v>
       </c>
@@ -21544,7 +21533,7 @@
       <c r="Q210" s="2"/>
       <c r="R210" s="2"/>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>86</v>
       </c>
@@ -21589,7 +21578,7 @@
       <c r="Q211" s="2"/>
       <c r="R211" s="2"/>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>87</v>
       </c>
@@ -21634,7 +21623,7 @@
       <c r="Q212" s="2"/>
       <c r="R212" s="2"/>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>88</v>
       </c>
@@ -21679,7 +21668,7 @@
       <c r="Q213" s="2"/>
       <c r="R213" s="2"/>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>89</v>
       </c>
@@ -21724,7 +21713,7 @@
       <c r="Q214" s="2"/>
       <c r="R214" s="2"/>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>90</v>
       </c>
@@ -21769,7 +21758,7 @@
       <c r="Q215" s="2"/>
       <c r="R215" s="2"/>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>91</v>
       </c>
@@ -21816,7 +21805,7 @@
       <c r="Q216" s="2"/>
       <c r="R216" s="2"/>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>92</v>
       </c>
@@ -21861,7 +21850,7 @@
       <c r="Q217" s="2"/>
       <c r="R217" s="2"/>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>93</v>
       </c>
@@ -21906,7 +21895,7 @@
       <c r="Q218" s="2"/>
       <c r="R218" s="2"/>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>94</v>
       </c>
@@ -21951,7 +21940,7 @@
       <c r="Q219" s="2"/>
       <c r="R219" s="2"/>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>95</v>
       </c>
@@ -21996,7 +21985,7 @@
       <c r="Q220" s="2"/>
       <c r="R220" s="2"/>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>96</v>
       </c>
@@ -22043,7 +22032,7 @@
       <c r="Q221" s="2"/>
       <c r="R221" s="2"/>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>97</v>
       </c>
@@ -22088,7 +22077,7 @@
       <c r="Q222" s="2"/>
       <c r="R222" s="2"/>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>98</v>
       </c>
@@ -22133,7 +22122,7 @@
       <c r="Q223" s="2"/>
       <c r="R223" s="2"/>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>99</v>
       </c>
@@ -22178,7 +22167,7 @@
       <c r="Q224" s="2"/>
       <c r="R224" s="2"/>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>100</v>
       </c>
@@ -22223,7 +22212,7 @@
       <c r="Q225" s="2"/>
       <c r="R225" s="2"/>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>101</v>
       </c>
@@ -22268,7 +22257,7 @@
       <c r="Q226" s="2"/>
       <c r="R226" s="2"/>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>102</v>
       </c>
@@ -22313,7 +22302,7 @@
       <c r="Q227" s="2"/>
       <c r="R227" s="2"/>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>103</v>
       </c>
@@ -22360,7 +22349,7 @@
       <c r="Q228" s="2"/>
       <c r="R228" s="2"/>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>104</v>
       </c>
@@ -22405,7 +22394,7 @@
       <c r="Q229" s="2"/>
       <c r="R229" s="2"/>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>105</v>
       </c>
@@ -22450,7 +22439,7 @@
       <c r="Q230" s="2"/>
       <c r="R230" s="2"/>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>106</v>
       </c>
@@ -22495,7 +22484,7 @@
       <c r="Q231" s="2"/>
       <c r="R231" s="2"/>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>107</v>
       </c>
@@ -22538,7 +22527,7 @@
       <c r="Q232" s="2"/>
       <c r="R232" s="2"/>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>108</v>
       </c>
@@ -22581,7 +22570,7 @@
       <c r="Q233" s="2"/>
       <c r="R233" s="2"/>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>109</v>
       </c>
@@ -22626,7 +22615,7 @@
       <c r="Q234" s="2"/>
       <c r="R234" s="2"/>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>110</v>
       </c>
@@ -22669,7 +22658,7 @@
       <c r="Q235" s="2"/>
       <c r="R235" s="2"/>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>111</v>
       </c>
@@ -22714,7 +22703,7 @@
       <c r="Q236" s="2"/>
       <c r="R236" s="2"/>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>112</v>
       </c>
@@ -22757,7 +22746,7 @@
       <c r="Q237" s="2"/>
       <c r="R237" s="2"/>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>113</v>
       </c>
@@ -22802,7 +22791,7 @@
       <c r="Q238" s="2"/>
       <c r="R238" s="2"/>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>114</v>
       </c>
@@ -22845,7 +22834,7 @@
       <c r="Q239" s="2"/>
       <c r="R239" s="2"/>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>115</v>
       </c>
@@ -22890,7 +22879,7 @@
       <c r="Q240" s="2"/>
       <c r="R240" s="2"/>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>116</v>
       </c>
@@ -22933,7 +22922,7 @@
       <c r="Q241" s="2"/>
       <c r="R241" s="2"/>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>117</v>
       </c>
@@ -22978,7 +22967,7 @@
       <c r="Q242" s="2"/>
       <c r="R242" s="2"/>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>118</v>
       </c>
@@ -23021,7 +23010,7 @@
       <c r="Q243" s="2"/>
       <c r="R243" s="2"/>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>119</v>
       </c>
@@ -23066,7 +23055,7 @@
       <c r="Q244" s="2"/>
       <c r="R244" s="2"/>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>120</v>
       </c>
@@ -23109,7 +23098,7 @@
       <c r="Q245" s="2"/>
       <c r="R245" s="2"/>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>121</v>
       </c>
@@ -23154,7 +23143,7 @@
       <c r="Q246" s="2"/>
       <c r="R246" s="2"/>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>122</v>
       </c>
@@ -23197,7 +23186,7 @@
       <c r="Q247" s="2"/>
       <c r="R247" s="2"/>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>123</v>
       </c>
@@ -23242,7 +23231,7 @@
       <c r="Q248" s="2"/>
       <c r="R248" s="2"/>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>124</v>
       </c>
@@ -23285,7 +23274,7 @@
       <c r="Q249" s="2"/>
       <c r="R249" s="2"/>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>125</v>
       </c>
@@ -23330,7 +23319,7 @@
       <c r="Q250" s="2"/>
       <c r="R250" s="2"/>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>126</v>
       </c>
@@ -23373,7 +23362,7 @@
       <c r="Q251" s="2"/>
       <c r="R251" s="2"/>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>127</v>
       </c>
@@ -23410,7 +23399,7 @@
       <c r="Q252" s="2"/>
       <c r="R252" s="2"/>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>128</v>
       </c>
@@ -23446,10 +23435,10 @@
         <v>1945</v>
       </c>
       <c r="S253" t="s">
-        <v>4028</v>
-      </c>
-    </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.2">
+        <v>4027</v>
+      </c>
+    </row>
+    <row r="254" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>129</v>
       </c>
@@ -23485,7 +23474,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>130</v>
       </c>
@@ -23508,7 +23497,7 @@
         <v>2477</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>4015</v>
+        <v>4014</v>
       </c>
       <c r="I255" s="2"/>
       <c r="J255" s="2" t="s">
@@ -23529,12 +23518,12 @@
         <v>3948</v>
       </c>
       <c r="P255" s="2" t="s">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="Q255" s="2"/>
       <c r="R255" s="2"/>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>131</v>
       </c>
@@ -23557,7 +23546,7 @@
         <v>2478</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>4015</v>
+        <v>4014</v>
       </c>
       <c r="I256" s="2"/>
       <c r="J256" s="2" t="s">
@@ -23578,12 +23567,12 @@
         <v>3948</v>
       </c>
       <c r="P256" s="2" t="s">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="Q256" s="2"/>
       <c r="R256" s="2"/>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>132</v>
       </c>
@@ -23606,7 +23595,7 @@
         <v>2479</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>4015</v>
+        <v>4014</v>
       </c>
       <c r="I257" s="2"/>
       <c r="J257" s="2" t="s">
@@ -23627,12 +23616,12 @@
         <v>3948</v>
       </c>
       <c r="P257" s="2" t="s">
-        <v>4009</v>
+        <v>4008</v>
       </c>
       <c r="Q257" s="2"/>
       <c r="R257" s="2"/>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>133</v>
       </c>
@@ -23655,7 +23644,7 @@
         <v>2480</v>
       </c>
       <c r="H258" s="2" t="s">
-        <v>4015</v>
+        <v>4014</v>
       </c>
       <c r="I258" s="2"/>
       <c r="J258" s="2" t="s">
@@ -23676,12 +23665,12 @@
         <v>3948</v>
       </c>
       <c r="P258" s="2" t="s">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="Q258" s="2"/>
       <c r="R258" s="2"/>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>134</v>
       </c>
@@ -23717,7 +23706,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>135</v>
       </c>
@@ -23740,7 +23729,7 @@
         <v>2482</v>
       </c>
       <c r="H260" s="2" t="s">
-        <v>4015</v>
+        <v>4014</v>
       </c>
       <c r="I260" s="2"/>
       <c r="J260" s="2" t="s">
@@ -23761,12 +23750,12 @@
         <v>3948</v>
       </c>
       <c r="P260" s="2" t="s">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="Q260" s="2"/>
       <c r="R260" s="2"/>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>136</v>
       </c>
@@ -23789,7 +23778,7 @@
         <v>2483</v>
       </c>
       <c r="H261" s="2" t="s">
-        <v>4015</v>
+        <v>4014</v>
       </c>
       <c r="I261" s="2"/>
       <c r="J261" s="2" t="s">
@@ -23810,12 +23799,12 @@
         <v>3948</v>
       </c>
       <c r="P261" s="2" t="s">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="Q261" s="2"/>
       <c r="R261" s="2"/>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>137</v>
       </c>
@@ -23838,7 +23827,7 @@
         <v>2484</v>
       </c>
       <c r="H262" s="2" t="s">
-        <v>4015</v>
+        <v>4014</v>
       </c>
       <c r="I262" s="2"/>
       <c r="J262" s="2" t="s">
@@ -23859,12 +23848,12 @@
         <v>3948</v>
       </c>
       <c r="P262" s="2" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="Q262" s="2"/>
       <c r="R262" s="2"/>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>138</v>
       </c>
@@ -23887,7 +23876,7 @@
         <v>2485</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>4015</v>
+        <v>4014</v>
       </c>
       <c r="I263" s="2"/>
       <c r="J263" s="2" t="s">
@@ -23908,12 +23897,12 @@
         <v>3948</v>
       </c>
       <c r="P263" s="2" t="s">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="Q263" s="2"/>
       <c r="R263" s="2"/>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>139</v>
       </c>
@@ -23943,7 +23932,7 @@
         <v>string</v>
       </c>
       <c r="L264" s="2" t="s">
-        <v>4016</v>
+        <v>4015</v>
       </c>
       <c r="M264" s="2"/>
       <c r="N264" s="2"/>
@@ -23954,7 +23943,7 @@
       </c>
       <c r="R264" s="2"/>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>140</v>
       </c>
@@ -23996,12 +23985,12 @@
         <v>3751</v>
       </c>
       <c r="P265" s="2" t="s">
-        <v>4017</v>
+        <v>4016</v>
       </c>
       <c r="Q265" s="2"/>
       <c r="R265" s="2"/>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>141</v>
       </c>
@@ -24038,15 +24027,15 @@
       <c r="M266" s="2"/>
       <c r="N266" s="2"/>
       <c r="O266" s="2" t="s">
+        <v>4017</v>
+      </c>
+      <c r="P266" s="2" t="s">
         <v>4018</v>
-      </c>
-      <c r="P266" s="2" t="s">
-        <v>4019</v>
       </c>
       <c r="Q266" s="2"/>
       <c r="R266" s="2"/>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>142</v>
       </c>
@@ -24083,15 +24072,15 @@
       <c r="M267" s="2"/>
       <c r="N267" s="2"/>
       <c r="O267" s="2" t="s">
-        <v>4018</v>
+        <v>4017</v>
       </c>
       <c r="P267" s="2" t="s">
-        <v>4020</v>
+        <v>4019</v>
       </c>
       <c r="Q267" s="2"/>
       <c r="R267" s="2"/>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>143</v>
       </c>
@@ -24131,12 +24120,12 @@
         <v>3751</v>
       </c>
       <c r="P268" s="2" t="s">
-        <v>4021</v>
+        <v>4020</v>
       </c>
       <c r="Q268" s="2"/>
       <c r="R268" s="2"/>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>144</v>
       </c>
@@ -24176,12 +24165,12 @@
         <v>3751</v>
       </c>
       <c r="P269" s="2" t="s">
-        <v>4021</v>
+        <v>4020</v>
       </c>
       <c r="Q269" s="2"/>
       <c r="R269" s="2"/>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>145</v>
       </c>
@@ -24221,12 +24210,12 @@
         <v>3751</v>
       </c>
       <c r="P270" s="2" t="s">
-        <v>4021</v>
+        <v>4020</v>
       </c>
       <c r="Q270" s="2"/>
       <c r="R270" s="2"/>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>146</v>
       </c>
@@ -24266,12 +24255,12 @@
         <v>3751</v>
       </c>
       <c r="P271" s="2" t="s">
-        <v>4021</v>
+        <v>4020</v>
       </c>
       <c r="Q271" s="2"/>
       <c r="R271" s="2"/>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>147</v>
       </c>
@@ -24311,12 +24300,12 @@
         <v>3751</v>
       </c>
       <c r="P272" s="2" t="s">
-        <v>4021</v>
+        <v>4020</v>
       </c>
       <c r="Q272" s="2"/>
       <c r="R272" s="2"/>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>148</v>
       </c>
@@ -24356,12 +24345,12 @@
         <v>3751</v>
       </c>
       <c r="P273" s="2" t="s">
-        <v>4021</v>
+        <v>4020</v>
       </c>
       <c r="Q273" s="2"/>
       <c r="R273" s="2"/>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>149</v>
       </c>
@@ -24401,12 +24390,12 @@
         <v>3751</v>
       </c>
       <c r="P274" s="2" t="s">
-        <v>4021</v>
+        <v>4020</v>
       </c>
       <c r="Q274" s="2"/>
       <c r="R274" s="2"/>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>150</v>
       </c>
@@ -24446,12 +24435,12 @@
         <v>3751</v>
       </c>
       <c r="P275" s="2" t="s">
-        <v>4021</v>
+        <v>4020</v>
       </c>
       <c r="Q275" s="2"/>
       <c r="R275" s="2"/>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>151</v>
       </c>
@@ -24479,7 +24468,7 @@
         <v>string</v>
       </c>
       <c r="L276" s="2" t="s">
-        <v>4022</v>
+        <v>4021</v>
       </c>
       <c r="M276" s="2"/>
       <c r="N276" s="2"/>
@@ -24488,7 +24477,7 @@
       <c r="Q276" s="2"/>
       <c r="R276" s="2"/>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>152</v>
       </c>
@@ -24516,7 +24505,7 @@
         <v>number</v>
       </c>
       <c r="L277" s="2" t="s">
-        <v>4023</v>
+        <v>4022</v>
       </c>
       <c r="M277" s="2"/>
       <c r="N277" s="2"/>
@@ -24528,7 +24517,7 @@
         <v>3939</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>153</v>
       </c>
@@ -24568,7 +24557,7 @@
         <v>3939</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>154</v>
       </c>
@@ -24596,7 +24585,7 @@
         <v>string</v>
       </c>
       <c r="L279" s="2" t="s">
-        <v>4024</v>
+        <v>4023</v>
       </c>
       <c r="M279" s="2"/>
       <c r="N279" s="2"/>
@@ -24605,10 +24594,10 @@
       <c r="Q279" s="2"/>
       <c r="R279" s="2"/>
       <c r="S279" t="s">
-        <v>4025</v>
-      </c>
-    </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.2">
+        <v>4024</v>
+      </c>
+    </row>
+    <row r="280" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>155</v>
       </c>
@@ -24647,10 +24636,10 @@
       <c r="Q280" s="2"/>
       <c r="R280" s="2"/>
       <c r="S280" t="s">
-        <v>4025</v>
-      </c>
-    </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.2">
+        <v>4024</v>
+      </c>
+    </row>
+    <row r="281" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>156</v>
       </c>
@@ -24680,7 +24669,7 @@
         <v>string</v>
       </c>
       <c r="L281" s="2" t="s">
-        <v>4026</v>
+        <v>4025</v>
       </c>
       <c r="M281" s="2"/>
       <c r="N281" s="2"/>
@@ -24689,10 +24678,10 @@
       <c r="Q281" s="2"/>
       <c r="R281" s="2"/>
       <c r="S281" t="s">
-        <v>4025</v>
-      </c>
-    </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.2">
+        <v>4024</v>
+      </c>
+    </row>
+    <row r="282" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>157</v>
       </c>
@@ -24731,10 +24720,10 @@
       <c r="Q282" s="2"/>
       <c r="R282" s="2"/>
       <c r="S282" t="s">
-        <v>4025</v>
-      </c>
-    </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.2">
+        <v>4024</v>
+      </c>
+    </row>
+    <row r="283" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>158</v>
       </c>
@@ -24771,7 +24760,7 @@
       <c r="Q283" s="2"/>
       <c r="R283" s="2"/>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>159</v>
       </c>
@@ -24801,7 +24790,7 @@
         <v>string</v>
       </c>
       <c r="L284" s="2" t="s">
-        <v>4027</v>
+        <v>4026</v>
       </c>
       <c r="M284" s="2"/>
       <c r="N284" s="2"/>
@@ -24810,7 +24799,7 @@
       <c r="Q284" s="2"/>
       <c r="R284" s="2"/>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>160</v>
       </c>
@@ -24849,7 +24838,7 @@
       <c r="Q285" s="2"/>
       <c r="R285" s="2"/>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>161</v>
       </c>
@@ -24892,10 +24881,10 @@
         <v>1945</v>
       </c>
       <c r="S286" t="s">
-        <v>4029</v>
-      </c>
-    </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.2">
+        <v>4028</v>
+      </c>
+    </row>
+    <row r="287" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>162</v>
       </c>
@@ -24938,10 +24927,10 @@
         <v>1945</v>
       </c>
       <c r="S287" t="s">
-        <v>4030</v>
-      </c>
-    </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.2">
+        <v>4029</v>
+      </c>
+    </row>
+    <row r="288" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>163</v>
       </c>
@@ -24984,10 +24973,10 @@
         <v>1945</v>
       </c>
       <c r="S288" t="s">
-        <v>4031</v>
-      </c>
-    </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.2">
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="289" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>164</v>
       </c>
@@ -25030,7 +25019,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>165</v>
       </c>
@@ -25073,7 +25062,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>166</v>
       </c>
@@ -25116,7 +25105,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>167</v>
       </c>
@@ -25159,7 +25148,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>168</v>
       </c>
@@ -25202,7 +25191,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>169</v>
       </c>
@@ -25245,7 +25234,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>170</v>
       </c>
@@ -25288,7 +25277,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>171</v>
       </c>
@@ -25331,7 +25320,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>172</v>
       </c>
@@ -25374,7 +25363,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>173</v>
       </c>
@@ -25417,7 +25406,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>174</v>
       </c>
@@ -25460,7 +25449,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>175</v>
       </c>
@@ -25503,7 +25492,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>176</v>
       </c>
@@ -25546,7 +25535,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>177</v>
       </c>
@@ -25589,7 +25578,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>178</v>
       </c>
@@ -25632,7 +25621,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>179</v>
       </c>
@@ -25675,7 +25664,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>180</v>
       </c>
@@ -25718,7 +25707,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>181</v>
       </c>
@@ -25761,7 +25750,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>182</v>
       </c>
@@ -25804,7 +25793,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>183</v>
       </c>
@@ -25847,7 +25836,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>184</v>
       </c>
@@ -25890,7 +25879,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>185</v>
       </c>
@@ -25933,7 +25922,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>186</v>
       </c>
@@ -25976,7 +25965,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>187</v>
       </c>
@@ -26019,7 +26008,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>188</v>
       </c>
@@ -26062,7 +26051,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>189</v>
       </c>
@@ -26105,7 +26094,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>190</v>
       </c>
@@ -26148,7 +26137,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>191</v>
       </c>
@@ -26191,7 +26180,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>192</v>
       </c>
@@ -26234,7 +26223,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>193</v>
       </c>
@@ -26277,7 +26266,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>194</v>
       </c>
@@ -26320,7 +26309,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>195</v>
       </c>
@@ -26363,7 +26352,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>196</v>
       </c>
@@ -26406,7 +26395,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>197</v>
       </c>
@@ -26449,7 +26438,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>198</v>
       </c>
@@ -26492,7 +26481,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>199</v>
       </c>
@@ -26529,7 +26518,7 @@
       <c r="Q324" s="2"/>
       <c r="R324" s="2"/>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>200</v>
       </c>
@@ -26555,10 +26544,10 @@
       <c r="I325" s="2"/>
       <c r="J325" s="2"/>
       <c r="K325" s="25" t="s">
+        <v>4031</v>
+      </c>
+      <c r="L325" s="25" t="s">
         <v>4032</v>
-      </c>
-      <c r="L325" s="25" t="s">
-        <v>4033</v>
       </c>
       <c r="M325" s="2" t="s">
         <v>3945</v>
@@ -26571,7 +26560,7 @@
       </c>
       <c r="R325" s="2"/>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>201</v>
       </c>
@@ -26599,7 +26588,7 @@
         <v>string</v>
       </c>
       <c r="L326" s="25" t="s">
-        <v>4034</v>
+        <v>4033</v>
       </c>
       <c r="M326" s="2"/>
       <c r="N326" s="2"/>
@@ -26608,7 +26597,7 @@
       <c r="Q326" s="2"/>
       <c r="R326" s="2"/>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>202</v>
       </c>
@@ -26636,7 +26625,7 @@
         <v>string</v>
       </c>
       <c r="L327" s="25" t="s">
-        <v>4035</v>
+        <v>4034</v>
       </c>
       <c r="M327" s="2"/>
       <c r="N327" s="2"/>
@@ -26645,7 +26634,7 @@
       <c r="Q327" s="2"/>
       <c r="R327" s="2"/>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>203</v>
       </c>
@@ -26673,7 +26662,7 @@
         <v>string</v>
       </c>
       <c r="L328" s="25" t="s">
-        <v>4036</v>
+        <v>4035</v>
       </c>
       <c r="M328" s="2"/>
       <c r="N328" s="2"/>
@@ -26682,7 +26671,7 @@
       <c r="Q328" s="2"/>
       <c r="R328" s="2"/>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>204</v>
       </c>
@@ -26721,7 +26710,7 @@
       <c r="Q329" s="2"/>
       <c r="R329" s="2"/>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>205</v>
       </c>
@@ -26758,7 +26747,7 @@
       <c r="Q330" s="2"/>
       <c r="R330" s="2"/>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>206</v>
       </c>
@@ -26797,7 +26786,7 @@
       <c r="Q331" s="2"/>
       <c r="R331" s="2"/>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>207</v>
       </c>
@@ -26834,7 +26823,7 @@
       <c r="Q332" s="2"/>
       <c r="R332" s="2"/>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>208</v>
       </c>
@@ -26873,7 +26862,7 @@
       <c r="Q333" s="2"/>
       <c r="R333" s="2"/>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>209</v>
       </c>
@@ -26903,7 +26892,7 @@
         <v>string</v>
       </c>
       <c r="L334" s="2" t="s">
-        <v>4037</v>
+        <v>4036</v>
       </c>
       <c r="M334" s="2"/>
       <c r="N334" s="2"/>
@@ -26914,7 +26903,7 @@
       </c>
       <c r="R334" s="2"/>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>210</v>
       </c>
@@ -26955,7 +26944,7 @@
       <c r="Q335" s="2"/>
       <c r="R335" s="2"/>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>211</v>
       </c>
@@ -26994,7 +26983,7 @@
       <c r="Q336" s="2"/>
       <c r="R336" s="2"/>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>212</v>
       </c>
@@ -27033,7 +27022,7 @@
       <c r="Q337" s="2"/>
       <c r="R337" s="2"/>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>213</v>
       </c>
@@ -27067,7 +27056,7 @@
       <c r="Q338" s="2"/>
       <c r="R338" s="2"/>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>214</v>
       </c>
@@ -27114,7 +27103,7 @@
       <c r="Q339" s="2"/>
       <c r="R339" s="2"/>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>215</v>
       </c>
@@ -27161,7 +27150,7 @@
       <c r="Q340" s="2"/>
       <c r="R340" s="2"/>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>216</v>
       </c>
@@ -27198,7 +27187,7 @@
       <c r="Q341" s="2"/>
       <c r="R341" s="2"/>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>217</v>
       </c>
@@ -27235,7 +27224,7 @@
       <c r="Q342" s="2"/>
       <c r="R342" s="2"/>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>218</v>
       </c>
@@ -27278,7 +27267,7 @@
       <c r="Q343" s="2"/>
       <c r="R343" s="2"/>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>219</v>
       </c>
@@ -27321,7 +27310,7 @@
       <c r="Q344" s="2"/>
       <c r="R344" s="2"/>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>220</v>
       </c>
@@ -27364,7 +27353,7 @@
       <c r="Q345" s="2"/>
       <c r="R345" s="2"/>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>221</v>
       </c>
@@ -27407,7 +27396,7 @@
       <c r="Q346" s="2"/>
       <c r="R346" s="2"/>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>222</v>
       </c>
@@ -27450,7 +27439,7 @@
       <c r="Q347" s="2"/>
       <c r="R347" s="2"/>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>223</v>
       </c>
@@ -27493,7 +27482,7 @@
       <c r="Q348" s="2"/>
       <c r="R348" s="2"/>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>224</v>
       </c>
@@ -27536,7 +27525,7 @@
       <c r="Q349" s="2"/>
       <c r="R349" s="2"/>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>225</v>
       </c>
@@ -27579,7 +27568,7 @@
       <c r="Q350" s="2"/>
       <c r="R350" s="2"/>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>226</v>
       </c>
@@ -27622,7 +27611,7 @@
       <c r="Q351" s="2"/>
       <c r="R351" s="2"/>
     </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>227</v>
       </c>
@@ -27665,7 +27654,7 @@
       <c r="Q352" s="2"/>
       <c r="R352" s="2"/>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>228</v>
       </c>
@@ -27708,7 +27697,7 @@
       <c r="Q353" s="2"/>
       <c r="R353" s="2"/>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>229</v>
       </c>
@@ -27751,7 +27740,7 @@
       <c r="Q354" s="2"/>
       <c r="R354" s="2"/>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>230</v>
       </c>
@@ -27794,7 +27783,7 @@
       <c r="Q355" s="2"/>
       <c r="R355" s="2"/>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>231</v>
       </c>
@@ -27837,7 +27826,7 @@
       <c r="Q356" s="2"/>
       <c r="R356" s="2"/>
     </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>232</v>
       </c>
@@ -27880,7 +27869,7 @@
       <c r="Q357" s="2"/>
       <c r="R357" s="2"/>
     </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>233</v>
       </c>
@@ -27923,7 +27912,7 @@
       <c r="Q358" s="2"/>
       <c r="R358" s="2"/>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>234</v>
       </c>
@@ -27966,7 +27955,7 @@
       <c r="Q359" s="2"/>
       <c r="R359" s="2"/>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>235</v>
       </c>
@@ -28009,7 +27998,7 @@
       <c r="Q360" s="2"/>
       <c r="R360" s="2"/>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>236</v>
       </c>
@@ -28052,7 +28041,7 @@
       <c r="Q361" s="2"/>
       <c r="R361" s="2"/>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>237</v>
       </c>
@@ -28095,7 +28084,7 @@
       <c r="Q362" s="2"/>
       <c r="R362" s="2"/>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>238</v>
       </c>
@@ -28123,7 +28112,7 @@
         <v>date</v>
       </c>
       <c r="L363" s="22" t="s">
-        <v>4038</v>
+        <v>4037</v>
       </c>
       <c r="M363" s="22"/>
       <c r="N363" s="2" t="s">
@@ -28134,10 +28123,10 @@
       <c r="Q363" s="2"/>
       <c r="R363" s="2"/>
       <c r="S363" t="s">
-        <v>4039</v>
-      </c>
-    </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.2">
+        <v>4038</v>
+      </c>
+    </row>
+    <row r="364" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>239</v>
       </c>
@@ -28180,7 +28169,7 @@
       <c r="Q364" s="2"/>
       <c r="R364" s="2"/>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>240</v>
       </c>
@@ -28223,7 +28212,7 @@
       <c r="Q365" s="2"/>
       <c r="R365" s="2"/>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>241</v>
       </c>
@@ -28266,7 +28255,7 @@
       <c r="Q366" s="2"/>
       <c r="R366" s="2"/>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>242</v>
       </c>
@@ -28309,7 +28298,7 @@
       <c r="Q367" s="2"/>
       <c r="R367" s="2"/>
     </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>243</v>
       </c>
@@ -28352,7 +28341,7 @@
       <c r="Q368" s="2"/>
       <c r="R368" s="2"/>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>244</v>
       </c>
@@ -28395,7 +28384,7 @@
       <c r="Q369" s="2"/>
       <c r="R369" s="2"/>
     </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>245</v>
       </c>
@@ -28438,7 +28427,7 @@
       <c r="Q370" s="2"/>
       <c r="R370" s="2"/>
     </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>246</v>
       </c>
@@ -28481,7 +28470,7 @@
       <c r="Q371" s="2"/>
       <c r="R371" s="2"/>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>247</v>
       </c>
@@ -28524,7 +28513,7 @@
       <c r="Q372" s="2"/>
       <c r="R372" s="2"/>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>248</v>
       </c>
@@ -28567,7 +28556,7 @@
       <c r="Q373" s="2"/>
       <c r="R373" s="2"/>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>249</v>
       </c>
@@ -28610,7 +28599,7 @@
       <c r="Q374" s="2"/>
       <c r="R374" s="2"/>
     </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>250</v>
       </c>
@@ -28653,7 +28642,7 @@
       <c r="Q375" s="2"/>
       <c r="R375" s="2"/>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>251</v>
       </c>
@@ -28696,7 +28685,7 @@
       <c r="Q376" s="2"/>
       <c r="R376" s="2"/>
     </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>252</v>
       </c>
@@ -28739,7 +28728,7 @@
       <c r="Q377" s="2"/>
       <c r="R377" s="2"/>
     </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>253</v>
       </c>
@@ -28782,7 +28771,7 @@
       <c r="Q378" s="2"/>
       <c r="R378" s="2"/>
     </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>254</v>
       </c>
@@ -28825,7 +28814,7 @@
       <c r="Q379" s="2"/>
       <c r="R379" s="2"/>
     </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>255</v>
       </c>
@@ -28855,7 +28844,7 @@
         <v>string</v>
       </c>
       <c r="L380" s="22" t="s">
-        <v>4040</v>
+        <v>4039</v>
       </c>
       <c r="M380" s="22"/>
       <c r="N380" s="2"/>
@@ -28864,7 +28853,7 @@
       <c r="Q380" s="2"/>
       <c r="R380" s="2"/>
     </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>256</v>
       </c>
@@ -28894,7 +28883,7 @@
         <v>string</v>
       </c>
       <c r="L381" s="22" t="s">
-        <v>4041</v>
+        <v>4040</v>
       </c>
       <c r="M381" s="22"/>
       <c r="N381" s="2"/>
@@ -28903,7 +28892,7 @@
       <c r="Q381" s="2"/>
       <c r="R381" s="2"/>
     </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>257</v>
       </c>
@@ -28933,7 +28922,7 @@
         <v>boolean</v>
       </c>
       <c r="L382" s="22" t="s">
-        <v>4042</v>
+        <v>4041</v>
       </c>
       <c r="M382" s="22"/>
       <c r="N382" s="2"/>
@@ -28942,7 +28931,7 @@
       <c r="Q382" s="2"/>
       <c r="R382" s="2"/>
     </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>258</v>
       </c>
@@ -28970,7 +28959,7 @@
         <v>date</v>
       </c>
       <c r="L383" s="22" t="s">
-        <v>4043</v>
+        <v>4042</v>
       </c>
       <c r="M383" s="22"/>
       <c r="N383" s="2"/>
@@ -28979,7 +28968,7 @@
       <c r="Q383" s="2"/>
       <c r="R383" s="2"/>
     </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>259</v>
       </c>
@@ -29016,7 +29005,7 @@
       <c r="Q384" s="2"/>
       <c r="R384" s="2"/>
     </row>
-    <row r="385" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>260</v>
       </c>
@@ -29053,7 +29042,7 @@
       <c r="Q385" s="2"/>
       <c r="R385" s="2"/>
     </row>
-    <row r="386" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>261</v>
       </c>
@@ -29090,7 +29079,7 @@
       <c r="Q386" s="2"/>
       <c r="R386" s="2"/>
     </row>
-    <row r="387" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>262</v>
       </c>
@@ -29129,7 +29118,7 @@
       <c r="Q387" s="2"/>
       <c r="R387" s="2"/>
     </row>
-    <row r="388" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>263</v>
       </c>
@@ -29166,7 +29155,7 @@
       <c r="Q388" s="2"/>
       <c r="R388" s="2"/>
     </row>
-    <row r="389" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>264</v>
       </c>
@@ -29190,7 +29179,7 @@
         <v>3816</v>
       </c>
       <c r="I389" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J389" s="2" t="s">
         <v>3945</v>
@@ -29209,7 +29198,7 @@
       <c r="Q389" s="2"/>
       <c r="R389" s="2"/>
     </row>
-    <row r="390" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>265</v>
       </c>
@@ -29233,7 +29222,7 @@
         <v>3816</v>
       </c>
       <c r="I390" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J390" s="2" t="s">
         <v>3945</v>
@@ -29252,7 +29241,7 @@
       <c r="Q390" s="2"/>
       <c r="R390" s="2"/>
     </row>
-    <row r="391" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>266</v>
       </c>
@@ -29276,7 +29265,7 @@
         <v>3816</v>
       </c>
       <c r="I391" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J391" s="2" t="s">
         <v>3945</v>
@@ -29295,7 +29284,7 @@
       <c r="Q391" s="2"/>
       <c r="R391" s="2"/>
     </row>
-    <row r="392" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>267</v>
       </c>
@@ -29319,7 +29308,7 @@
         <v>3816</v>
       </c>
       <c r="I392" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J392" s="2" t="s">
         <v>3945</v>
@@ -29338,7 +29327,7 @@
       <c r="Q392" s="2"/>
       <c r="R392" s="2"/>
     </row>
-    <row r="393" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>268</v>
       </c>
@@ -29362,7 +29351,7 @@
         <v>3816</v>
       </c>
       <c r="I393" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J393" s="2" t="s">
         <v>3945</v>
@@ -29381,7 +29370,7 @@
       <c r="Q393" s="2"/>
       <c r="R393" s="2"/>
     </row>
-    <row r="394" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>269</v>
       </c>
@@ -29405,7 +29394,7 @@
         <v>3816</v>
       </c>
       <c r="I394" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J394" s="2" t="s">
         <v>3945</v>
@@ -29424,7 +29413,7 @@
       <c r="Q394" s="2"/>
       <c r="R394" s="2"/>
     </row>
-    <row r="395" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>270</v>
       </c>
@@ -29448,7 +29437,7 @@
         <v>3816</v>
       </c>
       <c r="I395" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J395" s="2" t="s">
         <v>3945</v>
@@ -29467,7 +29456,7 @@
       <c r="Q395" s="2"/>
       <c r="R395" s="2"/>
     </row>
-    <row r="396" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>271</v>
       </c>
@@ -29491,7 +29480,7 @@
         <v>3816</v>
       </c>
       <c r="I396" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J396" s="2" t="s">
         <v>3945</v>
@@ -29510,7 +29499,7 @@
       <c r="Q396" s="2"/>
       <c r="R396" s="2"/>
     </row>
-    <row r="397" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>272</v>
       </c>
@@ -29534,7 +29523,7 @@
         <v>3816</v>
       </c>
       <c r="I397" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J397" s="2" t="s">
         <v>3945</v>
@@ -29553,7 +29542,7 @@
       <c r="Q397" s="2"/>
       <c r="R397" s="2"/>
     </row>
-    <row r="398" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>273</v>
       </c>
@@ -29577,7 +29566,7 @@
         <v>3816</v>
       </c>
       <c r="I398" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J398" s="2" t="s">
         <v>3945</v>
@@ -29596,7 +29585,7 @@
       <c r="Q398" s="2"/>
       <c r="R398" s="2"/>
     </row>
-    <row r="399" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>274</v>
       </c>
@@ -29620,7 +29609,7 @@
         <v>3816</v>
       </c>
       <c r="I399" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J399" s="2" t="s">
         <v>3945</v>
@@ -29639,7 +29628,7 @@
       <c r="Q399" s="2"/>
       <c r="R399" s="2"/>
     </row>
-    <row r="400" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>275</v>
       </c>
@@ -29663,7 +29652,7 @@
         <v>3816</v>
       </c>
       <c r="I400" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J400" s="2" t="s">
         <v>3945</v>
@@ -29682,7 +29671,7 @@
       <c r="Q400" s="2"/>
       <c r="R400" s="2"/>
     </row>
-    <row r="401" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>276</v>
       </c>
@@ -29706,7 +29695,7 @@
         <v>3816</v>
       </c>
       <c r="I401" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J401" s="2" t="s">
         <v>3945</v>
@@ -29725,7 +29714,7 @@
       <c r="Q401" s="2"/>
       <c r="R401" s="2"/>
     </row>
-    <row r="402" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>277</v>
       </c>
@@ -29749,7 +29738,7 @@
         <v>3816</v>
       </c>
       <c r="I402" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J402" s="2" t="s">
         <v>3945</v>
@@ -29768,7 +29757,7 @@
       <c r="Q402" s="2"/>
       <c r="R402" s="2"/>
     </row>
-    <row r="403" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>278</v>
       </c>
@@ -29792,7 +29781,7 @@
         <v>3816</v>
       </c>
       <c r="I403" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J403" s="2" t="s">
         <v>3945</v>
@@ -29811,7 +29800,7 @@
       <c r="Q403" s="2"/>
       <c r="R403" s="2"/>
     </row>
-    <row r="404" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>279</v>
       </c>
@@ -29835,7 +29824,7 @@
         <v>3816</v>
       </c>
       <c r="I404" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J404" s="2" t="s">
         <v>3945</v>
@@ -29854,7 +29843,7 @@
       <c r="Q404" s="2"/>
       <c r="R404" s="2"/>
     </row>
-    <row r="405" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>280</v>
       </c>
@@ -29878,7 +29867,7 @@
         <v>3816</v>
       </c>
       <c r="I405" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J405" s="2" t="s">
         <v>3945</v>
@@ -29897,7 +29886,7 @@
       <c r="Q405" s="2"/>
       <c r="R405" s="2"/>
     </row>
-    <row r="406" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>281</v>
       </c>
@@ -29921,7 +29910,7 @@
         <v>3816</v>
       </c>
       <c r="I406" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J406" s="2" t="s">
         <v>3945</v>
@@ -29940,7 +29929,7 @@
       <c r="Q406" s="2"/>
       <c r="R406" s="2"/>
     </row>
-    <row r="407" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>282</v>
       </c>
@@ -29964,7 +29953,7 @@
         <v>3816</v>
       </c>
       <c r="I407" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J407" s="2" t="s">
         <v>3945</v>
@@ -29983,7 +29972,7 @@
       <c r="Q407" s="2"/>
       <c r="R407" s="2"/>
     </row>
-    <row r="408" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>283</v>
       </c>
@@ -30007,7 +29996,7 @@
         <v>3816</v>
       </c>
       <c r="I408" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J408" s="2" t="s">
         <v>3945</v>
@@ -30026,7 +30015,7 @@
       <c r="Q408" s="2"/>
       <c r="R408" s="2"/>
     </row>
-    <row r="409" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>284</v>
       </c>
@@ -30050,7 +30039,7 @@
         <v>3816</v>
       </c>
       <c r="I409" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J409" s="2" t="s">
         <v>3945</v>
@@ -30069,7 +30058,7 @@
       <c r="Q409" s="2"/>
       <c r="R409" s="2"/>
     </row>
-    <row r="410" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>285</v>
       </c>
@@ -30093,7 +30082,7 @@
         <v>3816</v>
       </c>
       <c r="I410" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J410" s="2" t="s">
         <v>3945</v>
@@ -30112,7 +30101,7 @@
       <c r="Q410" s="2"/>
       <c r="R410" s="2"/>
     </row>
-    <row r="411" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>286</v>
       </c>
@@ -30136,7 +30125,7 @@
         <v>3816</v>
       </c>
       <c r="I411" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J411" s="2" t="s">
         <v>3945</v>
@@ -30155,7 +30144,7 @@
       <c r="Q411" s="2"/>
       <c r="R411" s="2"/>
     </row>
-    <row r="412" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>287</v>
       </c>
@@ -30179,7 +30168,7 @@
         <v>3816</v>
       </c>
       <c r="I412" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J412" s="2" t="s">
         <v>3945</v>
@@ -30198,7 +30187,7 @@
       <c r="Q412" s="2"/>
       <c r="R412" s="2"/>
     </row>
-    <row r="413" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>288</v>
       </c>
@@ -30222,7 +30211,7 @@
         <v>3816</v>
       </c>
       <c r="I413" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J413" s="2" t="s">
         <v>3945</v>
@@ -30241,7 +30230,7 @@
       <c r="Q413" s="2"/>
       <c r="R413" s="2"/>
     </row>
-    <row r="414" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>289</v>
       </c>
@@ -30265,7 +30254,7 @@
         <v>3816</v>
       </c>
       <c r="I414" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J414" s="2" t="s">
         <v>3945</v>
@@ -30284,7 +30273,7 @@
       <c r="Q414" s="2"/>
       <c r="R414" s="2"/>
     </row>
-    <row r="415" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>290</v>
       </c>
@@ -30308,7 +30297,7 @@
         <v>3816</v>
       </c>
       <c r="I415" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J415" s="2" t="s">
         <v>3945</v>
@@ -30327,7 +30316,7 @@
       <c r="Q415" s="2"/>
       <c r="R415" s="2"/>
     </row>
-    <row r="416" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>291</v>
       </c>
@@ -30351,7 +30340,7 @@
         <v>3816</v>
       </c>
       <c r="I416" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J416" s="2" t="s">
         <v>3945</v>
@@ -30370,7 +30359,7 @@
       <c r="Q416" s="2"/>
       <c r="R416" s="2"/>
     </row>
-    <row r="417" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>292</v>
       </c>
@@ -30394,7 +30383,7 @@
         <v>3816</v>
       </c>
       <c r="I417" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J417" s="2" t="s">
         <v>3945</v>
@@ -30413,7 +30402,7 @@
       <c r="Q417" s="2"/>
       <c r="R417" s="2"/>
     </row>
-    <row r="418" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>293</v>
       </c>
@@ -30437,7 +30426,7 @@
         <v>3816</v>
       </c>
       <c r="I418" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J418" s="2" t="s">
         <v>3945</v>
@@ -30456,7 +30445,7 @@
       <c r="Q418" s="2"/>
       <c r="R418" s="2"/>
     </row>
-    <row r="419" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>294</v>
       </c>
@@ -30480,7 +30469,7 @@
         <v>3816</v>
       </c>
       <c r="I419" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J419" s="2" t="s">
         <v>3945</v>
@@ -30499,7 +30488,7 @@
       <c r="Q419" s="2"/>
       <c r="R419" s="2"/>
     </row>
-    <row r="420" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>295</v>
       </c>
@@ -30523,7 +30512,7 @@
         <v>3816</v>
       </c>
       <c r="I420" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J420" s="2" t="s">
         <v>3945</v>
@@ -30542,7 +30531,7 @@
       <c r="Q420" s="2"/>
       <c r="R420" s="2"/>
     </row>
-    <row r="421" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>296</v>
       </c>
@@ -30566,7 +30555,7 @@
         <v>3816</v>
       </c>
       <c r="I421" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J421" s="2" t="s">
         <v>3945</v>
@@ -30585,7 +30574,7 @@
       <c r="Q421" s="2"/>
       <c r="R421" s="2"/>
     </row>
-    <row r="422" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>297</v>
       </c>
@@ -30609,7 +30598,7 @@
         <v>3816</v>
       </c>
       <c r="I422" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J422" s="2" t="s">
         <v>3945</v>
@@ -30628,7 +30617,7 @@
       <c r="Q422" s="2"/>
       <c r="R422" s="2"/>
     </row>
-    <row r="423" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>298</v>
       </c>
@@ -30652,7 +30641,7 @@
         <v>3816</v>
       </c>
       <c r="I423" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J423" s="2" t="s">
         <v>3945</v>
@@ -30671,7 +30660,7 @@
       <c r="Q423" s="2"/>
       <c r="R423" s="2"/>
     </row>
-    <row r="424" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>299</v>
       </c>
@@ -30695,7 +30684,7 @@
         <v>3816</v>
       </c>
       <c r="I424" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J424" s="2" t="s">
         <v>3945</v>
@@ -30714,7 +30703,7 @@
       <c r="Q424" s="2"/>
       <c r="R424" s="2"/>
     </row>
-    <row r="425" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>300</v>
       </c>
@@ -30738,7 +30727,7 @@
         <v>3816</v>
       </c>
       <c r="I425" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J425" s="2" t="s">
         <v>3945</v>
@@ -30757,7 +30746,7 @@
       <c r="Q425" s="2"/>
       <c r="R425" s="2"/>
     </row>
-    <row r="426" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>301</v>
       </c>
@@ -30781,7 +30770,7 @@
         <v>3816</v>
       </c>
       <c r="I426" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J426" s="2" t="s">
         <v>3945</v>
@@ -30800,7 +30789,7 @@
       <c r="Q426" s="2"/>
       <c r="R426" s="2"/>
     </row>
-    <row r="427" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>302</v>
       </c>
@@ -30824,7 +30813,7 @@
         <v>3816</v>
       </c>
       <c r="I427" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J427" s="2" t="s">
         <v>3945</v>
@@ -30843,7 +30832,7 @@
       <c r="Q427" s="2"/>
       <c r="R427" s="2"/>
     </row>
-    <row r="428" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>303</v>
       </c>
@@ -30867,7 +30856,7 @@
         <v>3816</v>
       </c>
       <c r="I428" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J428" s="2" t="s">
         <v>3945</v>
@@ -30886,7 +30875,7 @@
       <c r="Q428" s="2"/>
       <c r="R428" s="2"/>
     </row>
-    <row r="429" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>304</v>
       </c>
@@ -30910,7 +30899,7 @@
         <v>3816</v>
       </c>
       <c r="I429" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J429" s="2" t="s">
         <v>3945</v>
@@ -30929,7 +30918,7 @@
       <c r="Q429" s="2"/>
       <c r="R429" s="2"/>
     </row>
-    <row r="430" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>305</v>
       </c>
@@ -30953,7 +30942,7 @@
         <v>3816</v>
       </c>
       <c r="I430" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J430" s="2" t="s">
         <v>3945</v>
@@ -30972,7 +30961,7 @@
       <c r="Q430" s="2"/>
       <c r="R430" s="2"/>
     </row>
-    <row r="431" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>306</v>
       </c>
@@ -30996,7 +30985,7 @@
         <v>3816</v>
       </c>
       <c r="I431" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J431" s="2" t="s">
         <v>3945</v>
@@ -31015,7 +31004,7 @@
       <c r="Q431" s="2"/>
       <c r="R431" s="2"/>
     </row>
-    <row r="432" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>307</v>
       </c>
@@ -31039,7 +31028,7 @@
         <v>3816</v>
       </c>
       <c r="I432" s="2" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J432" s="2" t="s">
         <v>3945</v>
@@ -31058,7 +31047,7 @@
       <c r="Q432" s="2"/>
       <c r="R432" s="2"/>
     </row>
-    <row r="433" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>308</v>
       </c>
@@ -31097,7 +31086,7 @@
       <c r="Q433" s="2"/>
       <c r="R433" s="2"/>
     </row>
-    <row r="434" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>309</v>
       </c>
@@ -31136,7 +31125,7 @@
       <c r="Q434" s="2"/>
       <c r="R434" s="2"/>
     </row>
-    <row r="435" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>310</v>
       </c>
@@ -31173,7 +31162,7 @@
       <c r="Q435" s="2"/>
       <c r="R435" s="2"/>
     </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>311</v>
       </c>
@@ -31210,7 +31199,7 @@
       <c r="Q436" s="2"/>
       <c r="R436" s="2"/>
     </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>312</v>
       </c>
@@ -31252,7 +31241,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="438" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>313</v>
       </c>
@@ -31289,7 +31278,7 @@
       <c r="Q438" s="2"/>
       <c r="R438" s="2"/>
     </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>314</v>
       </c>
@@ -31326,7 +31315,7 @@
       <c r="Q439" s="2"/>
       <c r="R439" s="2"/>
     </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>315</v>
       </c>
@@ -31363,7 +31352,7 @@
       <c r="Q440" s="2"/>
       <c r="R440" s="2"/>
     </row>
-    <row r="441" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>316</v>
       </c>
@@ -31400,7 +31389,7 @@
       <c r="Q441" s="2"/>
       <c r="R441" s="2"/>
     </row>
-    <row r="442" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>317</v>
       </c>
@@ -75551,7 +75540,7 @@
   <autoFilter ref="A1:S1511" xr:uid="{AB4347BA-5474-314C-B4B0-067646BD2E4D}">
     <filterColumn colId="5">
       <filters>
-        <filter val="ART_Consultation(PLHA)"/>
+        <filter val="ART_Adherence"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -75580,24 +75569,24 @@
         <v>1810</v>
       </c>
       <c r="B1" t="s">
+        <v>4000</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4004</v>
+      </c>
+      <c r="D1" t="s">
         <v>4001</v>
       </c>
-      <c r="C1" t="s">
-        <v>4005</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4002</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4003</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4004</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4006</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -75649,7 +75638,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3984</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -75694,7 +75683,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>3987</v>
+        <v>3986</v>
       </c>
     </row>
   </sheetData>
